--- a/BackTest/2019-10-19 BackTest MIX.xlsx
+++ b/BackTest/2019-10-19 BackTest MIX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.2999999999999989</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L12" t="n">
         <v>11.84</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.3999999999999986</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>11.84</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.4999999999999982</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-20</v>
+      </c>
       <c r="L14" t="n">
         <v>11.83</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.4999999999999982</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>11.82</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.4999999999999982</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>11.82</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.5999999999999979</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>11.83</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.6999999999999975</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>11.82</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.7999999999999989</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-20.00000000000028</v>
+      </c>
       <c r="L19" t="n">
         <v>11.81</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>14.28571428571421</v>
+      </c>
       <c r="L20" t="n">
         <v>11.82</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>14.28571428571421</v>
+      </c>
       <c r="L21" t="n">
         <v>11.83</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.200000000000001</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-25.00000000000006</v>
+      </c>
       <c r="L22" t="n">
         <v>11.82</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.300000000000002</v>
       </c>
       <c r="K23" t="n">
-        <v>-7.69230769230765</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>11.81</v>
@@ -1466,7 +1488,7 @@
         <v>1.300000000000002</v>
       </c>
       <c r="K24" t="n">
-        <v>-7.69230769230765</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>11.81</v>
@@ -1515,7 +1537,7 @@
         <v>1.300000000000002</v>
       </c>
       <c r="K25" t="n">
-        <v>-7.69230769230765</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>11.81</v>
@@ -1564,7 +1586,7 @@
         <v>1.400000000000004</v>
       </c>
       <c r="K26" t="n">
-        <v>-7.692307692307776</v>
+        <v>-24.99999999999994</v>
       </c>
       <c r="L26" t="n">
         <v>11.8</v>
@@ -1662,7 +1684,7 @@
         <v>1.600000000000005</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>24.99999999999994</v>
       </c>
       <c r="L28" t="n">
         <v>11.8</v>
@@ -1711,7 +1733,7 @@
         <v>1.700000000000005</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L29" t="n">
         <v>11.81</v>
@@ -1760,7 +1782,7 @@
         <v>1.700000000000005</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L30" t="n">
         <v>11.8</v>
@@ -1809,7 +1831,7 @@
         <v>1.800000000000004</v>
       </c>
       <c r="K31" t="n">
-        <v>6.666666666666619</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L31" t="n">
         <v>11.8</v>
@@ -1860,7 +1882,7 @@
         <v>1.800000000000004</v>
       </c>
       <c r="K32" t="n">
-        <v>6.666666666666619</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L32" t="n">
         <v>11.82</v>
@@ -1911,7 +1933,7 @@
         <v>1.800000000000004</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L33" t="n">
         <v>11.83</v>
@@ -1962,7 +1984,7 @@
         <v>1.800000000000004</v>
       </c>
       <c r="K34" t="n">
-        <v>7.692307692307629</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L34" t="n">
         <v>11.84</v>
@@ -2013,7 +2035,7 @@
         <v>1.800000000000004</v>
       </c>
       <c r="K35" t="n">
-        <v>7.692307692307629</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L35" t="n">
         <v>11.85</v>
@@ -2064,7 +2086,7 @@
         <v>1.800000000000004</v>
       </c>
       <c r="K36" t="n">
-        <v>7.692307692307629</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L36" t="n">
         <v>11.87</v>
@@ -2115,7 +2137,7 @@
         <v>1.900000000000004</v>
       </c>
       <c r="K37" t="n">
-        <v>-7.692307692307629</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L37" t="n">
         <v>11.87</v>
@@ -2166,7 +2188,7 @@
         <v>2.000000000000004</v>
       </c>
       <c r="K38" t="n">
-        <v>7.692307692307629</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L38" t="n">
         <v>11.87</v>
@@ -2217,7 +2239,7 @@
         <v>2.100000000000003</v>
       </c>
       <c r="K39" t="n">
-        <v>23.07692307692306</v>
+        <v>50</v>
       </c>
       <c r="L39" t="n">
         <v>11.89</v>
@@ -2268,7 +2290,7 @@
         <v>2.100000000000003</v>
       </c>
       <c r="K40" t="n">
-        <v>9.090909090909033</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>11.91</v>
@@ -2319,7 +2341,7 @@
         <v>2.200000000000003</v>
       </c>
       <c r="K41" t="n">
-        <v>16.66666666666657</v>
+        <v>50</v>
       </c>
       <c r="L41" t="n">
         <v>11.93</v>
@@ -2370,7 +2392,7 @@
         <v>2.300000000000002</v>
       </c>
       <c r="K42" t="n">
-        <v>27.27272727272731</v>
+        <v>20</v>
       </c>
       <c r="L42" t="n">
         <v>11.94</v>
@@ -2421,7 +2443,7 @@
         <v>2.400000000000002</v>
       </c>
       <c r="K43" t="n">
-        <v>27.27272727272718</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L43" t="n">
         <v>11.96</v>
@@ -2472,7 +2494,7 @@
         <v>2.500000000000002</v>
       </c>
       <c r="K44" t="n">
-        <v>16.66666666666662</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L44" t="n">
         <v>11.97</v>
@@ -2523,7 +2545,7 @@
         <v>2.600000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>23.07692307692301</v>
+        <v>25</v>
       </c>
       <c r="L45" t="n">
         <v>11.98999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>2.700000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>23.07692307692318</v>
+        <v>25</v>
       </c>
       <c r="L46" t="n">
         <v>11.99999999999999</v>
@@ -2625,7 +2647,7 @@
         <v>2.700000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L47" t="n">
         <v>12.01999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>2.800000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L48" t="n">
         <v>12.04</v>
@@ -2727,7 +2749,7 @@
         <v>2.9</v>
       </c>
       <c r="K49" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>12.04</v>
@@ -2778,7 +2800,7 @@
         <v>3</v>
       </c>
       <c r="K50" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>12.04999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>3</v>
       </c>
       <c r="K51" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L51" t="n">
         <v>12.04999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>12.05999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>3</v>
       </c>
       <c r="K53" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L53" t="n">
         <v>12.05999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>3</v>
       </c>
       <c r="K54" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>12.06999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L55" t="n">
         <v>12.06999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>3.1</v>
       </c>
       <c r="K56" t="n">
-        <v>23.07692307692308</v>
+        <v>50</v>
       </c>
       <c r="L56" t="n">
         <v>12.08999999999999</v>
@@ -3135,7 +3157,7 @@
         <v>3.199999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>12.09999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>3.299999999999999</v>
       </c>
       <c r="K58" t="n">
-        <v>23.07692307692308</v>
+        <v>50</v>
       </c>
       <c r="L58" t="n">
         <v>12.10999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>3.299999999999999</v>
       </c>
       <c r="K59" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L59" t="n">
         <v>12.12999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>3.399999999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>12.12999999999999</v>
@@ -3390,7 +3412,7 @@
         <v>3.399999999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>12.12999999999999</v>
@@ -3441,7 +3463,7 @@
         <v>3.499999999999998</v>
       </c>
       <c r="K63" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L63" t="n">
         <v>12.13999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>3.599999999999998</v>
       </c>
       <c r="K64" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>12.13999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>3.599999999999998</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L65" t="n">
         <v>12.13999999999999</v>
@@ -3645,7 +3667,7 @@
         <v>3.699999999999998</v>
       </c>
       <c r="K67" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>12.14999999999999</v>
@@ -3696,7 +3718,7 @@
         <v>3.799999999999997</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L68" t="n">
         <v>12.13999999999999</v>
@@ -3798,7 +3820,7 @@
         <v>3.899999999999997</v>
       </c>
       <c r="K70" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L70" t="n">
         <v>12.14999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>3.999999999999998</v>
       </c>
       <c r="K71" t="n">
-        <v>20.00000000000014</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L71" t="n">
         <v>12.16999999999999</v>
@@ -3900,7 +3922,7 @@
         <v>3.999999999999998</v>
       </c>
       <c r="K72" t="n">
-        <v>20.00000000000014</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L72" t="n">
         <v>12.18999999999999</v>
@@ -3951,7 +3973,7 @@
         <v>3.999999999999998</v>
       </c>
       <c r="K73" t="n">
-        <v>20.00000000000014</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L73" t="n">
         <v>12.19999999999999</v>
@@ -4002,7 +4024,7 @@
         <v>3.999999999999998</v>
       </c>
       <c r="K74" t="n">
-        <v>20.00000000000014</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L74" t="n">
         <v>12.21999999999999</v>
@@ -4053,7 +4075,7 @@
         <v>3.999999999999998</v>
       </c>
       <c r="K75" t="n">
-        <v>20.00000000000014</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L75" t="n">
         <v>12.23999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>3.999999999999998</v>
       </c>
       <c r="K76" t="n">
-        <v>11.11111111111129</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L76" t="n">
         <v>12.25</v>
@@ -4206,7 +4228,7 @@
         <v>4.299999999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>-19.99999999999993</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L78" t="n">
         <v>12.23</v>
@@ -4257,7 +4279,7 @@
         <v>4.299999999999999</v>
       </c>
       <c r="K79" t="n">
-        <v>-19.99999999999993</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L79" t="n">
         <v>12.21</v>
@@ -4308,7 +4330,7 @@
         <v>4.299999999999999</v>
       </c>
       <c r="K80" t="n">
-        <v>-11.11111111111107</v>
+        <v>-100</v>
       </c>
       <c r="L80" t="n">
         <v>12.19</v>
@@ -4359,7 +4381,7 @@
         <v>4.299999999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>-11.11111111111107</v>
+        <v>-100</v>
       </c>
       <c r="L81" t="n">
         <v>12.16</v>
@@ -4410,7 +4432,7 @@
         <v>4.299999999999999</v>
       </c>
       <c r="K82" t="n">
-        <v>-11.11111111111107</v>
+        <v>-100</v>
       </c>
       <c r="L82" t="n">
         <v>12.13</v>
@@ -4461,7 +4483,7 @@
         <v>4.299999999999999</v>
       </c>
       <c r="K83" t="n">
-        <v>-24.99999999999989</v>
+        <v>-100</v>
       </c>
       <c r="L83" t="n">
         <v>12.1</v>
@@ -4512,7 +4534,7 @@
         <v>4.299999999999999</v>
       </c>
       <c r="K84" t="n">
-        <v>-14.28571428571421</v>
+        <v>-100</v>
       </c>
       <c r="L84" t="n">
         <v>12.06999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>4.299999999999999</v>
       </c>
       <c r="K85" t="n">
-        <v>-14.28571428571421</v>
+        <v>-100</v>
       </c>
       <c r="L85" t="n">
         <v>12.03999999999999</v>
@@ -4614,7 +4636,7 @@
         <v>4.399999999999999</v>
       </c>
       <c r="K86" t="n">
-        <v>-42.85714285714264</v>
+        <v>-100</v>
       </c>
       <c r="L86" t="n">
         <v>11.99999999999999</v>
@@ -4665,7 +4687,7 @@
         <v>4.499999999999998</v>
       </c>
       <c r="K87" t="n">
-        <v>-24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>11.98999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>4.599999999999998</v>
       </c>
       <c r="K88" t="n">
-        <v>-24.99999999999989</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L88" t="n">
         <v>11.98</v>
@@ -4767,7 +4789,7 @@
         <v>4.599999999999998</v>
       </c>
       <c r="K89" t="n">
-        <v>-42.85714285714264</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>11.97</v>
@@ -4818,7 +4840,7 @@
         <v>4.599999999999998</v>
       </c>
       <c r="K90" t="n">
-        <v>-42.85714285714264</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L90" t="n">
         <v>11.96</v>
@@ -4869,7 +4891,7 @@
         <v>4.699999999999998</v>
       </c>
       <c r="K91" t="n">
-        <v>-42.857142857143</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>11.96</v>
@@ -4920,7 +4942,7 @@
         <v>4.699999999999998</v>
       </c>
       <c r="K92" t="n">
-        <v>-42.857142857143</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>11.96</v>
@@ -4971,7 +4993,7 @@
         <v>4.699999999999998</v>
       </c>
       <c r="K93" t="n">
-        <v>-42.857142857143</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>11.96</v>
@@ -5022,7 +5044,7 @@
         <v>4.699999999999998</v>
       </c>
       <c r="K94" t="n">
-        <v>-42.857142857143</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>11.96</v>
@@ -5073,7 +5095,7 @@
         <v>4.699999999999998</v>
       </c>
       <c r="K95" t="n">
-        <v>-42.857142857143</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L95" t="n">
         <v>11.96</v>
@@ -5124,7 +5146,7 @@
         <v>4.699999999999998</v>
       </c>
       <c r="K96" t="n">
-        <v>-42.857142857143</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>11.97</v>
@@ -5175,7 +5197,7 @@
         <v>4.699999999999998</v>
       </c>
       <c r="K97" t="n">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="L97" t="n">
         <v>11.97</v>
@@ -5226,7 +5248,7 @@
         <v>4.799999999999997</v>
       </c>
       <c r="K98" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>11.97</v>
@@ -5277,7 +5299,7 @@
         <v>4.799999999999997</v>
       </c>
       <c r="K99" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>11.97</v>
@@ -5379,7 +5401,7 @@
         <v>4.999999999999996</v>
       </c>
       <c r="K101" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>11.97</v>
@@ -5430,7 +5452,7 @@
         <v>5.199999999999996</v>
       </c>
       <c r="K102" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L102" t="n">
         <v>11.98</v>
@@ -5532,7 +5554,7 @@
         <v>5.399999999999995</v>
       </c>
       <c r="K104" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L104" t="n">
         <v>11.98999999999999</v>
@@ -5583,7 +5605,7 @@
         <v>5.399999999999995</v>
       </c>
       <c r="K105" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L105" t="n">
         <v>11.99999999999999</v>
@@ -5634,7 +5656,7 @@
         <v>5.499999999999995</v>
       </c>
       <c r="K106" t="n">
-        <v>27.27272727272727</v>
+        <v>25</v>
       </c>
       <c r="L106" t="n">
         <v>12.01999999999999</v>
@@ -5685,7 +5707,7 @@
         <v>5.699999999999994</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L107" t="n">
         <v>12.01999999999999</v>
@@ -5736,7 +5758,7 @@
         <v>5.699999999999994</v>
       </c>
       <c r="K108" t="n">
-        <v>9.090909090909092</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L108" t="n">
         <v>12.02999999999999</v>
@@ -5787,7 +5809,7 @@
         <v>5.699999999999994</v>
       </c>
       <c r="K109" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>12.03999999999999</v>
@@ -5838,7 +5860,7 @@
         <v>5.699999999999994</v>
       </c>
       <c r="K110" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L110" t="n">
         <v>12.03999999999999</v>
@@ -5889,7 +5911,7 @@
         <v>5.699999999999994</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L111" t="n">
         <v>12.04999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>5.899999999999993</v>
       </c>
       <c r="K112" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L112" t="n">
         <v>12.05999999999999</v>
@@ -5991,7 +6013,7 @@
         <v>5.899999999999993</v>
       </c>
       <c r="K113" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L113" t="n">
         <v>12.07999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>5.999999999999995</v>
       </c>
       <c r="K114" t="n">
-        <v>23.07692307692318</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L114" t="n">
         <v>12.09999999999999</v>
@@ -6093,7 +6115,7 @@
         <v>5.999999999999995</v>
       </c>
       <c r="K115" t="n">
-        <v>23.07692307692318</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L115" t="n">
         <v>12.11999999999999</v>
@@ -6144,7 +6166,7 @@
         <v>6.099999999999996</v>
       </c>
       <c r="K116" t="n">
-        <v>14.28571428571425</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L116" t="n">
         <v>12.11999999999999</v>
@@ -6195,7 +6217,7 @@
         <v>6.199999999999996</v>
       </c>
       <c r="K117" t="n">
-        <v>6.666666666666651</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L117" t="n">
         <v>12.12999999999999</v>
@@ -6246,7 +6268,7 @@
         <v>6.299999999999995</v>
       </c>
       <c r="K118" t="n">
-        <v>19.99999999999995</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L118" t="n">
         <v>12.14999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>6.399999999999997</v>
       </c>
       <c r="K119" t="n">
-        <v>25.00000000000003</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L119" t="n">
         <v>12.17999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>6.399999999999997</v>
       </c>
       <c r="K120" t="n">
-        <v>20.00000000000005</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L120" t="n">
         <v>12.20999999999999</v>
@@ -6399,7 +6421,7 @@
         <v>6.499999999999998</v>
       </c>
       <c r="K121" t="n">
-        <v>19.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>12.22999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>6.499999999999998</v>
       </c>
       <c r="K122" t="n">
-        <v>7.69230769230765</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>12.22999999999999</v>
@@ -6501,7 +6523,7 @@
         <v>6.499999999999998</v>
       </c>
       <c r="K123" t="n">
-        <v>16.66666666666657</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L123" t="n">
         <v>12.22999999999999</v>
@@ -6552,7 +6574,7 @@
         <v>6.6</v>
       </c>
       <c r="K124" t="n">
-        <v>16.66666666666669</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>12.22999999999999</v>
@@ -6603,7 +6625,7 @@
         <v>6.700000000000001</v>
       </c>
       <c r="K125" t="n">
-        <v>7.692307692307629</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>12.21999999999999</v>
@@ -6654,7 +6676,7 @@
         <v>6.800000000000002</v>
       </c>
       <c r="K126" t="n">
-        <v>7.692307692307756</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L126" t="n">
         <v>12.22999999999999</v>
@@ -6705,7 +6727,7 @@
         <v>6.800000000000002</v>
       </c>
       <c r="K127" t="n">
-        <v>27.27272727272713</v>
+        <v>20</v>
       </c>
       <c r="L127" t="n">
         <v>12.24999999999999</v>
@@ -6756,7 +6778,7 @@
         <v>6.800000000000002</v>
       </c>
       <c r="K128" t="n">
-        <v>27.27272727272713</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>12.25999999999999</v>
@@ -6807,7 +6829,7 @@
         <v>6.900000000000004</v>
       </c>
       <c r="K129" t="n">
-        <v>16.66666666666647</v>
+        <v>-20</v>
       </c>
       <c r="L129" t="n">
         <v>12.24999999999999</v>
@@ -6858,7 +6880,7 @@
         <v>6.900000000000004</v>
       </c>
       <c r="K130" t="n">
-        <v>16.66666666666647</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>12.23999999999999</v>
@@ -6909,7 +6931,7 @@
         <v>6.900000000000004</v>
       </c>
       <c r="K131" t="n">
-        <v>16.66666666666647</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>12.23999999999999</v>
@@ -7011,7 +7033,7 @@
         <v>7.000000000000005</v>
       </c>
       <c r="K133" t="n">
-        <v>9.09090909090912</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>12.24999999999999</v>
@@ -7062,7 +7084,7 @@
         <v>7.100000000000007</v>
       </c>
       <c r="K134" t="n">
-        <v>-9.09090909090912</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
         <v>12.23999999999999</v>
@@ -7113,7 +7135,7 @@
         <v>7.100000000000007</v>
       </c>
       <c r="K135" t="n">
-        <v>-9.09090909090912</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L135" t="n">
         <v>12.23999999999999</v>
@@ -7164,7 +7186,7 @@
         <v>7.100000000000007</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L136" t="n">
         <v>12.22999999999999</v>
@@ -7215,7 +7237,7 @@
         <v>7.100000000000007</v>
       </c>
       <c r="K137" t="n">
-        <v>11.11111111111093</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L137" t="n">
         <v>12.22</v>
@@ -7266,7 +7288,7 @@
         <v>7.200000000000008</v>
       </c>
       <c r="K138" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>12.22</v>
@@ -7317,7 +7339,7 @@
         <v>7.30000000000001</v>
       </c>
       <c r="K139" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>12.22</v>
@@ -7368,7 +7390,7 @@
         <v>7.400000000000011</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L140" t="n">
         <v>12.22999999999999</v>
@@ -7470,7 +7492,7 @@
         <v>7.600000000000014</v>
       </c>
       <c r="K142" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>12.23999999999999</v>
@@ -7572,7 +7594,7 @@
         <v>7.700000000000015</v>
       </c>
       <c r="K144" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>12.22999999999999</v>
@@ -7674,7 +7696,7 @@
         <v>7.700000000000015</v>
       </c>
       <c r="K146" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>12.22999999999999</v>
@@ -7725,7 +7747,7 @@
         <v>7.700000000000015</v>
       </c>
       <c r="K147" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L147" t="n">
         <v>12.22999999999999</v>
@@ -7776,7 +7798,7 @@
         <v>7.700000000000015</v>
       </c>
       <c r="K148" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>12.22</v>
@@ -7827,7 +7849,7 @@
         <v>7.700000000000015</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L149" t="n">
         <v>12.22</v>
@@ -7929,7 +7951,7 @@
         <v>7.700000000000015</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L151" t="n">
         <v>12.21</v>
@@ -7980,7 +8002,7 @@
         <v>7.800000000000017</v>
       </c>
       <c r="K152" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L152" t="n">
         <v>12.21</v>
@@ -8031,7 +8053,7 @@
         <v>7.800000000000017</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L153" t="n">
         <v>12.22</v>
@@ -8133,7 +8155,7 @@
         <v>8.00000000000002</v>
       </c>
       <c r="K155" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L155" t="n">
         <v>12.22999999999999</v>
@@ -8184,7 +8206,7 @@
         <v>8.30000000000002</v>
       </c>
       <c r="K156" t="n">
-        <v>-16.66666666666642</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L156" t="n">
         <v>12.21</v>
@@ -8235,7 +8257,7 @@
         <v>8.40000000000002</v>
       </c>
       <c r="K157" t="n">
-        <v>-7.692307692307587</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L157" t="n">
         <v>12.2</v>
@@ -8286,7 +8308,7 @@
         <v>8.50000000000002</v>
       </c>
       <c r="K158" t="n">
-        <v>-23.07692307692293</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L158" t="n">
         <v>12.17999999999999</v>
@@ -8337,7 +8359,7 @@
         <v>8.600000000000019</v>
       </c>
       <c r="K159" t="n">
-        <v>-7.692307692307608</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L159" t="n">
         <v>12.16999999999999</v>
@@ -8388,7 +8410,7 @@
         <v>8.700000000000019</v>
       </c>
       <c r="K160" t="n">
-        <v>-23.07692307692299</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L160" t="n">
         <v>12.14999999999999</v>
@@ -8439,7 +8461,7 @@
         <v>8.800000000000018</v>
       </c>
       <c r="K161" t="n">
-        <v>-23.07692307692289</v>
+        <v>-39.99999999999996</v>
       </c>
       <c r="L161" t="n">
         <v>12.11999999999999</v>
@@ -8490,7 +8512,7 @@
         <v>8.900000000000018</v>
       </c>
       <c r="K162" t="n">
-        <v>-23.07692307692306</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="L162" t="n">
         <v>12.08999999999999</v>
@@ -8541,7 +8563,7 @@
         <v>9.000000000000018</v>
       </c>
       <c r="K163" t="n">
-        <v>-23.07692307692295</v>
+        <v>-27.27272727272718</v>
       </c>
       <c r="L163" t="n">
         <v>12.04999999999999</v>
@@ -8592,7 +8614,7 @@
         <v>9.100000000000017</v>
       </c>
       <c r="K164" t="n">
-        <v>-14.28571428571421</v>
+        <v>-27.27272727272739</v>
       </c>
       <c r="L164" t="n">
         <v>12.02999999999999</v>
@@ -8643,7 +8665,7 @@
         <v>9.200000000000017</v>
       </c>
       <c r="K165" t="n">
-        <v>-19.9999999999999</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L165" t="n">
         <v>11.98999999999999</v>
@@ -8694,7 +8716,7 @@
         <v>9.300000000000017</v>
       </c>
       <c r="K166" t="n">
-        <v>-12.49999999999994</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L166" t="n">
         <v>11.98999999999999</v>
@@ -8745,7 +8767,7 @@
         <v>9.400000000000016</v>
       </c>
       <c r="K167" t="n">
-        <v>-17.64705882352934</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L167" t="n">
         <v>11.96999999999999</v>
@@ -8796,7 +8818,7 @@
         <v>9.500000000000016</v>
       </c>
       <c r="K168" t="n">
-        <v>-11.11111111111107</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L168" t="n">
         <v>11.96999999999999</v>
@@ -8847,7 +8869,7 @@
         <v>9.600000000000016</v>
       </c>
       <c r="K169" t="n">
-        <v>-15.78947368421047</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L169" t="n">
         <v>11.94999999999999</v>
@@ -8898,7 +8920,7 @@
         <v>9.600000000000016</v>
       </c>
       <c r="K170" t="n">
-        <v>-15.78947368421047</v>
+        <v>0</v>
       </c>
       <c r="L170" t="n">
         <v>11.93999999999999</v>
@@ -8949,7 +8971,7 @@
         <v>9.800000000000015</v>
       </c>
       <c r="K171" t="n">
-        <v>-4.761904761904746</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L171" t="n">
         <v>11.95999999999999</v>
@@ -9000,7 +9022,7 @@
         <v>9.800000000000015</v>
       </c>
       <c r="K172" t="n">
-        <v>-10.00000000000006</v>
+        <v>25</v>
       </c>
       <c r="L172" t="n">
         <v>11.96999999999999</v>
@@ -9051,7 +9073,7 @@
         <v>9.800000000000015</v>
       </c>
       <c r="K173" t="n">
-        <v>-10.00000000000006</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L173" t="n">
         <v>11.98999999999999</v>
@@ -9102,7 +9124,7 @@
         <v>9.800000000000015</v>
       </c>
       <c r="K174" t="n">
-        <v>-5.263157894736832</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L174" t="n">
         <v>11.99999999999999</v>
@@ -9153,7 +9175,7 @@
         <v>9.900000000000015</v>
       </c>
       <c r="K175" t="n">
-        <v>-15.78947368421061</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>12.00999999999999</v>
@@ -9204,7 +9226,7 @@
         <v>10.00000000000001</v>
       </c>
       <c r="K176" t="n">
-        <v>5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L176" t="n">
         <v>12.01999999999999</v>
@@ -9255,7 +9277,7 @@
         <v>10.00000000000001</v>
       </c>
       <c r="K177" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L177" t="n">
         <v>12.03999999999999</v>
@@ -9306,7 +9328,7 @@
         <v>10.00000000000001</v>
       </c>
       <c r="K178" t="n">
-        <v>6.666666666666667</v>
+        <v>50</v>
       </c>
       <c r="L178" t="n">
         <v>12.04999999999999</v>
@@ -9357,7 +9379,7 @@
         <v>10.00000000000001</v>
       </c>
       <c r="K179" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L179" t="n">
         <v>12.06999999999999</v>
@@ -9408,7 +9430,7 @@
         <v>10.00000000000001</v>
       </c>
       <c r="K180" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>12.08999999999999</v>
@@ -9459,7 +9481,7 @@
         <v>10.00000000000001</v>
       </c>
       <c r="K181" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>12.08999999999999</v>
@@ -9510,7 +9532,7 @@
         <v>10.10000000000001</v>
       </c>
       <c r="K182" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L182" t="n">
         <v>12.07999999999999</v>
@@ -9561,7 +9583,7 @@
         <v>10.10000000000001</v>
       </c>
       <c r="K183" t="n">
-        <v>9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L183" t="n">
         <v>12.06999999999999</v>
@@ -9612,7 +9634,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K184" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L184" t="n">
         <v>12.06999999999999</v>
@@ -9663,7 +9685,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K185" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>12.07999999999999</v>
@@ -9714,7 +9736,7 @@
         <v>10.30000000000001</v>
       </c>
       <c r="K186" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L186" t="n">
         <v>12.08999999999999</v>
@@ -9765,7 +9787,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K187" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L187" t="n">
         <v>12.07999999999999</v>
@@ -9816,7 +9838,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K188" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L188" t="n">
         <v>12.08999999999999</v>
@@ -9867,7 +9889,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K189" t="n">
-        <v>27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L189" t="n">
         <v>12.09999999999999</v>
@@ -9918,7 +9940,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K190" t="n">
-        <v>27.27272727272727</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L190" t="n">
         <v>12.10999999999999</v>
@@ -9969,7 +9991,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K191" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L191" t="n">
         <v>12.11999999999999</v>
@@ -10020,7 +10042,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K192" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L192" t="n">
         <v>12.13999999999998</v>
@@ -10071,7 +10093,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K193" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L193" t="n">
         <v>12.15999999999998</v>
@@ -10122,7 +10144,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K194" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L194" t="n">
         <v>12.16999999999998</v>
@@ -10173,7 +10195,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K195" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>12.17999999999998</v>
@@ -10224,7 +10246,7 @@
         <v>10.80000000000001</v>
       </c>
       <c r="K196" t="n">
-        <v>25.00000000000017</v>
+        <v>100</v>
       </c>
       <c r="L196" t="n">
         <v>12.18999999999998</v>
@@ -10275,7 +10297,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K197" t="n">
-        <v>11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>12.20999999999998</v>
@@ -10326,7 +10348,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K198" t="n">
-        <v>0</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L198" t="n">
         <v>12.19999999999998</v>
@@ -10377,7 +10399,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K199" t="n">
-        <v>0</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L199" t="n">
         <v>12.18999999999998</v>
@@ -10428,7 +10450,7 @@
         <v>11.10000000000001</v>
       </c>
       <c r="K200" t="n">
-        <v>-9.090909090909062</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L200" t="n">
         <v>12.16999999999998</v>
@@ -10479,7 +10501,7 @@
         <v>11.20000000000001</v>
       </c>
       <c r="K201" t="n">
-        <v>0</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L201" t="n">
         <v>12.15999999999998</v>
@@ -10530,7 +10552,7 @@
         <v>11.30000000000001</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L202" t="n">
         <v>12.13999999999998</v>
@@ -10581,7 +10603,7 @@
         <v>11.30000000000001</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L203" t="n">
         <v>12.11999999999998</v>
@@ -10632,7 +10654,7 @@
         <v>11.40000000000001</v>
       </c>
       <c r="K204" t="n">
-        <v>0</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L204" t="n">
         <v>12.10999999999998</v>
@@ -10683,7 +10705,7 @@
         <v>11.40000000000001</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L205" t="n">
         <v>12.09999999999998</v>
@@ -10734,7 +10756,7 @@
         <v>11.50000000000001</v>
       </c>
       <c r="K206" t="n">
-        <v>-16.66666666666662</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L206" t="n">
         <v>12.06999999999998</v>
@@ -10785,7 +10807,7 @@
         <v>11.60000000000001</v>
       </c>
       <c r="K207" t="n">
-        <v>9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L207" t="n">
         <v>12.05999999999998</v>
@@ -10836,7 +10858,7 @@
         <v>11.70000000000001</v>
       </c>
       <c r="K208" t="n">
-        <v>-19.99999999999993</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L208" t="n">
         <v>12.04999999999999</v>
@@ -10887,7 +10909,7 @@
         <v>11.80000000000001</v>
       </c>
       <c r="K209" t="n">
-        <v>-9.090909090909062</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L209" t="n">
         <v>12.04999999999999</v>
@@ -10938,7 +10960,7 @@
         <v>11.80000000000001</v>
       </c>
       <c r="K210" t="n">
-        <v>-9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>12.05999999999998</v>
@@ -10989,7 +11011,7 @@
         <v>11.90000000000001</v>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L211" t="n">
         <v>12.06999999999998</v>
@@ -11040,7 +11062,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K212" t="n">
-        <v>-7.692307692307672</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L212" t="n">
         <v>12.07999999999998</v>
@@ -11091,7 +11113,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K213" t="n">
-        <v>-7.692307692307672</v>
+        <v>0</v>
       </c>
       <c r="L213" t="n">
         <v>12.08999999999998</v>
@@ -11142,7 +11164,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K214" t="n">
-        <v>-7.692307692307672</v>
+        <v>0</v>
       </c>
       <c r="L214" t="n">
         <v>12.08999999999998</v>
@@ -11193,7 +11215,7 @@
         <v>12.10000000000001</v>
       </c>
       <c r="K215" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L215" t="n">
         <v>12.09999999999998</v>
@@ -11244,7 +11266,7 @@
         <v>12.10000000000001</v>
       </c>
       <c r="K216" t="n">
-        <v>-7.692307692307819</v>
+        <v>20</v>
       </c>
       <c r="L216" t="n">
         <v>12.11999999999998</v>
@@ -11295,7 +11317,7 @@
         <v>12.20000000000001</v>
       </c>
       <c r="K217" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L217" t="n">
         <v>12.11999999999998</v>
@@ -11346,7 +11368,7 @@
         <v>12.30000000000001</v>
       </c>
       <c r="K218" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L218" t="n">
         <v>12.13999999999998</v>
@@ -11448,7 +11470,7 @@
         <v>12.60000000000001</v>
       </c>
       <c r="K220" t="n">
-        <v>-6.666666666666667</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L220" t="n">
         <v>12.11999999999998</v>
@@ -11499,7 +11521,7 @@
         <v>12.70000000000001</v>
       </c>
       <c r="K221" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L221" t="n">
         <v>12.07999999999998</v>
@@ -11550,7 +11572,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K222" t="n">
-        <v>-6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L222" t="n">
         <v>12.05999999999998</v>
@@ -11601,7 +11623,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K223" t="n">
-        <v>-6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L223" t="n">
         <v>12.03999999999998</v>
@@ -11652,7 +11674,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K224" t="n">
-        <v>-14.28571428571428</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L224" t="n">
         <v>12.01999999999999</v>
@@ -11703,7 +11725,7 @@
         <v>12.90000000000001</v>
       </c>
       <c r="K225" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L225" t="n">
         <v>11.97999999999999</v>
@@ -11754,7 +11776,7 @@
         <v>13.20000000000001</v>
       </c>
       <c r="K226" t="n">
-        <v>-29.41176470588243</v>
+        <v>-60.00000000000008</v>
       </c>
       <c r="L226" t="n">
         <v>11.90999999999998</v>
@@ -11805,7 +11827,7 @@
         <v>13.40000000000001</v>
       </c>
       <c r="K227" t="n">
-        <v>-22.2222222222223</v>
+        <v>-45.45454545454554</v>
       </c>
       <c r="L227" t="n">
         <v>11.86999999999999</v>
@@ -11856,7 +11878,7 @@
         <v>13.50000000000001</v>
       </c>
       <c r="K228" t="n">
-        <v>-11.11111111111109</v>
+        <v>-27.27272727272718</v>
       </c>
       <c r="L228" t="n">
         <v>11.82999999999999</v>
@@ -11907,7 +11929,7 @@
         <v>13.60000000000001</v>
       </c>
       <c r="K229" t="n">
-        <v>-11.11111111111109</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>11.80999999999998</v>
@@ -11958,7 +11980,7 @@
         <v>13.80000000000001</v>
       </c>
       <c r="K230" t="n">
-        <v>-20.00000000000004</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L230" t="n">
         <v>11.78999999999998</v>
@@ -12009,7 +12031,7 @@
         <v>14.00000000000001</v>
       </c>
       <c r="K231" t="n">
-        <v>-14.28571428571424</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
         <v>11.79999999999998</v>
@@ -12060,7 +12082,7 @@
         <v>14.10000000000001</v>
       </c>
       <c r="K232" t="n">
-        <v>-14.28571428571424</v>
+        <v>-7.69230769230765</v>
       </c>
       <c r="L232" t="n">
         <v>11.78999999999998</v>
@@ -12111,7 +12133,7 @@
         <v>14.10000000000001</v>
       </c>
       <c r="K233" t="n">
-        <v>-14.28571428571424</v>
+        <v>-7.69230769230765</v>
       </c>
       <c r="L233" t="n">
         <v>11.77999999999998</v>
@@ -12162,7 +12184,7 @@
         <v>14.20000000000001</v>
       </c>
       <c r="K234" t="n">
-        <v>-9.090909090909062</v>
+        <v>7.69230769230765</v>
       </c>
       <c r="L234" t="n">
         <v>11.77999999999998</v>
@@ -12213,7 +12235,7 @@
         <v>14.40000000000001</v>
       </c>
       <c r="K235" t="n">
-        <v>-21.7391304347826</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L235" t="n">
         <v>11.76999999999998</v>
@@ -12264,7 +12286,7 @@
         <v>14.40000000000001</v>
       </c>
       <c r="K236" t="n">
-        <v>-21.7391304347826</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>11.78999999999998</v>
@@ -12315,7 +12337,7 @@
         <v>14.40000000000001</v>
       </c>
       <c r="K237" t="n">
-        <v>-18.18181818181819</v>
+        <v>-11.11111111111124</v>
       </c>
       <c r="L237" t="n">
         <v>11.78999999999998</v>
@@ -12366,7 +12388,7 @@
         <v>14.60000000000001</v>
       </c>
       <c r="K238" t="n">
-        <v>-13.0434782608695</v>
+        <v>0</v>
       </c>
       <c r="L238" t="n">
         <v>11.79999999999998</v>
@@ -12417,7 +12439,7 @@
         <v>14.70000000000001</v>
       </c>
       <c r="K239" t="n">
-        <v>-13.0434782608695</v>
+        <v>11.11111111111124</v>
       </c>
       <c r="L239" t="n">
         <v>11.78999999999998</v>
@@ -12468,7 +12490,7 @@
         <v>14.80000000000001</v>
       </c>
       <c r="K240" t="n">
-        <v>-9.09090909090912</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="L240" t="n">
         <v>11.78999999999998</v>
@@ -12570,7 +12592,7 @@
         <v>14.90000000000001</v>
       </c>
       <c r="K242" t="n">
-        <v>-4.76190476190473</v>
+        <v>0</v>
       </c>
       <c r="L242" t="n">
         <v>11.77999999999998</v>
@@ -12621,7 +12643,7 @@
         <v>14.90000000000001</v>
       </c>
       <c r="K243" t="n">
-        <v>-4.76190476190473</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L243" t="n">
         <v>11.77999999999998</v>
@@ -12672,7 +12694,7 @@
         <v>15.00000000000002</v>
       </c>
       <c r="K244" t="n">
-        <v>-9.090909090909104</v>
+        <v>0</v>
       </c>
       <c r="L244" t="n">
         <v>11.75999999999998</v>
@@ -12723,7 +12745,7 @@
         <v>15.10000000000002</v>
       </c>
       <c r="K245" t="n">
-        <v>0</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L245" t="n">
         <v>11.76999999999998</v>
@@ -12774,7 +12796,7 @@
         <v>15.10000000000002</v>
       </c>
       <c r="K246" t="n">
-        <v>15.78947368421049</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L246" t="n">
         <v>11.77999999999998</v>
@@ -12825,7 +12847,7 @@
         <v>15.20000000000002</v>
       </c>
       <c r="K247" t="n">
-        <v>0</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L247" t="n">
         <v>11.77999999999998</v>
@@ -12876,7 +12898,7 @@
         <v>15.20000000000002</v>
       </c>
       <c r="K248" t="n">
-        <v>-5.88235294117652</v>
+        <v>-20</v>
       </c>
       <c r="L248" t="n">
         <v>11.75999999999998</v>
@@ -12927,7 +12949,7 @@
         <v>15.30000000000002</v>
       </c>
       <c r="K249" t="n">
-        <v>-5.88235294117641</v>
+        <v>20</v>
       </c>
       <c r="L249" t="n">
         <v>11.75999999999998</v>
@@ -12978,7 +13000,7 @@
         <v>15.40000000000002</v>
       </c>
       <c r="K250" t="n">
-        <v>12.49999999999999</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L250" t="n">
         <v>11.77999999999998</v>
@@ -13029,7 +13051,7 @@
         <v>15.40000000000002</v>
       </c>
       <c r="K251" t="n">
-        <v>0</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L251" t="n">
         <v>11.78999999999998</v>
@@ -13080,7 +13102,7 @@
         <v>15.40000000000002</v>
       </c>
       <c r="K252" t="n">
-        <v>7.692307692307608</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L252" t="n">
         <v>11.79999999999998</v>
@@ -13131,7 +13153,7 @@
         <v>15.40000000000002</v>
       </c>
       <c r="K253" t="n">
-        <v>7.692307692307608</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L253" t="n">
         <v>11.80999999999998</v>
@@ -13182,7 +13204,7 @@
         <v>15.40000000000002</v>
       </c>
       <c r="K254" t="n">
-        <v>0</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L254" t="n">
         <v>11.82999999999998</v>
@@ -13233,7 +13255,7 @@
         <v>15.50000000000002</v>
       </c>
       <c r="K255" t="n">
-        <v>9.09090909090915</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>11.82999999999998</v>
@@ -13284,7 +13306,7 @@
         <v>15.60000000000002</v>
       </c>
       <c r="K256" t="n">
-        <v>16.66666666666664</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L256" t="n">
         <v>11.83999999999998</v>
@@ -13335,7 +13357,7 @@
         <v>15.70000000000002</v>
       </c>
       <c r="K257" t="n">
-        <v>7.692307692307756</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L257" t="n">
         <v>11.84999999999998</v>
@@ -13386,7 +13408,7 @@
         <v>15.70000000000002</v>
       </c>
       <c r="K258" t="n">
-        <v>-9.090909090909003</v>
+        <v>0</v>
       </c>
       <c r="L258" t="n">
         <v>11.85999999999997</v>
@@ -13437,7 +13459,7 @@
         <v>15.70000000000002</v>
       </c>
       <c r="K259" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L259" t="n">
         <v>11.85999999999997</v>
@@ -13488,7 +13510,7 @@
         <v>15.80000000000002</v>
       </c>
       <c r="K260" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L260" t="n">
         <v>11.85999999999997</v>
@@ -13539,7 +13561,7 @@
         <v>15.80000000000002</v>
       </c>
       <c r="K261" t="n">
-        <v>11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>11.85999999999997</v>
@@ -13590,7 +13612,7 @@
         <v>15.80000000000002</v>
       </c>
       <c r="K262" t="n">
-        <v>11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L262" t="n">
         <v>11.85999999999997</v>
@@ -13641,7 +13663,7 @@
         <v>15.80000000000002</v>
       </c>
       <c r="K263" t="n">
-        <v>11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L263" t="n">
         <v>11.85999999999997</v>
@@ -13692,7 +13714,7 @@
         <v>15.80000000000002</v>
       </c>
       <c r="K264" t="n">
-        <v>25.00000000000006</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L264" t="n">
         <v>11.85999999999997</v>
@@ -13743,7 +13765,7 @@
         <v>15.90000000000002</v>
       </c>
       <c r="K265" t="n">
-        <v>24.99999999999989</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L265" t="n">
         <v>11.87999999999997</v>
@@ -13794,7 +13816,7 @@
         <v>16.00000000000002</v>
       </c>
       <c r="K266" t="n">
-        <v>11.11111111111107</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L266" t="n">
         <v>11.87999999999997</v>
@@ -13845,7 +13867,7 @@
         <v>16.00000000000002</v>
       </c>
       <c r="K267" t="n">
-        <v>25.00000000000017</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L267" t="n">
         <v>11.88999999999997</v>
@@ -13896,7 +13918,7 @@
         <v>16.00000000000002</v>
       </c>
       <c r="K268" t="n">
-        <v>25.00000000000017</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L268" t="n">
         <v>11.89999999999997</v>
@@ -13947,7 +13969,7 @@
         <v>16.00000000000002</v>
       </c>
       <c r="K269" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>11.90999999999997</v>
@@ -13998,7 +14020,7 @@
         <v>16.10000000000002</v>
       </c>
       <c r="K270" t="n">
-        <v>14.28571428571432</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L270" t="n">
         <v>11.91999999999997</v>
@@ -14049,7 +14071,7 @@
         <v>16.10000000000002</v>
       </c>
       <c r="K271" t="n">
-        <v>14.28571428571432</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L271" t="n">
         <v>11.92999999999997</v>
@@ -14100,7 +14122,7 @@
         <v>16.20000000000002</v>
       </c>
       <c r="K272" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L272" t="n">
         <v>11.94999999999997</v>
@@ -14151,7 +14173,7 @@
         <v>16.30000000000002</v>
       </c>
       <c r="K273" t="n">
-        <v>11.11111111111109</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L273" t="n">
         <v>11.95999999999997</v>
@@ -14202,7 +14224,7 @@
         <v>16.40000000000002</v>
       </c>
       <c r="K274" t="n">
-        <v>19.99999999999993</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L274" t="n">
         <v>11.97999999999997</v>
@@ -14253,7 +14275,7 @@
         <v>16.50000000000002</v>
       </c>
       <c r="K275" t="n">
-        <v>19.99999999999989</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L275" t="n">
         <v>11.97999999999997</v>
@@ -14304,7 +14326,7 @@
         <v>16.60000000000002</v>
       </c>
       <c r="K276" t="n">
-        <v>19.99999999999986</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L276" t="n">
         <v>11.99999999999997</v>
@@ -14355,7 +14377,7 @@
         <v>16.60000000000002</v>
       </c>
       <c r="K277" t="n">
-        <v>33.33333333333307</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L277" t="n">
         <v>12.01999999999997</v>
@@ -14406,7 +14428,7 @@
         <v>16.60000000000002</v>
       </c>
       <c r="K278" t="n">
-        <v>33.33333333333307</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L278" t="n">
         <v>12.03999999999997</v>
@@ -14457,7 +14479,7 @@
         <v>16.60000000000002</v>
       </c>
       <c r="K279" t="n">
-        <v>33.33333333333307</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L279" t="n">
         <v>12.05999999999996</v>
@@ -14508,7 +14530,7 @@
         <v>16.60000000000002</v>
       </c>
       <c r="K280" t="n">
-        <v>24.99999999999978</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L280" t="n">
         <v>12.06999999999996</v>
@@ -14559,7 +14581,7 @@
         <v>16.70000000000002</v>
       </c>
       <c r="K281" t="n">
-        <v>11.111111111111</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L281" t="n">
         <v>12.06999999999996</v>
@@ -14610,7 +14632,7 @@
         <v>16.90000000000002</v>
       </c>
       <c r="K282" t="n">
-        <v>27.27272727272705</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L282" t="n">
         <v>12.07999999999996</v>
@@ -14661,7 +14683,7 @@
         <v>17.00000000000002</v>
       </c>
       <c r="K283" t="n">
-        <v>33.33333333333319</v>
+        <v>33.33333333333324</v>
       </c>
       <c r="L283" t="n">
         <v>12.10999999999997</v>
@@ -14712,7 +14734,7 @@
         <v>17.00000000000002</v>
       </c>
       <c r="K284" t="n">
-        <v>33.33333333333319</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L284" t="n">
         <v>12.12999999999997</v>
@@ -14763,7 +14785,7 @@
         <v>17.10000000000003</v>
       </c>
       <c r="K285" t="n">
-        <v>16.66666666666649</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L285" t="n">
         <v>12.14999999999997</v>
@@ -14814,7 +14836,7 @@
         <v>17.20000000000002</v>
       </c>
       <c r="K286" t="n">
-        <v>16.66666666666652</v>
+        <v>0</v>
       </c>
       <c r="L286" t="n">
         <v>12.14999999999997</v>
@@ -14865,7 +14887,7 @@
         <v>17.40000000000002</v>
       </c>
       <c r="K287" t="n">
-        <v>0</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L287" t="n">
         <v>12.12999999999997</v>
@@ -14916,7 +14938,7 @@
         <v>17.50000000000002</v>
       </c>
       <c r="K288" t="n">
-        <v>6.666666666666628</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L288" t="n">
         <v>12.11999999999997</v>
@@ -14967,7 +14989,7 @@
         <v>17.60000000000002</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L289" t="n">
         <v>12.09999999999997</v>
@@ -15018,7 +15040,7 @@
         <v>17.60000000000002</v>
       </c>
       <c r="K290" t="n">
-        <v>-6.666666666666611</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L290" t="n">
         <v>12.07999999999997</v>
@@ -15069,7 +15091,7 @@
         <v>17.60000000000002</v>
       </c>
       <c r="K291" t="n">
-        <v>-6.666666666666611</v>
+        <v>-42.85714285714275</v>
       </c>
       <c r="L291" t="n">
         <v>12.06999999999997</v>
@@ -15120,7 +15142,7 @@
         <v>17.80000000000002</v>
       </c>
       <c r="K292" t="n">
-        <v>0</v>
+        <v>-25.00000000000022</v>
       </c>
       <c r="L292" t="n">
         <v>12.05999999999997</v>
@@ -15171,7 +15193,7 @@
         <v>17.90000000000002</v>
       </c>
       <c r="K293" t="n">
-        <v>0</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L293" t="n">
         <v>12.02999999999997</v>
@@ -15222,7 +15244,7 @@
         <v>18.00000000000002</v>
       </c>
       <c r="K294" t="n">
-        <v>-12.49999999999994</v>
+        <v>-33.3333333333334</v>
       </c>
       <c r="L294" t="n">
         <v>11.98999999999997</v>
@@ -15273,7 +15295,7 @@
         <v>18.00000000000002</v>
       </c>
       <c r="K295" t="n">
-        <v>-6.666666666666643</v>
+        <v>-25</v>
       </c>
       <c r="L295" t="n">
         <v>11.95999999999997</v>
@@ -15324,7 +15346,7 @@
         <v>18.20000000000002</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L296" t="n">
         <v>11.95999999999997</v>
@@ -15375,7 +15397,7 @@
         <v>18.30000000000002</v>
       </c>
       <c r="K297" t="n">
-        <v>-5.882352941176464</v>
+        <v>0</v>
       </c>
       <c r="L297" t="n">
         <v>11.96999999999997</v>
@@ -15426,7 +15448,7 @@
         <v>18.40000000000002</v>
       </c>
       <c r="K298" t="n">
-        <v>-11.11111111111109</v>
+        <v>0</v>
       </c>
       <c r="L298" t="n">
         <v>11.95999999999997</v>
@@ -15477,7 +15499,7 @@
         <v>18.50000000000002</v>
       </c>
       <c r="K299" t="n">
-        <v>-5.263157894736827</v>
+        <v>11.11111111111109</v>
       </c>
       <c r="L299" t="n">
         <v>11.96999999999997</v>
@@ -15528,7 +15550,7 @@
         <v>18.60000000000002</v>
       </c>
       <c r="K300" t="n">
-        <v>0</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L300" t="n">
         <v>11.98999999999997</v>
@@ -15579,7 +15601,7 @@
         <v>18.80000000000002</v>
       </c>
       <c r="K301" t="n">
-        <v>-4.761904761904749</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L301" t="n">
         <v>11.98999999999997</v>
@@ -15630,7 +15652,7 @@
         <v>19.00000000000002</v>
       </c>
       <c r="K302" t="n">
-        <v>-4.761904761904749</v>
+        <v>9.090909090909047</v>
       </c>
       <c r="L302" t="n">
         <v>11.98999999999997</v>
@@ -15681,7 +15703,7 @@
         <v>19.10000000000002</v>
       </c>
       <c r="K303" t="n">
-        <v>-14.28571428571433</v>
+        <v>9.090909090909047</v>
       </c>
       <c r="L303" t="n">
         <v>11.98999999999997</v>
@@ -15732,7 +15754,7 @@
         <v>19.20000000000002</v>
       </c>
       <c r="K304" t="n">
-        <v>-9.090909090909143</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L304" t="n">
         <v>12.00999999999997</v>
@@ -15783,7 +15805,7 @@
         <v>19.20000000000002</v>
       </c>
       <c r="K305" t="n">
-        <v>-4.761904761904749</v>
+        <v>0</v>
       </c>
       <c r="L305" t="n">
         <v>12.02999999999996</v>
@@ -15834,7 +15856,7 @@
         <v>19.30000000000003</v>
       </c>
       <c r="K306" t="n">
-        <v>-4.761904761904741</v>
+        <v>0</v>
       </c>
       <c r="L306" t="n">
         <v>12.01999999999996</v>
@@ -15885,7 +15907,7 @@
         <v>19.30000000000003</v>
       </c>
       <c r="K307" t="n">
-        <v>5.263157894736818</v>
+        <v>11.111111111111</v>
       </c>
       <c r="L307" t="n">
         <v>12.01999999999996</v>
@@ -15987,7 +16009,7 @@
         <v>19.30000000000003</v>
       </c>
       <c r="K309" t="n">
-        <v>5.88235294117644</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L309" t="n">
         <v>12.02999999999996</v>
@@ -16038,7 +16060,7 @@
         <v>19.30000000000003</v>
       </c>
       <c r="K310" t="n">
-        <v>5.88235294117644</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L310" t="n">
         <v>12.01999999999996</v>
@@ -16089,7 +16111,7 @@
         <v>19.40000000000003</v>
       </c>
       <c r="K311" t="n">
-        <v>11.11111111111104</v>
+        <v>0</v>
       </c>
       <c r="L311" t="n">
         <v>12.03999999999996</v>
@@ -16140,7 +16162,7 @@
         <v>19.50000000000003</v>
       </c>
       <c r="K312" t="n">
-        <v>-5.882352941176427</v>
+        <v>0</v>
       </c>
       <c r="L312" t="n">
         <v>12.02999999999996</v>
@@ -16191,7 +16213,7 @@
         <v>19.50000000000003</v>
       </c>
       <c r="K313" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L313" t="n">
         <v>12.02999999999996</v>
@@ -16242,7 +16264,7 @@
         <v>19.50000000000003</v>
       </c>
       <c r="K314" t="n">
-        <v>6.666666666666611</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L314" t="n">
         <v>12.01999999999996</v>
@@ -16293,7 +16315,7 @@
         <v>19.50000000000003</v>
       </c>
       <c r="K315" t="n">
-        <v>6.666666666666611</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>12.00999999999997</v>
@@ -16344,7 +16366,7 @@
         <v>19.50000000000003</v>
       </c>
       <c r="K316" t="n">
-        <v>-7.692307692307619</v>
+        <v>0</v>
       </c>
       <c r="L316" t="n">
         <v>12.00999999999997</v>
@@ -16395,7 +16417,7 @@
         <v>19.60000000000003</v>
       </c>
       <c r="K317" t="n">
-        <v>-7.692307692307598</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L317" t="n">
         <v>11.99999999999997</v>
@@ -16446,7 +16468,7 @@
         <v>19.70000000000003</v>
       </c>
       <c r="K318" t="n">
-        <v>7.692307692307598</v>
+        <v>0</v>
       </c>
       <c r="L318" t="n">
         <v>11.99999999999997</v>
@@ -16497,7 +16519,7 @@
         <v>19.80000000000003</v>
       </c>
       <c r="K319" t="n">
-        <v>-7.692307692307598</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L319" t="n">
         <v>11.98999999999997</v>
@@ -16548,7 +16570,7 @@
         <v>19.80000000000003</v>
       </c>
       <c r="K320" t="n">
-        <v>-16.66666666666647</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L320" t="n">
         <v>11.97999999999997</v>
@@ -16599,7 +16621,7 @@
         <v>19.90000000000003</v>
       </c>
       <c r="K321" t="n">
-        <v>9.090909090908958</v>
+        <v>0</v>
       </c>
       <c r="L321" t="n">
         <v>11.96999999999997</v>
@@ -16752,7 +16774,7 @@
         <v>20.10000000000004</v>
       </c>
       <c r="K324" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L324" t="n">
         <v>11.95999999999997</v>
@@ -16803,7 +16825,7 @@
         <v>20.10000000000004</v>
       </c>
       <c r="K325" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L325" t="n">
         <v>11.95999999999997</v>
@@ -16854,7 +16876,7 @@
         <v>20.20000000000004</v>
       </c>
       <c r="K326" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L326" t="n">
         <v>11.94999999999997</v>
@@ -16956,7 +16978,7 @@
         <v>20.30000000000004</v>
       </c>
       <c r="K328" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L328" t="n">
         <v>11.95999999999997</v>
@@ -17007,7 +17029,7 @@
         <v>20.30000000000004</v>
       </c>
       <c r="K329" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L329" t="n">
         <v>11.96999999999997</v>
@@ -17058,7 +17080,7 @@
         <v>20.40000000000004</v>
       </c>
       <c r="K330" t="n">
-        <v>-9.090909090908928</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L330" t="n">
         <v>11.96999999999997</v>
@@ -17109,7 +17131,7 @@
         <v>20.50000000000004</v>
       </c>
       <c r="K331" t="n">
-        <v>-9.090909090908928</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L331" t="n">
         <v>11.96999999999997</v>
@@ -17211,7 +17233,7 @@
         <v>20.60000000000004</v>
       </c>
       <c r="K333" t="n">
-        <v>-9.090909090908928</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L333" t="n">
         <v>11.96999999999997</v>
@@ -17262,7 +17284,7 @@
         <v>20.60000000000004</v>
       </c>
       <c r="K334" t="n">
-        <v>-9.090909090908928</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L334" t="n">
         <v>11.95999999999997</v>
@@ -17313,7 +17335,7 @@
         <v>20.70000000000005</v>
       </c>
       <c r="K335" t="n">
-        <v>-16.66666666666637</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L335" t="n">
         <v>11.93999999999997</v>
@@ -17364,7 +17386,7 @@
         <v>20.70000000000005</v>
       </c>
       <c r="K336" t="n">
-        <v>-16.66666666666637</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L336" t="n">
         <v>11.92999999999997</v>
@@ -17415,7 +17437,7 @@
         <v>20.70000000000005</v>
       </c>
       <c r="K337" t="n">
-        <v>-9.090909090908928</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L337" t="n">
         <v>11.90999999999997</v>
@@ -17466,7 +17488,7 @@
         <v>20.80000000000005</v>
       </c>
       <c r="K338" t="n">
-        <v>-9.090909090908928</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L338" t="n">
         <v>11.89999999999997</v>
@@ -17517,7 +17539,7 @@
         <v>21.00000000000005</v>
       </c>
       <c r="K339" t="n">
-        <v>-16.66666666666652</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L339" t="n">
         <v>11.86999999999997</v>
@@ -17568,7 +17590,7 @@
         <v>21.10000000000005</v>
       </c>
       <c r="K340" t="n">
-        <v>-7.692307692307556</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L340" t="n">
         <v>11.85999999999997</v>
@@ -17619,7 +17641,7 @@
         <v>21.30000000000005</v>
       </c>
       <c r="K341" t="n">
-        <v>-28.57142857142819</v>
+        <v>-49.99999999999933</v>
       </c>
       <c r="L341" t="n">
         <v>11.81999999999997</v>
@@ -17670,7 +17692,7 @@
         <v>21.50000000000006</v>
       </c>
       <c r="K342" t="n">
-        <v>-6.666666666666549</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L342" t="n">
         <v>11.79999999999997</v>
@@ -17721,7 +17743,7 @@
         <v>21.70000000000006</v>
       </c>
       <c r="K343" t="n">
-        <v>-24.99999999999967</v>
+        <v>-27.27272727272695</v>
       </c>
       <c r="L343" t="n">
         <v>11.76999999999997</v>
@@ -17772,7 +17794,7 @@
         <v>21.70000000000006</v>
       </c>
       <c r="K344" t="n">
-        <v>-24.99999999999967</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L344" t="n">
         <v>11.73999999999997</v>
@@ -17823,7 +17845,7 @@
         <v>21.70000000000006</v>
       </c>
       <c r="K345" t="n">
-        <v>-24.99999999999967</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L345" t="n">
         <v>11.71999999999997</v>
@@ -17874,7 +17896,7 @@
         <v>21.80000000000006</v>
       </c>
       <c r="K346" t="n">
-        <v>-12.49999999999989</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L346" t="n">
         <v>11.70999999999997</v>
@@ -17925,7 +17947,7 @@
         <v>21.80000000000006</v>
       </c>
       <c r="K347" t="n">
-        <v>-19.99999999999976</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L347" t="n">
         <v>11.69999999999997</v>
@@ -17976,7 +17998,7 @@
         <v>21.90000000000006</v>
       </c>
       <c r="K348" t="n">
-        <v>-24.99999999999967</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L348" t="n">
         <v>11.66999999999997</v>
@@ -18027,7 +18049,7 @@
         <v>21.90000000000006</v>
       </c>
       <c r="K349" t="n">
-        <v>-24.99999999999967</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L349" t="n">
         <v>11.65999999999997</v>
@@ -18078,7 +18100,7 @@
         <v>21.90000000000006</v>
       </c>
       <c r="K350" t="n">
-        <v>-19.99999999999976</v>
+        <v>0</v>
       </c>
       <c r="L350" t="n">
         <v>11.63999999999997</v>
@@ -18129,7 +18151,7 @@
         <v>22.00000000000006</v>
       </c>
       <c r="K351" t="n">
-        <v>-19.99999999999976</v>
+        <v>-20</v>
       </c>
       <c r="L351" t="n">
         <v>11.64999999999997</v>
@@ -18180,7 +18202,7 @@
         <v>22.10000000000007</v>
       </c>
       <c r="K352" t="n">
-        <v>-24.99999999999967</v>
+        <v>0</v>
       </c>
       <c r="L352" t="n">
         <v>11.62999999999997</v>
@@ -18231,7 +18253,7 @@
         <v>22.20000000000007</v>
       </c>
       <c r="K353" t="n">
-        <v>-12.49999999999989</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L353" t="n">
         <v>11.63999999999997</v>
@@ -18282,7 +18304,7 @@
         <v>22.20000000000007</v>
       </c>
       <c r="K354" t="n">
-        <v>-12.49999999999989</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L354" t="n">
         <v>11.64999999999997</v>
@@ -18333,7 +18355,7 @@
         <v>22.20000000000007</v>
       </c>
       <c r="K355" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L355" t="n">
         <v>11.65999999999997</v>
@@ -18384,7 +18406,7 @@
         <v>22.20000000000007</v>
       </c>
       <c r="K356" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L356" t="n">
         <v>11.65999999999997</v>
@@ -18435,7 +18457,7 @@
         <v>22.30000000000007</v>
       </c>
       <c r="K357" t="n">
-        <v>-12.49999999999989</v>
+        <v>0</v>
       </c>
       <c r="L357" t="n">
         <v>11.64999999999997</v>
@@ -18486,7 +18508,7 @@
         <v>22.30000000000007</v>
       </c>
       <c r="K358" t="n">
-        <v>-19.99999999999976</v>
+        <v>0</v>
       </c>
       <c r="L358" t="n">
         <v>11.64999999999997</v>
@@ -18537,7 +18559,7 @@
         <v>22.30000000000007</v>
       </c>
       <c r="K359" t="n">
-        <v>-7.692307692307556</v>
+        <v>0</v>
       </c>
       <c r="L359" t="n">
         <v>11.64999999999997</v>
@@ -18588,7 +18610,7 @@
         <v>22.40000000000007</v>
       </c>
       <c r="K360" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L360" t="n">
         <v>11.65999999999997</v>
@@ -18639,7 +18661,7 @@
         <v>22.40000000000007</v>
       </c>
       <c r="K361" t="n">
-        <v>9.090909090908928</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L361" t="n">
         <v>11.65999999999997</v>
@@ -18690,7 +18712,7 @@
         <v>22.50000000000007</v>
       </c>
       <c r="K362" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L362" t="n">
         <v>11.67999999999997</v>
@@ -18741,7 +18763,7 @@
         <v>22.50000000000007</v>
       </c>
       <c r="K363" t="n">
-        <v>24.99999999999978</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L363" t="n">
         <v>11.68999999999997</v>
@@ -18792,7 +18814,7 @@
         <v>22.70000000000007</v>
       </c>
       <c r="K364" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L364" t="n">
         <v>11.67999999999997</v>
@@ -18843,7 +18865,7 @@
         <v>22.90000000000008</v>
       </c>
       <c r="K365" t="n">
-        <v>16.66666666666652</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L365" t="n">
         <v>11.68999999999997</v>
@@ -18894,7 +18916,7 @@
         <v>23.10000000000008</v>
       </c>
       <c r="K366" t="n">
-        <v>-7.692307692307556</v>
+        <v>0</v>
       </c>
       <c r="L366" t="n">
         <v>11.67999999999997</v>
@@ -18945,7 +18967,7 @@
         <v>23.20000000000008</v>
       </c>
       <c r="K367" t="n">
-        <v>0</v>
+        <v>11.11111111111091</v>
       </c>
       <c r="L367" t="n">
         <v>11.68999999999997</v>
@@ -18996,7 +19018,7 @@
         <v>23.20000000000008</v>
       </c>
       <c r="K368" t="n">
-        <v>7.692307692307556</v>
+        <v>11.11111111111091</v>
       </c>
       <c r="L368" t="n">
         <v>11.69999999999997</v>
@@ -19047,7 +19069,7 @@
         <v>23.20000000000008</v>
       </c>
       <c r="K369" t="n">
-        <v>7.692307692307556</v>
+        <v>0</v>
       </c>
       <c r="L369" t="n">
         <v>11.70999999999997</v>
@@ -19098,7 +19120,7 @@
         <v>23.20000000000008</v>
       </c>
       <c r="K370" t="n">
-        <v>7.692307692307556</v>
+        <v>0</v>
       </c>
       <c r="L370" t="n">
         <v>11.70999999999997</v>
@@ -19149,7 +19171,7 @@
         <v>23.20000000000008</v>
       </c>
       <c r="K371" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L371" t="n">
         <v>11.70999999999997</v>
@@ -19200,7 +19222,7 @@
         <v>23.20000000000008</v>
       </c>
       <c r="K372" t="n">
-        <v>9.090909090908928</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L372" t="n">
         <v>11.69999999999997</v>
@@ -19251,7 +19273,7 @@
         <v>23.30000000000008</v>
       </c>
       <c r="K373" t="n">
-        <v>-9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L373" t="n">
         <v>11.67999999999997</v>
@@ -19302,7 +19324,7 @@
         <v>23.40000000000008</v>
       </c>
       <c r="K374" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L374" t="n">
         <v>11.68999999999997</v>
@@ -19353,7 +19375,7 @@
         <v>23.50000000000009</v>
       </c>
       <c r="K375" t="n">
-        <v>-7.692307692307556</v>
+        <v>0</v>
       </c>
       <c r="L375" t="n">
         <v>11.66999999999997</v>
@@ -19455,7 +19477,7 @@
         <v>23.60000000000009</v>
       </c>
       <c r="K377" t="n">
-        <v>7.692307692307556</v>
+        <v>0</v>
       </c>
       <c r="L377" t="n">
         <v>11.67999999999997</v>
@@ -19506,7 +19528,7 @@
         <v>23.60000000000009</v>
       </c>
       <c r="K378" t="n">
-        <v>7.692307692307556</v>
+        <v>0</v>
       </c>
       <c r="L378" t="n">
         <v>11.67999999999997</v>
@@ -19557,7 +19579,7 @@
         <v>23.70000000000009</v>
       </c>
       <c r="K379" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L379" t="n">
         <v>11.66999999999997</v>
@@ -19608,7 +19630,7 @@
         <v>23.70000000000009</v>
       </c>
       <c r="K380" t="n">
-        <v>-7.692307692307556</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L380" t="n">
         <v>11.65999999999997</v>
@@ -19659,7 +19681,7 @@
         <v>23.80000000000009</v>
       </c>
       <c r="K381" t="n">
-        <v>-14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L381" t="n">
         <v>11.63999999999997</v>
@@ -19710,7 +19732,7 @@
         <v>24.00000000000009</v>
       </c>
       <c r="K382" t="n">
-        <v>-6.666666666666682</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L382" t="n">
         <v>11.63999999999997</v>
@@ -19761,7 +19783,7 @@
         <v>24.10000000000009</v>
       </c>
       <c r="K383" t="n">
-        <v>-12.49999999999994</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L383" t="n">
         <v>11.63999999999997</v>
@@ -19812,7 +19834,7 @@
         <v>24.20000000000009</v>
       </c>
       <c r="K384" t="n">
-        <v>-6.666666666666579</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L384" t="n">
         <v>11.61999999999997</v>
@@ -19863,7 +19885,7 @@
         <v>24.30000000000009</v>
       </c>
       <c r="K385" t="n">
-        <v>-28.57142857142833</v>
+        <v>-42.85714285714253</v>
       </c>
       <c r="L385" t="n">
         <v>11.59999999999997</v>
@@ -19914,7 +19936,7 @@
         <v>24.40000000000009</v>
       </c>
       <c r="K386" t="n">
-        <v>-7.692307692307598</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L386" t="n">
         <v>11.57999999999997</v>
@@ -19965,7 +19987,7 @@
         <v>24.50000000000009</v>
       </c>
       <c r="K387" t="n">
-        <v>-23.07692307692279</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="L387" t="n">
         <v>11.54999999999997</v>
@@ -20016,7 +20038,7 @@
         <v>24.60000000000009</v>
       </c>
       <c r="K388" t="n">
-        <v>-14.28571428571411</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L388" t="n">
         <v>11.52999999999997</v>
@@ -20067,7 +20089,7 @@
         <v>24.7000000000001</v>
       </c>
       <c r="K389" t="n">
-        <v>-19.99999999999974</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L389" t="n">
         <v>11.50999999999997</v>
@@ -20118,7 +20140,7 @@
         <v>24.8000000000001</v>
       </c>
       <c r="K390" t="n">
-        <v>-12.49999999999983</v>
+        <v>0</v>
       </c>
       <c r="L390" t="n">
         <v>11.49999999999998</v>
@@ -20169,7 +20191,7 @@
         <v>25.0000000000001</v>
       </c>
       <c r="K391" t="n">
-        <v>-22.22222222222196</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L391" t="n">
         <v>11.47999999999998</v>
@@ -20220,7 +20242,7 @@
         <v>25.2000000000001</v>
       </c>
       <c r="K392" t="n">
-        <v>-9.999999999999893</v>
+        <v>-9.090909090908989</v>
       </c>
       <c r="L392" t="n">
         <v>11.45999999999998</v>
@@ -20271,7 +20293,7 @@
         <v>25.2000000000001</v>
       </c>
       <c r="K393" t="n">
-        <v>-5.263157894736787</v>
+        <v>0</v>
       </c>
       <c r="L393" t="n">
         <v>11.44999999999998</v>
@@ -20322,7 +20344,7 @@
         <v>25.2000000000001</v>
       </c>
       <c r="K394" t="n">
-        <v>-11.111111111111</v>
+        <v>11.111111111111</v>
       </c>
       <c r="L394" t="n">
         <v>11.44999999999998</v>
@@ -20373,7 +20395,7 @@
         <v>25.40000000000009</v>
       </c>
       <c r="K395" t="n">
-        <v>-15.78947368421039</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L395" t="n">
         <v>11.43999999999997</v>
@@ -20424,7 +20446,7 @@
         <v>25.50000000000009</v>
       </c>
       <c r="K396" t="n">
-        <v>-15.78947368421042</v>
+        <v>0</v>
       </c>
       <c r="L396" t="n">
         <v>11.42999999999997</v>
@@ -20475,7 +20497,7 @@
         <v>25.50000000000009</v>
       </c>
       <c r="K397" t="n">
-        <v>-15.78947368421042</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L397" t="n">
         <v>11.42999999999997</v>
@@ -20526,7 +20548,7 @@
         <v>25.60000000000009</v>
       </c>
       <c r="K398" t="n">
-        <v>-9.999999999999929</v>
+        <v>11.11111111111109</v>
       </c>
       <c r="L398" t="n">
         <v>11.42999999999997</v>
@@ -20577,7 +20599,7 @@
         <v>25.7000000000001</v>
       </c>
       <c r="K399" t="n">
-        <v>-9.999999999999929</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L399" t="n">
         <v>11.42999999999997</v>
@@ -20628,7 +20650,7 @@
         <v>25.8000000000001</v>
       </c>
       <c r="K400" t="n">
-        <v>-4.761904761904725</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L400" t="n">
         <v>11.42999999999997</v>
@@ -20679,7 +20701,7 @@
         <v>25.9000000000001</v>
       </c>
       <c r="K401" t="n">
-        <v>-4.761904761904725</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L401" t="n">
         <v>11.43999999999998</v>
@@ -20730,7 +20752,7 @@
         <v>26.1000000000001</v>
       </c>
       <c r="K402" t="n">
-        <v>-4.761904761904725</v>
+        <v>11.11111111111104</v>
       </c>
       <c r="L402" t="n">
         <v>11.44999999999998</v>
@@ -20781,7 +20803,7 @@
         <v>26.1000000000001</v>
       </c>
       <c r="K403" t="n">
-        <v>0</v>
+        <v>11.11111111111104</v>
       </c>
       <c r="L403" t="n">
         <v>11.45999999999998</v>
@@ -20832,7 +20854,7 @@
         <v>26.1000000000001</v>
       </c>
       <c r="K404" t="n">
-        <v>5.263157894736798</v>
+        <v>42.85714285714253</v>
       </c>
       <c r="L404" t="n">
         <v>11.46999999999997</v>
@@ -20883,7 +20905,7 @@
         <v>26.2000000000001</v>
       </c>
       <c r="K405" t="n">
-        <v>5.263157894736808</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L405" t="n">
         <v>11.48999999999998</v>
@@ -20934,7 +20956,7 @@
         <v>26.3000000000001</v>
       </c>
       <c r="K406" t="n">
-        <v>5.263157894736808</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L406" t="n">
         <v>11.50999999999997</v>
@@ -20985,7 +21007,7 @@
         <v>26.4000000000001</v>
       </c>
       <c r="K407" t="n">
-        <v>5.263157894736808</v>
+        <v>0</v>
       </c>
       <c r="L407" t="n">
         <v>11.51999999999997</v>
@@ -21036,7 +21058,7 @@
         <v>26.4000000000001</v>
       </c>
       <c r="K408" t="n">
-        <v>0</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L408" t="n">
         <v>11.51999999999997</v>
@@ -21087,7 +21109,7 @@
         <v>26.4000000000001</v>
       </c>
       <c r="K409" t="n">
-        <v>5.88235294117644</v>
+        <v>0</v>
       </c>
       <c r="L409" t="n">
         <v>11.52999999999997</v>
@@ -21138,7 +21160,7 @@
         <v>26.5000000000001</v>
       </c>
       <c r="K410" t="n">
-        <v>5.88235294117644</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L410" t="n">
         <v>11.53999999999997</v>
@@ -21189,7 +21211,7 @@
         <v>26.5000000000001</v>
       </c>
       <c r="K411" t="n">
-        <v>19.99999999999988</v>
+        <v>0</v>
       </c>
       <c r="L411" t="n">
         <v>11.55999999999997</v>
@@ -21240,7 +21262,7 @@
         <v>26.5000000000001</v>
       </c>
       <c r="K412" t="n">
-        <v>7.69230769230764</v>
+        <v>0</v>
       </c>
       <c r="L412" t="n">
         <v>11.55999999999997</v>
@@ -21291,7 +21313,7 @@
         <v>26.5000000000001</v>
       </c>
       <c r="K413" t="n">
-        <v>7.69230769230764</v>
+        <v>0</v>
       </c>
       <c r="L413" t="n">
         <v>11.55999999999997</v>
@@ -21342,7 +21364,7 @@
         <v>26.5000000000001</v>
       </c>
       <c r="K414" t="n">
-        <v>7.69230769230764</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L414" t="n">
         <v>11.55999999999997</v>
@@ -21393,7 +21415,7 @@
         <v>26.5000000000001</v>
       </c>
       <c r="K415" t="n">
-        <v>27.27272727272705</v>
+        <v>0</v>
       </c>
       <c r="L415" t="n">
         <v>11.56999999999997</v>
@@ -21444,7 +21466,7 @@
         <v>26.6000000000001</v>
       </c>
       <c r="K416" t="n">
-        <v>9.090909090908989</v>
+        <v>0</v>
       </c>
       <c r="L416" t="n">
         <v>11.55999999999997</v>
@@ -21495,7 +21517,7 @@
         <v>26.6000000000001</v>
       </c>
       <c r="K417" t="n">
-        <v>9.090909090908989</v>
+        <v>0</v>
       </c>
       <c r="L417" t="n">
         <v>11.55999999999997</v>
@@ -21597,7 +21619,7 @@
         <v>26.6000000000001</v>
       </c>
       <c r="K419" t="n">
-        <v>11.111111111111</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L419" t="n">
         <v>11.55999999999997</v>
@@ -21648,7 +21670,7 @@
         <v>26.6000000000001</v>
       </c>
       <c r="K420" t="n">
-        <v>0</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L420" t="n">
         <v>11.54999999999997</v>
@@ -21699,7 +21721,7 @@
         <v>26.6000000000001</v>
       </c>
       <c r="K421" t="n">
-        <v>14.28571428571418</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L421" t="n">
         <v>11.53999999999997</v>
@@ -21801,7 +21823,7 @@
         <v>26.8000000000001</v>
       </c>
       <c r="K423" t="n">
-        <v>-14.28571428571411</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L423" t="n">
         <v>11.52999999999997</v>
@@ -21954,7 +21976,7 @@
         <v>27.20000000000011</v>
       </c>
       <c r="K426" t="n">
-        <v>11.11111111111096</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L426" t="n">
         <v>11.53999999999997</v>
@@ -22056,7 +22078,7 @@
         <v>27.50000000000011</v>
       </c>
       <c r="K428" t="n">
-        <v>-9.090909090908989</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L428" t="n">
         <v>11.52999999999997</v>
@@ -22158,7 +22180,7 @@
         <v>27.60000000000011</v>
       </c>
       <c r="K430" t="n">
-        <v>-9.090909090908989</v>
+        <v>0</v>
       </c>
       <c r="L430" t="n">
         <v>11.52999999999997</v>
@@ -22209,7 +22231,7 @@
         <v>27.60000000000011</v>
       </c>
       <c r="K431" t="n">
-        <v>-9.090909090908989</v>
+        <v>-11.111111111111</v>
       </c>
       <c r="L431" t="n">
         <v>11.52999999999997</v>
@@ -22260,7 +22282,7 @@
         <v>27.60000000000011</v>
       </c>
       <c r="K432" t="n">
-        <v>-9.090909090908989</v>
+        <v>0</v>
       </c>
       <c r="L432" t="n">
         <v>11.51999999999997</v>
@@ -22311,7 +22333,7 @@
         <v>27.70000000000011</v>
       </c>
       <c r="K433" t="n">
-        <v>-16.66666666666647</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L433" t="n">
         <v>11.50999999999997</v>
@@ -22362,7 +22384,7 @@
         <v>27.80000000000011</v>
       </c>
       <c r="K434" t="n">
-        <v>-23.07692307692279</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L434" t="n">
         <v>11.47999999999998</v>
@@ -22413,7 +22435,7 @@
         <v>27.80000000000011</v>
       </c>
       <c r="K435" t="n">
-        <v>-23.07692307692279</v>
+        <v>-66.66666666666588</v>
       </c>
       <c r="L435" t="n">
         <v>11.45999999999998</v>
@@ -22464,7 +22486,7 @@
         <v>27.90000000000011</v>
       </c>
       <c r="K436" t="n">
-        <v>-7.692307692307598</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L436" t="n">
         <v>11.42999999999997</v>
@@ -22515,7 +22537,7 @@
         <v>28.00000000000011</v>
       </c>
       <c r="K437" t="n">
-        <v>-14.28571428571411</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L437" t="n">
         <v>11.40999999999998</v>
@@ -22566,7 +22588,7 @@
         <v>28.10000000000012</v>
       </c>
       <c r="K438" t="n">
-        <v>-6.666666666666579</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L438" t="n">
         <v>11.40999999999998</v>
@@ -22617,7 +22639,7 @@
         <v>28.10000000000012</v>
       </c>
       <c r="K439" t="n">
-        <v>-6.666666666666579</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L439" t="n">
         <v>11.39999999999998</v>
@@ -22770,7 +22792,7 @@
         <v>28.20000000000012</v>
       </c>
       <c r="K442" t="n">
-        <v>-6.666666666666579</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L442" t="n">
         <v>11.39999999999998</v>
@@ -22821,7 +22843,7 @@
         <v>28.20000000000012</v>
       </c>
       <c r="K443" t="n">
-        <v>0</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L443" t="n">
         <v>11.40999999999998</v>
@@ -22872,7 +22894,7 @@
         <v>28.20000000000012</v>
       </c>
       <c r="K444" t="n">
-        <v>-7.692307692307598</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L444" t="n">
         <v>11.42999999999997</v>
@@ -22923,7 +22945,7 @@
         <v>28.20000000000012</v>
       </c>
       <c r="K445" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L445" t="n">
         <v>11.44999999999998</v>
@@ -22974,7 +22996,7 @@
         <v>28.20000000000012</v>
       </c>
       <c r="K446" t="n">
-        <v>-19.99999999999972</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L446" t="n">
         <v>11.45999999999998</v>
@@ -23025,7 +23047,7 @@
         <v>28.20000000000012</v>
       </c>
       <c r="K447" t="n">
-        <v>0</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L447" t="n">
         <v>11.47999999999998</v>
@@ -23076,7 +23098,7 @@
         <v>28.20000000000012</v>
       </c>
       <c r="K448" t="n">
-        <v>14.28571428571403</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L448" t="n">
         <v>11.48999999999998</v>
@@ -23126,9 +23148,7 @@
       <c r="J449" t="n">
         <v>28.20000000000012</v>
       </c>
-      <c r="K449" t="n">
-        <v>0</v>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>11.49999999999998</v>
       </c>
@@ -23178,7 +23198,7 @@
         <v>28.30000000000012</v>
       </c>
       <c r="K450" t="n">
-        <v>-14.28571428571403</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L450" t="n">
         <v>11.48999999999998</v>
@@ -23280,7 +23300,7 @@
         <v>28.50000000000012</v>
       </c>
       <c r="K452" t="n">
-        <v>-11.11111111111091</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L452" t="n">
         <v>11.47999999999998</v>
@@ -23331,7 +23351,7 @@
         <v>28.60000000000012</v>
       </c>
       <c r="K453" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L453" t="n">
         <v>11.47999999999998</v>
@@ -23382,7 +23402,7 @@
         <v>28.70000000000012</v>
       </c>
       <c r="K454" t="n">
-        <v>11.11111111111091</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L454" t="n">
         <v>11.46999999999998</v>
@@ -23433,7 +23453,7 @@
         <v>28.80000000000013</v>
       </c>
       <c r="K455" t="n">
-        <v>19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L455" t="n">
         <v>11.46999999999998</v>
@@ -23484,7 +23504,7 @@
         <v>28.80000000000013</v>
       </c>
       <c r="K456" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L456" t="n">
         <v>11.46999999999998</v>
@@ -23535,7 +23555,7 @@
         <v>28.90000000000013</v>
       </c>
       <c r="K457" t="n">
-        <v>11.11111111111091</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L457" t="n">
         <v>11.45999999999998</v>
@@ -23586,7 +23606,7 @@
         <v>29.00000000000013</v>
       </c>
       <c r="K458" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L458" t="n">
         <v>11.45999999999998</v>
@@ -23637,7 +23657,7 @@
         <v>29.00000000000013</v>
       </c>
       <c r="K459" t="n">
-        <v>11.11111111111091</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L459" t="n">
         <v>11.45999999999998</v>
@@ -23743,7 +23763,7 @@
         <v>29.00000000000013</v>
       </c>
       <c r="K461" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L461" t="n">
         <v>11.46999999999998</v>
@@ -23857,7 +23877,7 @@
         <v>29.00000000000013</v>
       </c>
       <c r="K463" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L463" t="n">
         <v>11.47999999999998</v>
@@ -24028,7 +24048,7 @@
         <v>29.10000000000013</v>
       </c>
       <c r="K466" t="n">
-        <v>11.11111111111091</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L466" t="n">
         <v>11.49999999999998</v>
@@ -24199,7 +24219,7 @@
         <v>29.30000000000013</v>
       </c>
       <c r="K469" t="n">
-        <v>9.090909090908928</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L469" t="n">
         <v>11.51999999999997</v>
@@ -24256,7 +24276,7 @@
         <v>29.40000000000013</v>
       </c>
       <c r="K470" t="n">
-        <v>9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L470" t="n">
         <v>11.51999999999997</v>
@@ -24358,7 +24378,7 @@
         <v>29.40000000000013</v>
       </c>
       <c r="K472" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L472" t="n">
         <v>11.51999999999997</v>
@@ -24460,7 +24480,7 @@
         <v>29.40000000000013</v>
       </c>
       <c r="K474" t="n">
-        <v>14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L474" t="n">
         <v>11.51999999999997</v>
@@ -24511,7 +24531,7 @@
         <v>29.40000000000013</v>
       </c>
       <c r="K475" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L475" t="n">
         <v>11.51999999999997</v>
@@ -24562,7 +24582,7 @@
         <v>29.50000000000014</v>
       </c>
       <c r="K476" t="n">
-        <v>-14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L476" t="n">
         <v>11.49999999999998</v>
@@ -24613,7 +24633,7 @@
         <v>29.60000000000014</v>
       </c>
       <c r="K477" t="n">
-        <v>14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L477" t="n">
         <v>11.49999999999998</v>
@@ -24664,7 +24684,7 @@
         <v>29.60000000000014</v>
       </c>
       <c r="K478" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L478" t="n">
         <v>11.49999999999998</v>
@@ -24715,7 +24735,7 @@
         <v>29.70000000000014</v>
       </c>
       <c r="K479" t="n">
-        <v>-14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L479" t="n">
         <v>11.47999999999998</v>
@@ -24868,7 +24888,7 @@
         <v>29.90000000000014</v>
       </c>
       <c r="K482" t="n">
-        <v>-11.11111111111091</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L482" t="n">
         <v>11.46999999999998</v>
@@ -25021,7 +25041,7 @@
         <v>30.00000000000014</v>
       </c>
       <c r="K485" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L485" t="n">
         <v>11.46999999999998</v>
@@ -25072,7 +25092,7 @@
         <v>30.00000000000014</v>
       </c>
       <c r="K486" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L486" t="n">
         <v>11.47999999999998</v>
@@ -25174,7 +25194,7 @@
         <v>30.00000000000014</v>
       </c>
       <c r="K488" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L488" t="n">
         <v>11.47999999999998</v>
@@ -25225,7 +25245,7 @@
         <v>30.10000000000014</v>
       </c>
       <c r="K489" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L489" t="n">
         <v>11.49999999999998</v>
@@ -25327,7 +25347,7 @@
         <v>30.20000000000014</v>
       </c>
       <c r="K491" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L491" t="n">
         <v>11.49999999999998</v>
@@ -25531,7 +25551,7 @@
         <v>30.30000000000015</v>
       </c>
       <c r="K495" t="n">
-        <v>-11.11111111111091</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L495" t="n">
         <v>11.49999999999998</v>
@@ -25582,7 +25602,7 @@
         <v>30.30000000000015</v>
       </c>
       <c r="K496" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L496" t="n">
         <v>11.48999999999998</v>
@@ -25633,7 +25653,7 @@
         <v>30.40000000000015</v>
       </c>
       <c r="K497" t="n">
-        <v>-24.99999999999956</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L497" t="n">
         <v>11.46999999999997</v>
@@ -25684,7 +25704,7 @@
         <v>30.40000000000015</v>
       </c>
       <c r="K498" t="n">
-        <v>-24.99999999999956</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L498" t="n">
         <v>11.44999999999997</v>
@@ -25735,7 +25755,7 @@
         <v>30.40000000000015</v>
       </c>
       <c r="K499" t="n">
-        <v>-14.28571428571403</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L499" t="n">
         <v>11.41999999999998</v>
@@ -25786,7 +25806,7 @@
         <v>30.40000000000015</v>
       </c>
       <c r="K500" t="n">
-        <v>-33.33333333333275</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L500" t="n">
         <v>11.39999999999997</v>
@@ -25837,7 +25857,7 @@
         <v>30.50000000000015</v>
       </c>
       <c r="K501" t="n">
-        <v>-14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L501" t="n">
         <v>11.38999999999998</v>
@@ -25888,7 +25908,7 @@
         <v>30.50000000000015</v>
       </c>
       <c r="K502" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L502" t="n">
         <v>11.37999999999998</v>
@@ -25939,7 +25959,7 @@
         <v>30.50000000000015</v>
       </c>
       <c r="K503" t="n">
-        <v>-19.99999999999964</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L503" t="n">
         <v>11.36999999999998</v>
@@ -25990,7 +26010,7 @@
         <v>30.50000000000015</v>
       </c>
       <c r="K504" t="n">
-        <v>-19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L504" t="n">
         <v>11.35999999999998</v>
@@ -26041,7 +26061,7 @@
         <v>30.50000000000015</v>
       </c>
       <c r="K505" t="n">
-        <v>-19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L505" t="n">
         <v>11.35999999999998</v>
@@ -26092,7 +26112,7 @@
         <v>30.60000000000015</v>
       </c>
       <c r="K506" t="n">
-        <v>-33.33333333333275</v>
+        <v>0</v>
       </c>
       <c r="L506" t="n">
         <v>11.34999999999998</v>
@@ -26143,7 +26163,7 @@
         <v>30.60000000000015</v>
       </c>
       <c r="K507" t="n">
-        <v>-33.33333333333275</v>
+        <v>0</v>
       </c>
       <c r="L507" t="n">
         <v>11.34999999999998</v>
@@ -26194,7 +26214,7 @@
         <v>30.70000000000015</v>
       </c>
       <c r="K508" t="n">
-        <v>-14.28571428571403</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L508" t="n">
         <v>11.35999999999998</v>
@@ -26245,7 +26265,7 @@
         <v>30.80000000000015</v>
       </c>
       <c r="K509" t="n">
-        <v>-42.85714285714209</v>
+        <v>0</v>
       </c>
       <c r="L509" t="n">
         <v>11.35999999999998</v>
@@ -26296,7 +26316,7 @@
         <v>30.90000000000015</v>
       </c>
       <c r="K510" t="n">
-        <v>-14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L510" t="n">
         <v>11.36999999999998</v>
@@ -26347,7 +26367,7 @@
         <v>30.90000000000015</v>
       </c>
       <c r="K511" t="n">
-        <v>-14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L511" t="n">
         <v>11.36999999999998</v>
@@ -26398,7 +26418,7 @@
         <v>30.90000000000015</v>
       </c>
       <c r="K512" t="n">
-        <v>-14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L512" t="n">
         <v>11.36999999999998</v>
@@ -26449,7 +26469,7 @@
         <v>30.90000000000015</v>
       </c>
       <c r="K513" t="n">
-        <v>-14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L513" t="n">
         <v>11.36999999999998</v>
@@ -26500,7 +26520,7 @@
         <v>30.90000000000015</v>
       </c>
       <c r="K514" t="n">
-        <v>-14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L514" t="n">
         <v>11.36999999999998</v>
@@ -26551,7 +26571,7 @@
         <v>30.90000000000015</v>
       </c>
       <c r="K515" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L515" t="n">
         <v>11.36999999999998</v>
@@ -26602,7 +26622,7 @@
         <v>30.90000000000015</v>
       </c>
       <c r="K516" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L516" t="n">
         <v>11.37999999999998</v>
@@ -26653,7 +26673,7 @@
         <v>30.90000000000015</v>
       </c>
       <c r="K517" t="n">
-        <v>19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L517" t="n">
         <v>11.38999999999998</v>
@@ -26704,7 +26724,7 @@
         <v>31.00000000000016</v>
       </c>
       <c r="K518" t="n">
-        <v>33.33333333333275</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L518" t="n">
         <v>11.39999999999998</v>
@@ -26755,7 +26775,7 @@
         <v>31.10000000000016</v>
       </c>
       <c r="K519" t="n">
-        <v>14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L519" t="n">
         <v>11.40999999999998</v>
@@ -26806,7 +26826,7 @@
         <v>31.10000000000016</v>
       </c>
       <c r="K520" t="n">
-        <v>14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L520" t="n">
         <v>11.40999999999998</v>
@@ -26908,7 +26928,7 @@
         <v>31.20000000000016</v>
       </c>
       <c r="K522" t="n">
-        <v>-14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L522" t="n">
         <v>11.39999999999998</v>
@@ -26959,7 +26979,7 @@
         <v>31.20000000000016</v>
       </c>
       <c r="K523" t="n">
-        <v>-14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L523" t="n">
         <v>11.38999999999998</v>
@@ -27112,7 +27132,7 @@
         <v>31.30000000000016</v>
       </c>
       <c r="K526" t="n">
-        <v>14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L526" t="n">
         <v>11.38999999999998</v>
@@ -27163,7 +27183,7 @@
         <v>31.30000000000016</v>
       </c>
       <c r="K527" t="n">
-        <v>14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L527" t="n">
         <v>11.38999999999998</v>
@@ -27265,7 +27285,7 @@
         <v>31.30000000000016</v>
       </c>
       <c r="K529" t="n">
-        <v>19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L529" t="n">
         <v>11.37999999999998</v>
@@ -27367,7 +27387,7 @@
         <v>31.30000000000016</v>
       </c>
       <c r="K531" t="n">
-        <v>0</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L531" t="n">
         <v>11.37999999999998</v>
@@ -27418,7 +27438,7 @@
         <v>31.30000000000016</v>
       </c>
       <c r="K532" t="n">
-        <v>0</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L532" t="n">
         <v>11.38999999999998</v>
@@ -27468,9 +27488,7 @@
       <c r="J533" t="n">
         <v>31.30000000000016</v>
       </c>
-      <c r="K533" t="n">
-        <v>0</v>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>11.39999999999998</v>
       </c>
@@ -27519,9 +27537,7 @@
       <c r="J534" t="n">
         <v>31.30000000000016</v>
       </c>
-      <c r="K534" t="n">
-        <v>0</v>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>11.39999999999998</v>
       </c>
@@ -27571,7 +27587,7 @@
         <v>31.40000000000016</v>
       </c>
       <c r="K535" t="n">
-        <v>19.99999999999964</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L535" t="n">
         <v>11.40999999999998</v>
@@ -27622,7 +27638,7 @@
         <v>31.40000000000016</v>
       </c>
       <c r="K536" t="n">
-        <v>19.99999999999964</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L536" t="n">
         <v>11.41999999999998</v>
@@ -27724,7 +27740,7 @@
         <v>31.60000000000016</v>
       </c>
       <c r="K538" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L538" t="n">
         <v>11.42999999999998</v>
@@ -27775,7 +27791,7 @@
         <v>31.60000000000016</v>
       </c>
       <c r="K539" t="n">
-        <v>19.99999999999964</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L539" t="n">
         <v>11.43999999999998</v>
@@ -27877,7 +27893,7 @@
         <v>31.80000000000017</v>
       </c>
       <c r="K541" t="n">
-        <v>14.28571428571403</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L541" t="n">
         <v>11.44999999999998</v>
@@ -27928,7 +27944,7 @@
         <v>31.80000000000017</v>
       </c>
       <c r="K542" t="n">
-        <v>33.33333333333275</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L542" t="n">
         <v>11.45999999999998</v>
@@ -27979,7 +27995,7 @@
         <v>31.90000000000017</v>
       </c>
       <c r="K543" t="n">
-        <v>14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L543" t="n">
         <v>11.45999999999998</v>
@@ -28030,7 +28046,7 @@
         <v>32.00000000000017</v>
       </c>
       <c r="K544" t="n">
-        <v>14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L544" t="n">
         <v>11.46999999999998</v>
@@ -28081,7 +28097,7 @@
         <v>32.10000000000017</v>
       </c>
       <c r="K545" t="n">
-        <v>0</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L545" t="n">
         <v>11.45999999999998</v>
@@ -28132,7 +28148,7 @@
         <v>32.20000000000017</v>
       </c>
       <c r="K546" t="n">
-        <v>11.11111111111091</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L546" t="n">
         <v>11.45999999999998</v>
@@ -28183,7 +28199,7 @@
         <v>32.30000000000017</v>
       </c>
       <c r="K547" t="n">
-        <v>0</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L547" t="n">
         <v>11.45999999999998</v>
@@ -28234,7 +28250,7 @@
         <v>32.40000000000018</v>
       </c>
       <c r="K548" t="n">
-        <v>9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L548" t="n">
         <v>11.45999999999998</v>
@@ -28285,7 +28301,7 @@
         <v>32.60000000000018</v>
       </c>
       <c r="K549" t="n">
-        <v>-7.692307692307556</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L549" t="n">
         <v>11.43999999999998</v>
@@ -28336,7 +28352,7 @@
         <v>32.80000000000018</v>
       </c>
       <c r="K550" t="n">
-        <v>-19.99999999999976</v>
+        <v>-39.99999999999947</v>
       </c>
       <c r="L550" t="n">
         <v>11.40999999999998</v>
@@ -28387,7 +28403,7 @@
         <v>32.90000000000018</v>
       </c>
       <c r="K551" t="n">
-        <v>-12.49999999999989</v>
+        <v>-27.27272727272695</v>
       </c>
       <c r="L551" t="n">
         <v>11.37999999999998</v>
@@ -28438,7 +28454,7 @@
         <v>33.00000000000018</v>
       </c>
       <c r="K552" t="n">
-        <v>-17.6470588235292</v>
+        <v>-27.27272727272695</v>
       </c>
       <c r="L552" t="n">
         <v>11.33999999999997</v>
@@ -28489,7 +28505,7 @@
         <v>33.00000000000018</v>
       </c>
       <c r="K553" t="n">
-        <v>-17.6470588235292</v>
+        <v>-39.99999999999947</v>
       </c>
       <c r="L553" t="n">
         <v>11.30999999999997</v>
@@ -28540,7 +28556,7 @@
         <v>33.00000000000018</v>
       </c>
       <c r="K554" t="n">
-        <v>-17.6470588235292</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L554" t="n">
         <v>11.26999999999997</v>
@@ -28591,7 +28607,7 @@
         <v>33.00000000000018</v>
       </c>
       <c r="K555" t="n">
-        <v>-24.99999999999967</v>
+        <v>-49.99999999999933</v>
       </c>
       <c r="L555" t="n">
         <v>11.23999999999997</v>
@@ -28642,7 +28658,7 @@
         <v>33.10000000000019</v>
       </c>
       <c r="K556" t="n">
-        <v>-17.6470588235292</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L556" t="n">
         <v>11.20999999999997</v>
@@ -28693,7 +28709,7 @@
         <v>33.10000000000019</v>
       </c>
       <c r="K557" t="n">
-        <v>-12.49999999999989</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L557" t="n">
         <v>11.18999999999997</v>
@@ -28744,7 +28760,7 @@
         <v>33.10000000000019</v>
       </c>
       <c r="K558" t="n">
-        <v>-19.99999999999976</v>
+        <v>-20</v>
       </c>
       <c r="L558" t="n">
         <v>11.15999999999997</v>
@@ -28795,7 +28811,7 @@
         <v>33.10000000000019</v>
       </c>
       <c r="K559" t="n">
-        <v>-19.99999999999976</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L559" t="n">
         <v>11.14999999999997</v>
@@ -28846,7 +28862,7 @@
         <v>33.10000000000019</v>
       </c>
       <c r="K560" t="n">
-        <v>-14.28571428571416</v>
+        <v>0</v>
       </c>
       <c r="L560" t="n">
         <v>11.15999999999997</v>
@@ -28897,7 +28913,7 @@
         <v>33.10000000000019</v>
       </c>
       <c r="K561" t="n">
-        <v>-23.0769230769228</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L561" t="n">
         <v>11.15999999999997</v>
@@ -28948,7 +28964,7 @@
         <v>33.10000000000019</v>
       </c>
       <c r="K562" t="n">
-        <v>-23.0769230769228</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L562" t="n">
         <v>11.16999999999998</v>
@@ -28999,7 +29015,7 @@
         <v>33.20000000000019</v>
       </c>
       <c r="K563" t="n">
-        <v>-7.692307692307556</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L563" t="n">
         <v>11.18999999999997</v>
@@ -29050,7 +29066,7 @@
         <v>33.20000000000019</v>
       </c>
       <c r="K564" t="n">
-        <v>-16.66666666666637</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L564" t="n">
         <v>11.20999999999998</v>
@@ -29101,7 +29117,7 @@
         <v>33.30000000000019</v>
       </c>
       <c r="K565" t="n">
-        <v>-16.66666666666652</v>
+        <v>0</v>
       </c>
       <c r="L565" t="n">
         <v>11.21999999999998</v>
@@ -29152,7 +29168,7 @@
         <v>33.30000000000019</v>
       </c>
       <c r="K566" t="n">
-        <v>-27.27272727272695</v>
+        <v>0</v>
       </c>
       <c r="L566" t="n">
         <v>11.21999999999998</v>
@@ -29203,7 +29219,7 @@
         <v>33.40000000000019</v>
       </c>
       <c r="K567" t="n">
-        <v>-27.27272727272695</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L567" t="n">
         <v>11.20999999999998</v>
@@ -29254,7 +29270,7 @@
         <v>33.50000000000019</v>
       </c>
       <c r="K568" t="n">
-        <v>-27.27272727272695</v>
+        <v>0</v>
       </c>
       <c r="L568" t="n">
         <v>11.20999999999998</v>
@@ -29305,7 +29321,7 @@
         <v>33.60000000000019</v>
       </c>
       <c r="K569" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L569" t="n">
         <v>11.21999999999997</v>
@@ -29356,7 +29372,7 @@
         <v>33.70000000000019</v>
       </c>
       <c r="K570" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L570" t="n">
         <v>11.21999999999997</v>
@@ -29458,7 +29474,7 @@
         <v>33.70000000000019</v>
       </c>
       <c r="K572" t="n">
-        <v>14.28571428571403</v>
+        <v>-20</v>
       </c>
       <c r="L572" t="n">
         <v>11.21999999999997</v>
@@ -29509,7 +29525,7 @@
         <v>33.70000000000019</v>
       </c>
       <c r="K573" t="n">
-        <v>14.28571428571403</v>
+        <v>-20</v>
       </c>
       <c r="L573" t="n">
         <v>11.20999999999998</v>
@@ -29560,7 +29576,7 @@
         <v>33.8000000000002</v>
       </c>
       <c r="K574" t="n">
-        <v>24.99999999999978</v>
+        <v>20</v>
       </c>
       <c r="L574" t="n">
         <v>11.20999999999998</v>
@@ -29611,7 +29627,7 @@
         <v>33.8000000000002</v>
       </c>
       <c r="K575" t="n">
-        <v>24.99999999999978</v>
+        <v>20</v>
       </c>
       <c r="L575" t="n">
         <v>11.21999999999997</v>
@@ -29662,7 +29678,7 @@
         <v>33.9000000000002</v>
       </c>
       <c r="K576" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L576" t="n">
         <v>11.21999999999997</v>
@@ -29713,7 +29729,7 @@
         <v>34.0000000000002</v>
       </c>
       <c r="K577" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L577" t="n">
         <v>11.23999999999998</v>
@@ -29764,7 +29780,7 @@
         <v>34.0000000000002</v>
       </c>
       <c r="K578" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L578" t="n">
         <v>11.24999999999998</v>
@@ -29815,7 +29831,7 @@
         <v>34.0000000000002</v>
       </c>
       <c r="K579" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L579" t="n">
         <v>11.24999999999998</v>
@@ -29917,7 +29933,7 @@
         <v>34.2000000000002</v>
       </c>
       <c r="K581" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L581" t="n">
         <v>11.25999999999997</v>
@@ -30172,7 +30188,7 @@
         <v>34.50000000000021</v>
       </c>
       <c r="K586" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L586" t="n">
         <v>11.25999999999997</v>
@@ -30223,7 +30239,7 @@
         <v>34.60000000000021</v>
       </c>
       <c r="K587" t="n">
-        <v>16.66666666666652</v>
+        <v>0</v>
       </c>
       <c r="L587" t="n">
         <v>11.25999999999997</v>
@@ -30274,7 +30290,7 @@
         <v>34.70000000000021</v>
       </c>
       <c r="K588" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L588" t="n">
         <v>11.24999999999998</v>
@@ -30325,7 +30341,7 @@
         <v>34.80000000000021</v>
       </c>
       <c r="K589" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L589" t="n">
         <v>11.24999999999998</v>
@@ -30376,7 +30392,7 @@
         <v>34.80000000000021</v>
       </c>
       <c r="K590" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L590" t="n">
         <v>11.25999999999997</v>
@@ -30427,7 +30443,7 @@
         <v>34.80000000000021</v>
       </c>
       <c r="K591" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L591" t="n">
         <v>11.25999999999997</v>
@@ -30478,7 +30494,7 @@
         <v>34.80000000000021</v>
       </c>
       <c r="K592" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L592" t="n">
         <v>11.26999999999997</v>
@@ -30529,7 +30545,7 @@
         <v>34.90000000000021</v>
       </c>
       <c r="K593" t="n">
-        <v>16.66666666666652</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L593" t="n">
         <v>11.27999999999997</v>
@@ -30580,7 +30596,7 @@
         <v>35.00000000000021</v>
       </c>
       <c r="K594" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L594" t="n">
         <v>11.27999999999997</v>
@@ -30631,7 +30647,7 @@
         <v>35.00000000000021</v>
       </c>
       <c r="K595" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L595" t="n">
         <v>11.28999999999997</v>
@@ -30682,7 +30698,7 @@
         <v>35.10000000000021</v>
       </c>
       <c r="K596" t="n">
-        <v>16.66666666666652</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L596" t="n">
         <v>11.30999999999997</v>
@@ -30733,7 +30749,7 @@
         <v>35.10000000000021</v>
       </c>
       <c r="K597" t="n">
-        <v>9.090909090908928</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L597" t="n">
         <v>11.31999999999998</v>
@@ -30886,7 +30902,7 @@
         <v>35.20000000000022</v>
       </c>
       <c r="K600" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L600" t="n">
         <v>11.32999999999997</v>
@@ -30988,7 +31004,7 @@
         <v>35.20000000000022</v>
       </c>
       <c r="K602" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L602" t="n">
         <v>11.32999999999997</v>
@@ -31039,7 +31055,7 @@
         <v>35.30000000000022</v>
       </c>
       <c r="K603" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L603" t="n">
         <v>11.30999999999997</v>
@@ -31141,7 +31157,7 @@
         <v>35.50000000000022</v>
       </c>
       <c r="K605" t="n">
-        <v>0</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L605" t="n">
         <v>11.29999999999997</v>
@@ -31192,7 +31208,7 @@
         <v>35.60000000000022</v>
       </c>
       <c r="K606" t="n">
-        <v>9.090909090909092</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L606" t="n">
         <v>11.28999999999997</v>
@@ -31294,7 +31310,7 @@
         <v>35.70000000000022</v>
       </c>
       <c r="K608" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L608" t="n">
         <v>11.26999999999997</v>
@@ -31345,7 +31361,7 @@
         <v>35.70000000000022</v>
       </c>
       <c r="K609" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L609" t="n">
         <v>11.25999999999997</v>
@@ -31396,7 +31412,7 @@
         <v>35.70000000000022</v>
       </c>
       <c r="K610" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L610" t="n">
         <v>11.24999999999998</v>
@@ -31498,7 +31514,7 @@
         <v>35.80000000000022</v>
       </c>
       <c r="K612" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L612" t="n">
         <v>11.24999999999998</v>
@@ -31549,7 +31565,7 @@
         <v>35.80000000000022</v>
       </c>
       <c r="K613" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L613" t="n">
         <v>11.25999999999997</v>
@@ -31600,7 +31616,7 @@
         <v>35.80000000000022</v>
       </c>
       <c r="K614" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L614" t="n">
         <v>11.25999999999997</v>
@@ -31702,7 +31718,7 @@
         <v>35.80000000000022</v>
       </c>
       <c r="K616" t="n">
-        <v>-14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L616" t="n">
         <v>11.26999999999997</v>
@@ -31753,7 +31769,7 @@
         <v>35.80000000000022</v>
       </c>
       <c r="K617" t="n">
-        <v>-14.28571428571403</v>
+        <v>100</v>
       </c>
       <c r="L617" t="n">
         <v>11.26999999999997</v>
@@ -31804,7 +31820,7 @@
         <v>35.80000000000022</v>
       </c>
       <c r="K618" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L618" t="n">
         <v>11.27999999999997</v>
@@ -31855,7 +31871,7 @@
         <v>35.80000000000022</v>
       </c>
       <c r="K619" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L619" t="n">
         <v>11.28999999999997</v>
@@ -31905,9 +31921,7 @@
       <c r="J620" t="n">
         <v>35.80000000000022</v>
       </c>
-      <c r="K620" t="n">
-        <v>0</v>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>11.29999999999997</v>
       </c>
@@ -31957,7 +31971,7 @@
         <v>35.90000000000023</v>
       </c>
       <c r="K621" t="n">
-        <v>14.28571428571403</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L621" t="n">
         <v>11.30999999999997</v>
@@ -32059,7 +32073,7 @@
         <v>36.00000000000023</v>
       </c>
       <c r="K623" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L623" t="n">
         <v>11.30999999999997</v>
@@ -32110,7 +32124,7 @@
         <v>36.10000000000023</v>
       </c>
       <c r="K624" t="n">
-        <v>14.28571428571403</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L624" t="n">
         <v>11.31999999999997</v>
@@ -32161,7 +32175,7 @@
         <v>36.20000000000023</v>
       </c>
       <c r="K625" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L625" t="n">
         <v>11.31999999999997</v>
@@ -32212,7 +32226,7 @@
         <v>36.30000000000023</v>
       </c>
       <c r="K626" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L626" t="n">
         <v>11.30999999999997</v>
@@ -32314,7 +32328,7 @@
         <v>36.40000000000023</v>
       </c>
       <c r="K628" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L628" t="n">
         <v>11.30999999999997</v>
@@ -32365,7 +32379,7 @@
         <v>36.40000000000023</v>
       </c>
       <c r="K629" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L629" t="n">
         <v>11.30999999999997</v>
@@ -32416,7 +32430,7 @@
         <v>36.40000000000023</v>
       </c>
       <c r="K630" t="n">
-        <v>14.28571428571428</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L630" t="n">
         <v>11.30999999999997</v>
@@ -32518,7 +32532,7 @@
         <v>36.60000000000024</v>
       </c>
       <c r="K632" t="n">
-        <v>-24.99999999999978</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L632" t="n">
         <v>11.27999999999997</v>
@@ -32569,7 +32583,7 @@
         <v>36.70000000000024</v>
       </c>
       <c r="K633" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L633" t="n">
         <v>11.26999999999997</v>
@@ -32620,7 +32634,7 @@
         <v>36.90000000000023</v>
       </c>
       <c r="K634" t="n">
-        <v>-27.27272727272713</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L634" t="n">
         <v>11.22999999999997</v>
@@ -32671,7 +32685,7 @@
         <v>36.90000000000023</v>
       </c>
       <c r="K635" t="n">
-        <v>-27.27272727272713</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L635" t="n">
         <v>11.19999999999997</v>
@@ -32722,7 +32736,7 @@
         <v>37.00000000000023</v>
       </c>
       <c r="K636" t="n">
-        <v>-33.33333333333309</v>
+        <v>-66.66666666666656</v>
       </c>
       <c r="L636" t="n">
         <v>11.16999999999997</v>
@@ -32773,7 +32787,7 @@
         <v>37.00000000000023</v>
       </c>
       <c r="K637" t="n">
-        <v>-33.33333333333309</v>
+        <v>-66.66666666666656</v>
       </c>
       <c r="L637" t="n">
         <v>11.12999999999997</v>
@@ -32824,7 +32838,7 @@
         <v>37.10000000000024</v>
       </c>
       <c r="K638" t="n">
-        <v>-38.46153846153813</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L638" t="n">
         <v>11.07999999999997</v>
@@ -32875,7 +32889,7 @@
         <v>37.20000000000024</v>
       </c>
       <c r="K639" t="n">
-        <v>-28.57142857142833</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L639" t="n">
         <v>11.03999999999997</v>
@@ -32926,7 +32940,7 @@
         <v>37.30000000000024</v>
       </c>
       <c r="K640" t="n">
-        <v>-19.99999999999986</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L640" t="n">
         <v>11.00999999999997</v>
@@ -32977,7 +32991,7 @@
         <v>37.30000000000024</v>
       </c>
       <c r="K641" t="n">
-        <v>-28.57142857142833</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L641" t="n">
         <v>10.97999999999998</v>
@@ -33028,7 +33042,7 @@
         <v>37.30000000000024</v>
       </c>
       <c r="K642" t="n">
-        <v>-23.07692307692293</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L642" t="n">
         <v>10.96999999999998</v>
@@ -33079,7 +33093,7 @@
         <v>37.30000000000024</v>
       </c>
       <c r="K643" t="n">
-        <v>-23.07692307692293</v>
+        <v>0</v>
       </c>
       <c r="L643" t="n">
         <v>10.94999999999998</v>
@@ -33130,7 +33144,7 @@
         <v>37.30000000000024</v>
       </c>
       <c r="K644" t="n">
-        <v>-33.33333333333309</v>
+        <v>0</v>
       </c>
       <c r="L644" t="n">
         <v>10.94999999999998</v>
@@ -33181,7 +33195,7 @@
         <v>37.30000000000024</v>
       </c>
       <c r="K645" t="n">
-        <v>-27.27272727272713</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L645" t="n">
         <v>10.94999999999998</v>
@@ -33232,7 +33246,7 @@
         <v>37.40000000000024</v>
       </c>
       <c r="K646" t="n">
-        <v>-27.27272727272696</v>
+        <v>0</v>
       </c>
       <c r="L646" t="n">
         <v>10.94999999999998</v>
@@ -33283,7 +33297,7 @@
         <v>37.40000000000024</v>
       </c>
       <c r="K647" t="n">
-        <v>-39.99999999999975</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L647" t="n">
         <v>10.94999999999998</v>
@@ -33334,7 +33348,7 @@
         <v>37.50000000000024</v>
       </c>
       <c r="K648" t="n">
-        <v>-45.45454545454511</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L648" t="n">
         <v>10.94999999999998</v>
@@ -33385,7 +33399,7 @@
         <v>37.50000000000024</v>
       </c>
       <c r="K649" t="n">
-        <v>-45.45454545454511</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L649" t="n">
         <v>10.93999999999997</v>
@@ -33436,7 +33450,7 @@
         <v>37.50000000000024</v>
       </c>
       <c r="K650" t="n">
-        <v>-45.45454545454511</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L650" t="n">
         <v>10.91999999999998</v>
@@ -33487,7 +33501,7 @@
         <v>37.50000000000024</v>
       </c>
       <c r="K651" t="n">
-        <v>-45.45454545454511</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L651" t="n">
         <v>10.89999999999997</v>
@@ -33538,7 +33552,7 @@
         <v>37.60000000000024</v>
       </c>
       <c r="K652" t="n">
-        <v>-19.99999999999979</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L652" t="n">
         <v>10.88999999999998</v>
@@ -33589,7 +33603,7 @@
         <v>37.60000000000024</v>
       </c>
       <c r="K653" t="n">
-        <v>-33.333333333333</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L653" t="n">
         <v>10.87999999999998</v>
@@ -33640,7 +33654,7 @@
         <v>37.60000000000024</v>
       </c>
       <c r="K654" t="n">
-        <v>-14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L654" t="n">
         <v>10.86999999999998</v>
@@ -33691,7 +33705,7 @@
         <v>37.60000000000024</v>
       </c>
       <c r="K655" t="n">
-        <v>-14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L655" t="n">
         <v>10.85999999999998</v>
@@ -33742,7 +33756,7 @@
         <v>37.70000000000024</v>
       </c>
       <c r="K656" t="n">
-        <v>-14.28571428571403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L656" t="n">
         <v>10.84999999999998</v>
@@ -33793,7 +33807,7 @@
         <v>37.70000000000024</v>
       </c>
       <c r="K657" t="n">
-        <v>-14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L657" t="n">
         <v>10.83999999999997</v>
@@ -33895,7 +33909,7 @@
         <v>37.70000000000024</v>
       </c>
       <c r="K659" t="n">
-        <v>-19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L659" t="n">
         <v>10.83999999999997</v>
@@ -33946,7 +33960,7 @@
         <v>37.70000000000024</v>
       </c>
       <c r="K660" t="n">
-        <v>-49.99999999999911</v>
+        <v>0</v>
       </c>
       <c r="L660" t="n">
         <v>10.83999999999997</v>
@@ -33997,7 +34011,7 @@
         <v>37.70000000000024</v>
       </c>
       <c r="K661" t="n">
-        <v>-49.99999999999911</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L661" t="n">
         <v>10.83999999999997</v>
@@ -34048,7 +34062,7 @@
         <v>37.70000000000024</v>
       </c>
       <c r="K662" t="n">
-        <v>-49.99999999999911</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L662" t="n">
         <v>10.82999999999997</v>
@@ -34099,7 +34113,7 @@
         <v>37.70000000000024</v>
       </c>
       <c r="K663" t="n">
-        <v>-49.99999999999911</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L663" t="n">
         <v>10.81999999999997</v>
@@ -34150,7 +34164,7 @@
         <v>37.80000000000025</v>
       </c>
       <c r="K664" t="n">
-        <v>-19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L664" t="n">
         <v>10.81999999999997</v>
@@ -34201,7 +34215,7 @@
         <v>37.90000000000025</v>
       </c>
       <c r="K665" t="n">
-        <v>-33.33333333333275</v>
+        <v>0</v>
       </c>
       <c r="L665" t="n">
         <v>10.80999999999997</v>
@@ -34252,7 +34266,7 @@
         <v>38.00000000000025</v>
       </c>
       <c r="K666" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L666" t="n">
         <v>10.81999999999997</v>
@@ -34303,7 +34317,7 @@
         <v>38.00000000000025</v>
       </c>
       <c r="K667" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L667" t="n">
         <v>10.82999999999997</v>
@@ -34354,7 +34368,7 @@
         <v>38.00000000000025</v>
       </c>
       <c r="K668" t="n">
-        <v>19.99999999999964</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L668" t="n">
         <v>10.83999999999997</v>
@@ -34405,7 +34419,7 @@
         <v>38.00000000000025</v>
       </c>
       <c r="K669" t="n">
-        <v>19.99999999999964</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L669" t="n">
         <v>10.84999999999998</v>
@@ -34456,7 +34470,7 @@
         <v>38.20000000000025</v>
       </c>
       <c r="K670" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L670" t="n">
         <v>10.83999999999998</v>
@@ -34507,7 +34521,7 @@
         <v>38.40000000000025</v>
       </c>
       <c r="K671" t="n">
-        <v>11.11111111111091</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L671" t="n">
         <v>10.84999999999998</v>
@@ -34558,7 +34572,7 @@
         <v>38.40000000000025</v>
       </c>
       <c r="K672" t="n">
-        <v>0</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L672" t="n">
         <v>10.85999999999998</v>
@@ -34660,7 +34674,7 @@
         <v>38.50000000000026</v>
       </c>
       <c r="K674" t="n">
-        <v>11.11111111111091</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L674" t="n">
         <v>10.87999999999998</v>
@@ -34711,7 +34725,7 @@
         <v>38.60000000000026</v>
       </c>
       <c r="K675" t="n">
-        <v>19.99999999999964</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L675" t="n">
         <v>10.90999999999998</v>
@@ -34762,7 +34776,7 @@
         <v>38.70000000000026</v>
       </c>
       <c r="K676" t="n">
-        <v>19.99999999999964</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L676" t="n">
         <v>10.91999999999998</v>
@@ -34813,7 +34827,7 @@
         <v>38.80000000000026</v>
       </c>
       <c r="K677" t="n">
-        <v>27.27272727272679</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L677" t="n">
         <v>10.93999999999998</v>
@@ -34864,7 +34878,7 @@
         <v>38.80000000000026</v>
       </c>
       <c r="K678" t="n">
-        <v>27.27272727272679</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L678" t="n">
         <v>10.95999999999998</v>
@@ -34915,7 +34929,7 @@
         <v>39.00000000000026</v>
       </c>
       <c r="K679" t="n">
-        <v>7.692307692307598</v>
+        <v>25</v>
       </c>
       <c r="L679" t="n">
         <v>10.95999999999998</v>
@@ -34966,7 +34980,7 @@
         <v>39.20000000000026</v>
       </c>
       <c r="K680" t="n">
-        <v>19.99999999999974</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L680" t="n">
         <v>10.99999999999998</v>
@@ -35017,7 +35031,7 @@
         <v>39.20000000000026</v>
       </c>
       <c r="K681" t="n">
-        <v>19.99999999999974</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L681" t="n">
         <v>11.01999999999997</v>
@@ -35068,7 +35082,7 @@
         <v>39.20000000000026</v>
       </c>
       <c r="K682" t="n">
-        <v>19.99999999999974</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L682" t="n">
         <v>11.03999999999997</v>
@@ -35119,7 +35133,7 @@
         <v>39.30000000000026</v>
       </c>
       <c r="K683" t="n">
-        <v>12.49999999999983</v>
+        <v>0</v>
       </c>
       <c r="L683" t="n">
         <v>11.04999999999997</v>
@@ -35170,7 +35184,7 @@
         <v>39.40000000000026</v>
       </c>
       <c r="K684" t="n">
-        <v>0</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L684" t="n">
         <v>11.03999999999997</v>
@@ -35221,7 +35235,7 @@
         <v>39.50000000000026</v>
       </c>
       <c r="K685" t="n">
-        <v>12.49999999999983</v>
+        <v>0</v>
       </c>
       <c r="L685" t="n">
         <v>11.02999999999997</v>
@@ -35272,7 +35286,7 @@
         <v>39.60000000000026</v>
       </c>
       <c r="K686" t="n">
-        <v>12.49999999999983</v>
+        <v>0</v>
       </c>
       <c r="L686" t="n">
         <v>11.03999999999997</v>
@@ -35323,7 +35337,7 @@
         <v>39.60000000000026</v>
       </c>
       <c r="K687" t="n">
-        <v>12.49999999999983</v>
+        <v>0</v>
       </c>
       <c r="L687" t="n">
         <v>11.03999999999997</v>
@@ -35374,7 +35388,7 @@
         <v>39.60000000000026</v>
       </c>
       <c r="K688" t="n">
-        <v>12.49999999999983</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L688" t="n">
         <v>11.03999999999997</v>
@@ -35425,7 +35439,7 @@
         <v>39.60000000000026</v>
       </c>
       <c r="K689" t="n">
-        <v>12.49999999999983</v>
+        <v>0</v>
       </c>
       <c r="L689" t="n">
         <v>11.05999999999997</v>
@@ -35476,7 +35490,7 @@
         <v>39.60000000000026</v>
       </c>
       <c r="K690" t="n">
-        <v>28.57142857142833</v>
+        <v>0</v>
       </c>
       <c r="L690" t="n">
         <v>11.05999999999997</v>
@@ -35527,7 +35541,7 @@
         <v>39.60000000000026</v>
       </c>
       <c r="K691" t="n">
-        <v>16.66666666666647</v>
+        <v>0</v>
       </c>
       <c r="L691" t="n">
         <v>11.05999999999997</v>
@@ -35578,7 +35592,7 @@
         <v>39.60000000000026</v>
       </c>
       <c r="K692" t="n">
-        <v>16.66666666666647</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L692" t="n">
         <v>11.05999999999997</v>
@@ -35629,7 +35643,7 @@
         <v>39.70000000000027</v>
       </c>
       <c r="K693" t="n">
-        <v>7.692307692307598</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L693" t="n">
         <v>11.05999999999997</v>
@@ -35731,7 +35745,7 @@
         <v>39.70000000000027</v>
       </c>
       <c r="K695" t="n">
-        <v>-9.090909090908989</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L695" t="n">
         <v>11.06999999999997</v>
@@ -35782,7 +35796,7 @@
         <v>39.80000000000027</v>
       </c>
       <c r="K696" t="n">
-        <v>9.090909090908989</v>
+        <v>0</v>
       </c>
       <c r="L696" t="n">
         <v>11.06999999999997</v>
@@ -35833,7 +35847,7 @@
         <v>39.90000000000027</v>
       </c>
       <c r="K697" t="n">
-        <v>-9.090909090908989</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L697" t="n">
         <v>11.05999999999997</v>
@@ -35935,7 +35949,7 @@
         <v>40.10000000000027</v>
       </c>
       <c r="K699" t="n">
-        <v>9.090909090908928</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L699" t="n">
         <v>11.04999999999997</v>
@@ -36037,7 +36051,7 @@
         <v>40.30000000000027</v>
       </c>
       <c r="K701" t="n">
-        <v>-9.090909090908928</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L701" t="n">
         <v>11.03999999999997</v>
@@ -36088,7 +36102,7 @@
         <v>40.30000000000027</v>
       </c>
       <c r="K702" t="n">
-        <v>-9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L702" t="n">
         <v>11.02999999999997</v>
@@ -36190,7 +36204,7 @@
         <v>40.40000000000028</v>
       </c>
       <c r="K704" t="n">
-        <v>0</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L704" t="n">
         <v>11.01999999999997</v>
@@ -36241,7 +36255,7 @@
         <v>40.50000000000028</v>
       </c>
       <c r="K705" t="n">
-        <v>0</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L705" t="n">
         <v>11.01999999999997</v>
@@ -36292,7 +36306,7 @@
         <v>40.60000000000028</v>
       </c>
       <c r="K706" t="n">
-        <v>-19.99999999999964</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L706" t="n">
         <v>10.99999999999998</v>
@@ -36343,7 +36357,7 @@
         <v>40.70000000000028</v>
       </c>
       <c r="K707" t="n">
-        <v>-9.090909090908928</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L707" t="n">
         <v>10.99999999999998</v>
@@ -36394,7 +36408,7 @@
         <v>40.80000000000028</v>
       </c>
       <c r="K708" t="n">
-        <v>-16.66666666666637</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L708" t="n">
         <v>10.97999999999998</v>
@@ -36445,7 +36459,7 @@
         <v>40.90000000000028</v>
       </c>
       <c r="K709" t="n">
-        <v>-7.692307692307556</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L709" t="n">
         <v>10.97999999999998</v>
@@ -36496,7 +36510,7 @@
         <v>40.90000000000028</v>
       </c>
       <c r="K710" t="n">
-        <v>-7.692307692307556</v>
+        <v>0</v>
       </c>
       <c r="L710" t="n">
         <v>10.96999999999998</v>
@@ -36547,7 +36561,7 @@
         <v>40.90000000000028</v>
       </c>
       <c r="K711" t="n">
-        <v>-7.692307692307556</v>
+        <v>0</v>
       </c>
       <c r="L711" t="n">
         <v>10.96999999999998</v>
@@ -36598,7 +36612,7 @@
         <v>41.00000000000028</v>
       </c>
       <c r="K712" t="n">
-        <v>0</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L712" t="n">
         <v>10.97999999999998</v>
@@ -36649,7 +36663,7 @@
         <v>41.10000000000029</v>
       </c>
       <c r="K713" t="n">
-        <v>0</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L713" t="n">
         <v>10.97999999999998</v>
@@ -36751,7 +36765,7 @@
         <v>41.10000000000029</v>
       </c>
       <c r="K715" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L715" t="n">
         <v>10.98999999999998</v>
@@ -36802,7 +36816,7 @@
         <v>41.10000000000029</v>
       </c>
       <c r="K716" t="n">
-        <v>-7.692307692307556</v>
+        <v>0</v>
       </c>
       <c r="L716" t="n">
         <v>10.99999999999998</v>
@@ -36853,7 +36867,7 @@
         <v>41.10000000000029</v>
       </c>
       <c r="K717" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L717" t="n">
         <v>10.99999999999998</v>
@@ -36904,7 +36918,7 @@
         <v>41.10000000000029</v>
       </c>
       <c r="K718" t="n">
-        <v>-9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L718" t="n">
         <v>11.00999999999997</v>
@@ -37006,7 +37020,7 @@
         <v>41.10000000000029</v>
       </c>
       <c r="K720" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L720" t="n">
         <v>11.00999999999997</v>
@@ -37057,7 +37071,7 @@
         <v>41.10000000000029</v>
       </c>
       <c r="K721" t="n">
-        <v>0</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L721" t="n">
         <v>11.00999999999997</v>

--- a/BackTest/2019-10-19 BackTest MIX.xlsx
+++ b/BackTest/2019-10-19 BackTest MIX.xlsx
@@ -10359,7 +10359,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
@@ -10394,7 +10394,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
@@ -10429,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
@@ -23201,17 +23201,13 @@
         <v>11.17166666666667</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
       </c>
-      <c r="J652" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K652" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="inlineStr"/>
       <c r="M652" t="n">
         <v>1</v>
@@ -23240,534 +23236,452 @@
         <v>11.16333333333333</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
       </c>
-      <c r="J653" t="n">
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
+      <c r="L653" t="inlineStr"/>
+      <c r="M653" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="n">
         <v>10.9</v>
       </c>
-      <c r="K653" t="n">
+      <c r="C654" t="n">
         <v>10.9</v>
       </c>
-      <c r="L653" t="inlineStr">
+      <c r="D654" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E654" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F654" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G654" t="n">
+        <v>11.15666666666667</v>
+      </c>
+      <c r="H654" t="n">
+        <v>0</v>
+      </c>
+      <c r="I654" t="n">
+        <v>0</v>
+      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
+      <c r="L654" t="inlineStr"/>
+      <c r="M654" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C655" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D655" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E655" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F655" t="n">
+        <v>60633.0275</v>
+      </c>
+      <c r="G655" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="H655" t="n">
+        <v>0</v>
+      </c>
+      <c r="I655" t="n">
+        <v>0</v>
+      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
+      <c r="L655" t="inlineStr"/>
+      <c r="M655" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C656" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D656" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E656" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F656" t="n">
+        <v>844796.4974</v>
+      </c>
+      <c r="G656" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="H656" t="n">
+        <v>0</v>
+      </c>
+      <c r="I656" t="n">
+        <v>0</v>
+      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
+      <c r="L656" t="inlineStr"/>
+      <c r="M656" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C657" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D657" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E657" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F657" t="n">
+        <v>120978.1398</v>
+      </c>
+      <c r="G657" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="H657" t="n">
+        <v>0</v>
+      </c>
+      <c r="I657" t="n">
+        <v>0</v>
+      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
+      <c r="L657" t="inlineStr"/>
+      <c r="M657" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C658" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D658" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E658" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F658" t="n">
+        <v>172432.2736</v>
+      </c>
+      <c r="G658" t="n">
+        <v>11.12166666666667</v>
+      </c>
+      <c r="H658" t="n">
+        <v>0</v>
+      </c>
+      <c r="I658" t="n">
+        <v>0</v>
+      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
+      <c r="L658" t="inlineStr"/>
+      <c r="M658" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C659" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D659" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E659" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F659" t="n">
+        <v>351551.9377</v>
+      </c>
+      <c r="G659" t="n">
+        <v>11.11333333333333</v>
+      </c>
+      <c r="H659" t="n">
+        <v>0</v>
+      </c>
+      <c r="I659" t="n">
+        <v>0</v>
+      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
+      <c r="L659" t="inlineStr"/>
+      <c r="M659" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C660" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D660" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E660" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F660" t="n">
+        <v>63484.1666</v>
+      </c>
+      <c r="G660" t="n">
+        <v>11.105</v>
+      </c>
+      <c r="H660" t="n">
+        <v>0</v>
+      </c>
+      <c r="I660" t="n">
+        <v>0</v>
+      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
+      <c r="L660" t="inlineStr"/>
+      <c r="M660" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C661" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D661" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E661" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F661" t="n">
+        <v>320965.2056</v>
+      </c>
+      <c r="G661" t="n">
+        <v>11.09666666666667</v>
+      </c>
+      <c r="H661" t="n">
+        <v>0</v>
+      </c>
+      <c r="I661" t="n">
+        <v>0</v>
+      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
+      <c r="L661" t="inlineStr"/>
+      <c r="M661" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C662" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D662" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E662" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F662" t="n">
+        <v>318214.1267</v>
+      </c>
+      <c r="G662" t="n">
+        <v>11.08833333333333</v>
+      </c>
+      <c r="H662" t="n">
+        <v>0</v>
+      </c>
+      <c r="I662" t="n">
+        <v>0</v>
+      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
+      <c r="L662" t="inlineStr"/>
+      <c r="M662" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C663" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D663" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E663" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F663" t="n">
+        <v>577294.7874</v>
+      </c>
+      <c r="G663" t="n">
+        <v>11.08166666666667</v>
+      </c>
+      <c r="H663" t="n">
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>0</v>
+      </c>
+      <c r="J663" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K663" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L663" t="inlineStr"/>
+      <c r="M663" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C664" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D664" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E664" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F664" t="n">
+        <v>10</v>
+      </c>
+      <c r="G664" t="n">
+        <v>11.075</v>
+      </c>
+      <c r="H664" t="n">
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>0</v>
+      </c>
+      <c r="J664" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K664" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="L664" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M653" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" s="1" t="n">
-        <v>652</v>
-      </c>
-      <c r="B654" t="n">
+      <c r="M664" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" t="n">
         <v>10.9</v>
       </c>
-      <c r="C654" t="n">
+      <c r="C665" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D665" t="n">
         <v>10.9</v>
       </c>
-      <c r="D654" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E654" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F654" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G654" t="n">
-        <v>11.15666666666667</v>
-      </c>
-      <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>0</v>
-      </c>
-      <c r="J654" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K654" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L654" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M654" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" s="1" t="n">
-        <v>653</v>
-      </c>
-      <c r="B655" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C655" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D655" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E655" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F655" t="n">
-        <v>60633.0275</v>
-      </c>
-      <c r="G655" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>0</v>
-      </c>
-      <c r="J655" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K655" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L655" t="inlineStr"/>
-      <c r="M655" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" s="1" t="n">
-        <v>654</v>
-      </c>
-      <c r="B656" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C656" t="n">
+      <c r="E665" t="n">
         <v>10.8</v>
       </c>
-      <c r="D656" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E656" t="n">
+      <c r="F665" t="n">
+        <v>64796.9828</v>
+      </c>
+      <c r="G665" t="n">
+        <v>11.06833333333333</v>
+      </c>
+      <c r="H665" t="n">
+        <v>0</v>
+      </c>
+      <c r="I665" t="n">
+        <v>0</v>
+      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="n">
         <v>10.8</v>
       </c>
-      <c r="F656" t="n">
-        <v>844796.4974</v>
-      </c>
-      <c r="G656" t="n">
-        <v>11.14</v>
-      </c>
-      <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>0</v>
-      </c>
-      <c r="J656" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K656" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L656" t="inlineStr">
+      <c r="L665" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M656" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" s="1" t="n">
-        <v>655</v>
-      </c>
-      <c r="B657" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C657" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D657" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E657" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F657" t="n">
-        <v>120978.1398</v>
-      </c>
-      <c r="G657" t="n">
-        <v>11.13</v>
-      </c>
-      <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>0</v>
-      </c>
-      <c r="J657" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K657" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M657" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" s="1" t="n">
-        <v>656</v>
-      </c>
-      <c r="B658" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C658" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D658" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E658" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F658" t="n">
-        <v>172432.2736</v>
-      </c>
-      <c r="G658" t="n">
-        <v>11.12166666666667</v>
-      </c>
-      <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>0</v>
-      </c>
-      <c r="J658" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K658" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M658" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" s="1" t="n">
-        <v>657</v>
-      </c>
-      <c r="B659" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C659" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D659" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E659" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F659" t="n">
-        <v>351551.9377</v>
-      </c>
-      <c r="G659" t="n">
-        <v>11.11333333333333</v>
-      </c>
-      <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>0</v>
-      </c>
-      <c r="J659" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K659" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M659" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" s="1" t="n">
-        <v>658</v>
-      </c>
-      <c r="B660" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C660" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D660" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E660" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F660" t="n">
-        <v>63484.1666</v>
-      </c>
-      <c r="G660" t="n">
-        <v>11.105</v>
-      </c>
-      <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>0</v>
-      </c>
-      <c r="J660" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K660" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M660" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" s="1" t="n">
-        <v>659</v>
-      </c>
-      <c r="B661" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C661" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D661" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E661" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F661" t="n">
-        <v>320965.2056</v>
-      </c>
-      <c r="G661" t="n">
-        <v>11.09666666666667</v>
-      </c>
-      <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>0</v>
-      </c>
-      <c r="J661" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K661" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M661" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" s="1" t="n">
-        <v>660</v>
-      </c>
-      <c r="B662" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C662" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D662" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E662" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F662" t="n">
-        <v>318214.1267</v>
-      </c>
-      <c r="G662" t="n">
-        <v>11.08833333333333</v>
-      </c>
-      <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>0</v>
-      </c>
-      <c r="J662" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K662" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M662" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" s="1" t="n">
-        <v>661</v>
-      </c>
-      <c r="B663" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C663" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D663" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E663" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F663" t="n">
-        <v>577294.7874</v>
-      </c>
-      <c r="G663" t="n">
-        <v>11.08166666666667</v>
-      </c>
-      <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>0</v>
-      </c>
-      <c r="J663" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="K663" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M663" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" s="1" t="n">
-        <v>662</v>
-      </c>
-      <c r="B664" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C664" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D664" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E664" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F664" t="n">
-        <v>10</v>
-      </c>
-      <c r="G664" t="n">
-        <v>11.075</v>
-      </c>
-      <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>0</v>
-      </c>
-      <c r="J664" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K664" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M664" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" s="1" t="n">
-        <v>663</v>
-      </c>
-      <c r="B665" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C665" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D665" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E665" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F665" t="n">
-        <v>64796.9828</v>
-      </c>
-      <c r="G665" t="n">
-        <v>11.06833333333333</v>
-      </c>
-      <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>0</v>
-      </c>
-      <c r="J665" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K665" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -23795,16 +23709,14 @@
         <v>11.06166666666666</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
       </c>
-      <c r="J666" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="L666" t="inlineStr">
         <is>
@@ -23838,16 +23750,14 @@
         <v>11.055</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
       </c>
-      <c r="J667" t="n">
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="n">
         <v>10.8</v>
-      </c>
-      <c r="K667" t="n">
-        <v>10.9</v>
       </c>
       <c r="L667" t="inlineStr">
         <is>
@@ -23881,16 +23791,14 @@
         <v>11.05</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
       </c>
-      <c r="J668" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="L668" t="inlineStr">
         <is>
@@ -23924,16 +23832,14 @@
         <v>11.04499999999999</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
       </c>
-      <c r="J669" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="L669" t="inlineStr">
         <is>
@@ -23967,16 +23873,14 @@
         <v>11.03666666666666</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
       </c>
-      <c r="J670" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="L670" t="inlineStr">
         <is>
@@ -24010,16 +23914,14 @@
         <v>11.03</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
       </c>
-      <c r="J671" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="L671" t="inlineStr">
         <is>
@@ -24053,16 +23955,14 @@
         <v>11.02333333333333</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I672" t="n">
         <v>0</v>
       </c>
-      <c r="J672" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="L672" t="inlineStr">
         <is>
@@ -24096,16 +23996,14 @@
         <v>11.01666666666666</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
       </c>
-      <c r="J673" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="L673" t="inlineStr">
         <is>
@@ -24139,16 +24037,14 @@
         <v>11.01166666666666</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
       </c>
-      <c r="J674" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="L674" t="inlineStr">
         <is>
@@ -24182,16 +24078,14 @@
         <v>11.00833333333333</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
       </c>
-      <c r="J675" t="n">
-        <v>11</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="L675" t="inlineStr">
         <is>
@@ -24225,16 +24119,14 @@
         <v>11.00333333333333</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
       </c>
-      <c r="J676" t="n">
-        <v>11.1</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="L676" t="inlineStr">
         <is>
@@ -24268,16 +24160,14 @@
         <v>11</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
       </c>
-      <c r="J677" t="n">
-        <v>11.1</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="L677" t="inlineStr">
         <is>
@@ -24311,16 +24201,14 @@
         <v>10.99666666666667</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I678" t="n">
         <v>0</v>
       </c>
-      <c r="J678" t="n">
-        <v>11.1</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="L678" t="inlineStr">
         <is>
@@ -24354,16 +24242,14 @@
         <v>10.99</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I679" t="n">
         <v>0</v>
       </c>
-      <c r="J679" t="n">
-        <v>11</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="L679" t="inlineStr">
         <is>
@@ -24397,16 +24283,14 @@
         <v>10.98666666666667</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
       </c>
-      <c r="J680" t="n">
-        <v>11</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="L680" t="inlineStr">
         <is>
@@ -24440,16 +24324,14 @@
         <v>10.98166666666667</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
       </c>
-      <c r="J681" t="n">
-        <v>11</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="L681" t="inlineStr">
         <is>
@@ -24483,16 +24365,14 @@
         <v>10.97833333333334</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I682" t="n">
         <v>0</v>
       </c>
-      <c r="J682" t="n">
-        <v>11.1</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="L682" t="inlineStr">
         <is>
@@ -24526,16 +24406,14 @@
         <v>10.97333333333334</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I683" t="n">
         <v>0</v>
       </c>
-      <c r="J683" t="n">
-        <v>11</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="L683" t="inlineStr">
         <is>
@@ -24572,19 +24450,19 @@
         <v>0</v>
       </c>
       <c r="I684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="L684" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M684" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
@@ -24610,18 +24488,20 @@
         <v>10.96000000000001</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I685" t="n">
-        <v>1</v>
-      </c>
-      <c r="J685" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="n">
-        <v>11</v>
-      </c>
-      <c r="L685" t="inlineStr"/>
+        <v>10.8</v>
+      </c>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -24649,20 +24529,18 @@
         <v>10.95833333333334</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I686" t="n">
-        <v>1</v>
-      </c>
-      <c r="J686" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="L686" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M686" t="n">
@@ -24692,16 +24570,14 @@
         <v>10.95500000000001</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I687" t="n">
-        <v>1</v>
-      </c>
-      <c r="J687" t="n">
-        <v>11.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="L687" t="inlineStr">
         <is>
@@ -24735,16 +24611,14 @@
         <v>10.95166666666668</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I688" t="n">
-        <v>1</v>
-      </c>
-      <c r="J688" t="n">
-        <v>11.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="L688" t="inlineStr">
         <is>
@@ -24785,7 +24659,7 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="L689" t="inlineStr">
         <is>
@@ -24826,7 +24700,7 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="L690" t="inlineStr">
         <is>
@@ -24867,7 +24741,7 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="L691" t="inlineStr">
         <is>
@@ -24908,7 +24782,7 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="L692" t="inlineStr">
         <is>
@@ -24949,7 +24823,7 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="L693" t="inlineStr">
         <is>
@@ -24986,11 +24860,11 @@
         <v>0</v>
       </c>
       <c r="I694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="L694" t="inlineStr">
         <is>
@@ -25031,7 +24905,7 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="L695" t="inlineStr">
         <is>
@@ -25072,7 +24946,7 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="L696" t="inlineStr">
         <is>
@@ -25106,16 +24980,14 @@
         <v>10.94333333333335</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
       </c>
-      <c r="J697" t="n">
-        <v>11</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="L697" t="inlineStr">
         <is>
@@ -25156,7 +25028,7 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="L698" t="inlineStr">
         <is>
@@ -25190,16 +25062,14 @@
         <v>10.95000000000001</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
       </c>
-      <c r="J699" t="n">
-        <v>11.1</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="L699" t="inlineStr">
         <is>
@@ -25240,7 +25110,7 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
       <c r="L700" t="inlineStr">
         <is>

--- a/BackTest/2019-10-19 BackTest MIX.xlsx
+++ b/BackTest/2019-10-19 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>150913.3542999999</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>150913.3542999999</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>150913.3542999999</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>150913.3542999999</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>103031.9410999999</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>192941.6840773108</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>192941.6840773108</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>184651.6840773108</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>184651.6840773108</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>188059.6679773108</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>188029.6679773108</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>188039.6679773108</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>188039.6679773108</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>187039.6679773108</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>187049.6679773108</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>187049.6679773108</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>187049.6679773108</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>187035.7533773108</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>187045.7533773108</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>187045.7533773108</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>174830.6992773108</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>174840.6992773108</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>174840.6992773108</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>146750.7044773108</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-4507.782822689187</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-4528.387222689187</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>32971.61277731082</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>32971.61277731082</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>32971.61277731082</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>32981.61277731082</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>14231.61277731082</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-4528.387222689184</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-23278.38722268918</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-205417.5761226892</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-205406.5761226892</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-576078.0396226891</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-576078.0396226891</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-576078.0396226891</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-571419.0396226891</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-571419.0396226891</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-571419.0396226891</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-571409.0396226891</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-742550.1851226891</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-748562.4055226891</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-748530.4055226891</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-748530.4055226891</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-863390.0602226891</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-863380.0602226891</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-863380.0602226891</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-889151.4437226891</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-889151.4437226891</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-907264.5318226891</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-907254.5318226891</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-947391.3738226891</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-947391.3738226891</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-947381.3738226891</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-979525.020222689</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-979515.020222689</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-979515.020222689</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-979515.020222689</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-979515.020222689</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-979515.020222689</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-979504.020222689</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-1081176.345922689</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-1056827.671622689</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-1056827.671622689</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1072270.264522689</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-1072270.264522689</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1072270.264522689</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1072259.264522689</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-1220773.345022689</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-1220773.345022689</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-1154322.110522689</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-1154322.110522689</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1252724.724322689</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1252700.724322689</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1647838.230191541</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1844973.694691541</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-1844963.694691541</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-1847466.694691541</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1847466.694691541</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-1847466.694691541</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-1847444.694691541</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1847444.694691541</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1847444.694691541</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1847444.694691541</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1847444.694691541</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1847444.694691541</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1847444.694691541</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-2092738.195091541</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-2211892.837891541</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1876172.342891541</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1997490.846991541</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1823232.568591541</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-1823232.568591541</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1655395.375991541</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-1655395.375991541</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-1713860.432291541</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-1731733.897391541</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-1729148.827391541</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1693168.827391541</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1693168.827391541</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-2212508.026491541</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-2212508.026491541</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-2212508.026491541</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-2202334.202591541</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-2436302.906791541</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-2427001.011191541</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-2427001.011191541</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-2427001.011191541</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-2469919.656191541</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-2469919.656191541</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-2469919.656191541</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-2469919.656191541</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-2460611.154991542</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-2560621.154991542</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-2560621.154991542</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-2560621.154991542</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-2560621.154991542</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-2560611.154991542</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-2701131.991091541</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-2487920.666291542</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-2487920.666291542</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-2555174.548491542</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-2483640.096791542</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-4237634.445091542</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-4065004.308091542</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-3908058.510291541</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-4022702.260291541</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-4022692.260291541</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-4022702.260291541</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-4022692.260291541</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-4727959.456891541</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-4727959.456891541</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-4669511.846591542</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-4669511.846591542</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-4669511.846591542</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-4669511.846591542</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-4869521.846591542</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-4869491.846591542</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-4869491.846591542</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-4869491.846591542</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-4869491.846591542</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-4869491.846591542</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-5598081.793391542</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-5598081.793391542</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-5336539.259891542</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-5412953.398491542</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-5433287.478191542</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-5433287.478191542</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-5943412.109391541</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-5856860.621791542</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-5856870.621791542</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-5856870.621791542</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-5856860.621791542</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-5856860.621791542</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-5856870.621791542</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-5856860.621791542</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-5856880.621791542</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-5759460.925191541</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-5759460.925191541</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-5736569.941591541</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-5895642.558891541</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-5895642.558891541</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-9393353.026191542</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-9393353.026191542</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-11261177.45179154</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-11198789.73899154</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-11033139.73899154</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-10990157.88329154</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-11100596.99339154</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-11100596.99339154</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-11100332.99339154</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-11130332.99339154</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-11130332.99339154</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-9590850.521091547</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-9590850.521091547</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-9590850.521091547</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-7660563.773791546</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-7660563.773791546</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-7824623.265804554</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-8307094.809604554</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-10165482.23170456</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-9913172.231704555</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-11915017.23170456</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-11915017.23170456</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-11915017.23170456</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-11914335.23170456</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-11915107.23170456</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-11915207.23170456</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-11915207.23170456</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-11907167.23170456</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-12132589.51960456</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-12166218.28720456</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-12166208.28720456</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-12166100.25420456</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-12264428.73920456</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-12239968.25720455</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-12265906.67040456</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-12265717.75040456</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-12306814.10990456</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-12306814.10990456</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-12306814.10990456</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-12306814.10990456</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-12238520.94330456</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-12258780.94330456</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-12258780.94330456</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-12258780.94330456</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-12258780.94330456</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-12258780.94330456</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-12325161.10720455</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-12229969.86830455</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-12254969.86830455</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-12254969.86830455</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-12462698.00110455</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-12451453.76283789</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-12451453.76283789</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-12451517.45073789</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-12451517.45073789</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-12626499.79963789</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-12626499.79963789</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-17654897.02363789</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -20614,14 +20614,10 @@
         <v>-36521270.44173964</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
-      </c>
-      <c r="I613" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="J613" t="n">
-        <v>11.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
@@ -20654,14 +20650,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20693,217 +20683,183 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
+      <c r="L615" t="n">
+        <v>1</v>
+      </c>
+      <c r="M615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C616" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D616" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E616" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F616" t="n">
+        <v>535265.2068</v>
+      </c>
+      <c r="G616" t="n">
+        <v>-35578856.35623964</v>
+      </c>
+      <c r="H616" t="n">
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
+      <c r="L616" t="n">
+        <v>1</v>
+      </c>
+      <c r="M616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C617" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D617" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E617" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F617" t="n">
+        <v>18338.81</v>
+      </c>
+      <c r="G617" t="n">
+        <v>-35578856.35623964</v>
+      </c>
+      <c r="H617" t="n">
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
+      <c r="L617" t="n">
+        <v>1</v>
+      </c>
+      <c r="M617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C618" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D618" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E618" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F618" t="n">
+        <v>5015</v>
+      </c>
+      <c r="G618" t="n">
+        <v>-35578856.35623964</v>
+      </c>
+      <c r="H618" t="n">
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
+      <c r="L618" t="n">
+        <v>1</v>
+      </c>
+      <c r="M618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C619" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D619" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E619" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F619" t="n">
+        <v>14843.7411</v>
+      </c>
+      <c r="G619" t="n">
+        <v>-35578856.35623964</v>
+      </c>
+      <c r="H619" t="n">
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="J619" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K619" t="inlineStr"/>
+      <c r="L619" t="n">
+        <v>1</v>
+      </c>
+      <c r="M619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="n">
         <v>11.1</v>
       </c>
-      <c r="K615" t="inlineStr">
+      <c r="C620" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D620" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E620" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F620" t="n">
+        <v>28404.9544</v>
+      </c>
+      <c r="G620" t="n">
+        <v>-35578856.35623964</v>
+      </c>
+      <c r="H620" t="n">
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K620" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L615" t="n">
-        <v>1</v>
-      </c>
-      <c r="M615" t="inlineStr"/>
-    </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
-        <v>614</v>
-      </c>
-      <c r="B616" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C616" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D616" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E616" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F616" t="n">
-        <v>535265.2068</v>
-      </c>
-      <c r="G616" t="n">
-        <v>-35578856.35623964</v>
-      </c>
-      <c r="H616" t="n">
-        <v>2</v>
-      </c>
-      <c r="I616" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="J616" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L616" t="n">
-        <v>1</v>
-      </c>
-      <c r="M616" t="inlineStr"/>
-    </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
-        <v>615</v>
-      </c>
-      <c r="B617" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C617" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D617" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E617" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F617" t="n">
-        <v>18338.81</v>
-      </c>
-      <c r="G617" t="n">
-        <v>-35578856.35623964</v>
-      </c>
-      <c r="H617" t="n">
-        <v>2</v>
-      </c>
-      <c r="I617" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="J617" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L617" t="n">
-        <v>1</v>
-      </c>
-      <c r="M617" t="inlineStr"/>
-    </row>
-    <row r="618">
-      <c r="A618" s="1" t="n">
-        <v>616</v>
-      </c>
-      <c r="B618" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C618" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D618" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E618" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F618" t="n">
-        <v>5015</v>
-      </c>
-      <c r="G618" t="n">
-        <v>-35578856.35623964</v>
-      </c>
-      <c r="H618" t="n">
-        <v>2</v>
-      </c>
-      <c r="I618" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="J618" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L618" t="n">
-        <v>1</v>
-      </c>
-      <c r="M618" t="inlineStr"/>
-    </row>
-    <row r="619">
-      <c r="A619" s="1" t="n">
-        <v>617</v>
-      </c>
-      <c r="B619" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C619" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D619" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E619" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F619" t="n">
-        <v>14843.7411</v>
-      </c>
-      <c r="G619" t="n">
-        <v>-35578856.35623964</v>
-      </c>
-      <c r="H619" t="n">
-        <v>2</v>
-      </c>
-      <c r="I619" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="J619" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L619" t="n">
-        <v>1</v>
-      </c>
-      <c r="M619" t="inlineStr"/>
-    </row>
-    <row r="620">
-      <c r="A620" s="1" t="n">
-        <v>618</v>
-      </c>
-      <c r="B620" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C620" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D620" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E620" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F620" t="n">
-        <v>28404.9544</v>
-      </c>
-      <c r="G620" t="n">
-        <v>-35578856.35623964</v>
-      </c>
-      <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20932,13 +20888,11 @@
         <v>-35578856.35623964</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
-      </c>
-      <c r="I621" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -20973,13 +20927,11 @@
         <v>-35567810.01393964</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
-      </c>
-      <c r="I622" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -21018,7 +20970,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -21057,7 +21009,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -21092,13 +21044,11 @@
         <v>-35740145.84263964</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
-      </c>
-      <c r="I625" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -21133,13 +21083,11 @@
         <v>-35816022.51293964</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
-      </c>
-      <c r="I626" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -21174,13 +21122,11 @@
         <v>-35816012.51293964</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
-      </c>
-      <c r="I627" t="n">
-        <v>11.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -21215,13 +21161,11 @@
         <v>-35791860.96863964</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
-      </c>
-      <c r="I628" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -21256,13 +21200,11 @@
         <v>-35832376.69203964</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
-      </c>
-      <c r="I629" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -21301,7 +21243,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -21340,7 +21282,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -21379,7 +21321,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -21418,7 +21360,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -21457,7 +21399,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -21496,7 +21438,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -21535,7 +21477,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -21574,7 +21516,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -21613,7 +21555,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -21652,7 +21594,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -21691,7 +21633,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -21726,13 +21668,11 @@
         <v>-35544933.88333964</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
-      </c>
-      <c r="I641" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -21771,7 +21711,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -21810,7 +21750,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -21849,7 +21789,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -21884,13 +21824,11 @@
         <v>-35545053.88333964</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
-      </c>
-      <c r="I645" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -21929,7 +21867,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -21968,7 +21906,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -22007,7 +21945,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -22042,13 +21980,11 @@
         <v>-35519258.41923964</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
-      </c>
-      <c r="I649" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -22083,13 +22019,11 @@
         <v>-35519258.41923964</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
-      </c>
-      <c r="I650" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -22124,13 +22058,11 @@
         <v>-35519258.41923964</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
-      </c>
-      <c r="I651" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -22169,7 +22101,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -22208,7 +22140,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -22247,7 +22179,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -22286,7 +22218,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -22325,7 +22257,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -22364,7 +22296,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -22399,13 +22331,11 @@
         <v>-35563673.39753965</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
-      </c>
-      <c r="I658" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -22444,7 +22374,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -22479,13 +22409,11 @@
         <v>-35563673.39753965</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
-      </c>
-      <c r="I660" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -22524,7 +22452,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -22563,7 +22491,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -22602,7 +22530,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -22641,7 +22569,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -22676,13 +22604,11 @@
         <v>-35563673.39753965</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
-      </c>
-      <c r="I665" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -22717,13 +22643,11 @@
         <v>-35563673.39753965</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
-      </c>
-      <c r="I666" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -22758,13 +22682,11 @@
         <v>-35982189.53843965</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
-      </c>
-      <c r="I667" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -22799,13 +22721,11 @@
         <v>-35982189.53843965</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
-      </c>
-      <c r="I668" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -22840,13 +22760,11 @@
         <v>-35982189.53843965</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
-      </c>
-      <c r="I669" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -22881,13 +22799,11 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
-      </c>
-      <c r="I670" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -22922,13 +22838,11 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
-      </c>
-      <c r="I671" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
       <c r="J671" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -22963,13 +22877,11 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
-      </c>
-      <c r="I672" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -23004,13 +22916,11 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
-      </c>
-      <c r="I673" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -23045,13 +22955,11 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
-      </c>
-      <c r="I674" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -23086,13 +22994,11 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
-      </c>
-      <c r="I675" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -23127,13 +23033,11 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
-      </c>
-      <c r="I676" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -23168,13 +23072,11 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
-      </c>
-      <c r="I677" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -23209,13 +23111,11 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
-      </c>
-      <c r="I678" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -23250,13 +23150,11 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
-      </c>
-      <c r="I679" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -23291,13 +23189,11 @@
         <v>-35982169.53843965</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
-      </c>
-      <c r="I680" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -23332,13 +23228,11 @@
         <v>-36395693.27743965</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
-      </c>
-      <c r="I681" t="n">
-        <v>11.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -23373,13 +23267,11 @@
         <v>-36395693.27743965</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
-      </c>
-      <c r="I682" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -23414,13 +23306,11 @@
         <v>-36140726.13663965</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
-      </c>
-      <c r="I683" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -23455,13 +23345,11 @@
         <v>-36140736.13663965</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
-      </c>
-      <c r="I684" t="n">
-        <v>11.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -23496,13 +23384,11 @@
         <v>-36187077.57983965</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
-      </c>
-      <c r="I685" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -23537,13 +23423,11 @@
         <v>-36161583.68603965</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
-      </c>
-      <c r="I686" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -23578,13 +23462,11 @@
         <v>-36161583.68603965</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
-      </c>
-      <c r="I687" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -23619,13 +23501,11 @@
         <v>-36161583.68603965</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
-      </c>
-      <c r="I688" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
       <c r="J688" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -23660,13 +23540,11 @@
         <v>-36161583.68603965</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
-      </c>
-      <c r="I689" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
       <c r="J689" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -23701,13 +23579,11 @@
         <v>-36161583.68603965</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
-      </c>
-      <c r="I690" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
       <c r="J690" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -23742,13 +23618,11 @@
         <v>-38298839.28453965</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
-      </c>
-      <c r="I691" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
       <c r="J691" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -23783,13 +23657,11 @@
         <v>-38292813.33863965</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
-      </c>
-      <c r="I692" t="n">
-        <v>11.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
       <c r="J692" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -23824,13 +23696,11 @@
         <v>-40084698.33863965</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
-      </c>
-      <c r="I693" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
       <c r="J693" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -23869,7 +23739,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -23908,7 +23778,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -23947,7 +23817,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -23986,7 +23856,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -24025,7 +23895,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -24060,13 +23930,11 @@
         <v>-43054078.72963965</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
-      </c>
-      <c r="I699" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
       <c r="J699" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -24105,7 +23973,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -24144,7 +24012,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -24179,11 +24047,13 @@
         <v>-43054078.72963965</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>11</v>
+      </c>
       <c r="J702" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -24218,13 +24088,13 @@
         <v>-43054078.72963965</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I703" t="n">
         <v>11</v>
       </c>
       <c r="J703" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -24259,11 +24129,13 @@
         <v>-43054078.72963965</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>11</v>
+      </c>
       <c r="J704" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -24298,11 +24170,13 @@
         <v>-43103689.17593965</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>11</v>
+      </c>
       <c r="J705" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -24337,11 +24211,13 @@
         <v>-43103689.17593965</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>10.9</v>
+      </c>
       <c r="J706" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -24376,13 +24252,11 @@
         <v>-44420523.78763965</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
-      </c>
-      <c r="I707" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
       <c r="J707" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -24417,13 +24291,11 @@
         <v>-44420523.78763965</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
-      </c>
-      <c r="I708" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
       <c r="J708" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -24462,7 +24334,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -24497,13 +24369,11 @@
         <v>-44420523.78763965</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
-      </c>
-      <c r="I710" t="n">
-        <v>10.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
       <c r="J710" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -24538,13 +24408,13 @@
         <v>-43818206.44823965</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I711" t="n">
         <v>10.8</v>
       </c>
       <c r="J711" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -24583,7 +24453,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -24618,13 +24488,13 @@
         <v>-43818206.44823965</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I713" t="n">
         <v>10.9</v>
       </c>
       <c r="J713" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -24659,13 +24529,13 @@
         <v>-43818206.44823965</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I714" t="n">
         <v>10.9</v>
       </c>
       <c r="J714" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -24700,13 +24570,13 @@
         <v>-44663002.94563965</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I715" t="n">
         <v>10.9</v>
       </c>
       <c r="J715" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -24741,11 +24611,13 @@
         <v>-44663002.94563965</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>10.8</v>
+      </c>
       <c r="J716" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -24784,7 +24656,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -24823,7 +24695,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -24862,7 +24734,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -24897,11 +24769,13 @@
         <v>-44663002.94563965</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>10.8</v>
+      </c>
       <c r="J720" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -24940,7 +24814,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -24975,11 +24849,13 @@
         <v>-44663002.94563965</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>10.8</v>
+      </c>
       <c r="J722" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -25018,7 +24894,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -25053,11 +24929,13 @@
         <v>-44727789.92843965</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>10.9</v>
+      </c>
       <c r="J724" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K724" t="inlineStr">
         <is>
@@ -25096,7 +24974,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -25135,7 +25013,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -25174,7 +25052,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
@@ -25213,7 +25091,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K728" t="inlineStr">
         <is>
@@ -25252,7 +25130,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K729" t="inlineStr">
         <is>
@@ -25291,7 +25169,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K730" t="inlineStr">
         <is>
@@ -25330,7 +25208,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K731" t="inlineStr">
         <is>
@@ -25369,7 +25247,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K732" t="inlineStr">
         <is>
@@ -25408,7 +25286,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K733" t="inlineStr">
         <is>
@@ -25447,7 +25325,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K734" t="inlineStr">
         <is>
@@ -25486,7 +25364,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K735" t="inlineStr">
         <is>
@@ -25525,7 +25403,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K736" t="inlineStr">
         <is>
@@ -25564,7 +25442,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -25603,7 +25481,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K738" t="inlineStr">
         <is>
@@ -25642,7 +25520,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K739" t="inlineStr">
         <is>
@@ -25681,7 +25559,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K740" t="inlineStr">
         <is>
@@ -25720,7 +25598,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -25759,7 +25637,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -25798,7 +25676,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
@@ -25837,7 +25715,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K744" t="inlineStr">
         <is>
@@ -25876,7 +25754,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K745" t="inlineStr">
         <is>
@@ -25915,7 +25793,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K746" t="inlineStr">
         <is>
@@ -25954,7 +25832,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K747" t="inlineStr">
         <is>
@@ -25993,7 +25871,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K748" t="inlineStr">
         <is>
@@ -26032,7 +25910,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K749" t="inlineStr">
         <is>
@@ -26067,13 +25945,11 @@
         <v>-43731805.94703964</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
-      </c>
-      <c r="I750" t="n">
-        <v>11.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
       <c r="J750" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K750" t="inlineStr">
         <is>
@@ -26112,7 +25988,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K751" t="inlineStr">
         <is>
@@ -26147,13 +26023,11 @@
         <v>-43955803.94693964</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
-      </c>
-      <c r="I752" t="n">
-        <v>11.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
       <c r="J752" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K752" t="inlineStr">
         <is>
@@ -26188,13 +26062,11 @@
         <v>-43955803.94693964</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
-      </c>
-      <c r="I753" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
       <c r="J753" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K753" t="inlineStr">
         <is>
@@ -26229,13 +26101,11 @@
         <v>-43955803.94693964</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
-      </c>
-      <c r="I754" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
       <c r="J754" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K754" t="inlineStr">
         <is>
@@ -26270,13 +26140,11 @@
         <v>-43846729.35603964</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
-      </c>
-      <c r="I755" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
       <c r="J755" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K755" t="inlineStr">
         <is>
@@ -26311,13 +26179,11 @@
         <v>-43923295.08323964</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
-      </c>
-      <c r="I756" t="n">
-        <v>11.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
       <c r="J756" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K756" t="inlineStr">
         <is>
@@ -26352,13 +26218,11 @@
         <v>-43799839.81043965</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
-      </c>
-      <c r="I757" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
       <c r="J757" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K757" t="inlineStr">
         <is>
@@ -26397,7 +26261,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K758" t="inlineStr">
         <is>
@@ -26436,7 +26300,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K759" t="inlineStr">
         <is>
@@ -26475,7 +26339,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K760" t="inlineStr">
         <is>
@@ -26514,7 +26378,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K761" t="inlineStr">
         <is>
@@ -26549,13 +26413,11 @@
         <v>-43873193.72473964</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
-      </c>
-      <c r="I762" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
       <c r="J762" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K762" t="inlineStr">
         <is>
@@ -26590,13 +26452,11 @@
         <v>-44692554.19103964</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
-      </c>
-      <c r="I763" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
       <c r="J763" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K763" t="inlineStr">
         <is>
@@ -26631,13 +26491,11 @@
         <v>-44692544.19103964</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
-      </c>
-      <c r="I764" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
       <c r="J764" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K764" t="inlineStr">
         <is>
@@ -26672,13 +26530,11 @@
         <v>-44823864.27853964</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
-      </c>
-      <c r="I765" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
       <c r="J765" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K765" t="inlineStr">
         <is>
@@ -26713,13 +26569,11 @@
         <v>-44817365.35133965</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
-      </c>
-      <c r="I766" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
       <c r="J766" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K766" t="inlineStr">
         <is>
@@ -26754,13 +26608,11 @@
         <v>-44917375.35133965</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
-      </c>
-      <c r="I767" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
       <c r="J767" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K767" t="inlineStr">
         <is>
@@ -26795,13 +26647,11 @@
         <v>-44517375.35133965</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
-      </c>
-      <c r="I768" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
       <c r="J768" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K768" t="inlineStr">
         <is>
@@ -26836,13 +26686,11 @@
         <v>-44517375.35133965</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
-      </c>
-      <c r="I769" t="n">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
       <c r="J769" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="K769" t="inlineStr">
         <is>
@@ -26855,6 +26703,6 @@
       <c r="M769" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest MIX.xlsx
+++ b/BackTest/2019-10-19 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1738,7 +1738,7 @@
         <v>32971.61277731082</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-205417.5761226892</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-205406.5761226892</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-576078.0396226891</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1072270.264522689</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1072259.264522689</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-1220773.345022689</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-1154322.110522689</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-1154322.110522689</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1252724.724322689</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1252700.724322689</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-1844973.694691541</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-1844963.694691541</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-1847466.694691541</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-1847466.694691541</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-1847466.694691541</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-1847444.694691541</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-1847444.694691541</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1847444.694691541</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1847444.694691541</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-1847444.694691541</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1847444.694691541</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-1847444.694691541</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-2092738.195091541</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-1693168.827391541</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1693168.827391541</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-2212508.026491541</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-2212508.026491541</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-2212508.026491541</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-2202334.202591541</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-2436302.906791541</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-2427001.011191541</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-2427001.011191541</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-2427001.011191541</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-2469919.656191541</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-2469919.656191541</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-2469919.656191541</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-2469919.656191541</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-2460611.154991542</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-2560621.154991542</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-2560621.154991542</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-2560621.154991542</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-2560621.154991542</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-2560611.154991542</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-4022702.260291541</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-4022692.260291541</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-4022702.260291541</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-4022692.260291541</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-4727959.456891541</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-4727959.456891541</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-4669511.846591542</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-4669511.846591542</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-4669511.846591542</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-4669511.846591542</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-4869521.846591542</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-4869491.846591542</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-4869491.846591542</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-4869491.846591542</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-4869491.846591542</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-4869491.846591542</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-5598081.793391542</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-5598081.793391542</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-5336539.259891542</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-5412953.398491542</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-5433287.478191542</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-5433287.478191542</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-5943412.109391541</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-5856860.621791542</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-5856870.621791542</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-5856870.621791542</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-5856860.621791542</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-5856860.621791542</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-5856870.621791542</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-5856860.621791542</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-5856880.621791542</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-5759460.925191541</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-5759460.925191541</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-5736569.941591541</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-5895642.558891541</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-5895642.558891541</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-9393353.026191542</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-9393353.026191542</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-11261177.45179154</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-11198789.73899154</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-11033139.73899154</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-10990157.88329154</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-11100596.99339154</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-11100596.99339154</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-11100332.99339154</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-11130332.99339154</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-11130332.99339154</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-11064142.17209155</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-10897239.70169155</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-9590850.521091547</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-7660563.773791546</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-7660563.773791546</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-7824623.265804554</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-8307094.809604554</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-10165482.23170456</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-9913172.231704555</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-11915017.23170456</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-11915017.23170456</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-11915017.23170456</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-11914335.23170456</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-11915107.23170456</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-11915207.23170456</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-11915207.23170456</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-11907167.23170456</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-12132589.51960456</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-12166218.28720456</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-12166208.28720456</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-12166100.25420456</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-12264428.73920456</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-12239968.25720455</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-12265906.67040456</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-12265717.75040456</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-12306814.10990456</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-12306814.10990456</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-12306814.10990456</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-12258780.94330456</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-12254969.86830455</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-12254969.86830455</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-12462698.00110455</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-12451453.76283789</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-12451453.76283789</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-12451517.45073789</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-12451517.45073789</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-12626499.79963789</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-12626499.79963789</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-17857938.28853789</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-17777109.39253788</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-22236757.63473964</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-22198010.86953964</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-23866606.87183964</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-23866596.87183964</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-25866556.87183964</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-27065546.16133963</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-26108120.22723963</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-26108120.22723963</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-26542431.52633964</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-26558611.71923963</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-26480369.07013964</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-26570731.48103964</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-26570731.48103964</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-26570731.48103964</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-26693374.92363964</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-26454989.82623964</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-26472602.87433964</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-26472592.87433964</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-26472607.87433964</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-26472593.50463964</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-26466989.16373964</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-26466989.16373964</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-26466989.16373964</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-26466989.16373964</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-26466979.16373964</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-26476196.66373964</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-26476196.66373964</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-26286553.39993964</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-26698666.26943964</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-27640620.45913964</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-27640599.45913964</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-27640599.45913964</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-27847716.17393964</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-27847696.17393964</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-28077506.06223964</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-28077506.06223964</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-28077506.06223964</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-28077506.06223964</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-28077506.06223964</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-28957768.27073964</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-28957768.27073964</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-30284002.40053964</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-30284002.40053964</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-30284002.40053964</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-30990015.36143964</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-30990005.36143964</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-30990016.36143964</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-30990006.36143964</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-31036767.56753964</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-31031085.37463964</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-31031103.37463964</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-31031093.37463964</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-33031093.37463964</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-34791084.37463964</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-34721249.44173964</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-36521270.44173964</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20812,14 +20812,10 @@
         <v>-35578856.35623964</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="J619" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
@@ -20852,2471 +20848,2093 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
+      <c r="L620" t="n">
+        <v>1</v>
+      </c>
+      <c r="M620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="n">
         <v>11.2</v>
       </c>
-      <c r="K620" t="inlineStr">
+      <c r="C621" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D621" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E621" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F621" t="n">
+        <v>132936.6071</v>
+      </c>
+      <c r="G621" t="n">
+        <v>-35578856.35623964</v>
+      </c>
+      <c r="H621" t="n">
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
+      <c r="L621" t="n">
+        <v>1</v>
+      </c>
+      <c r="M621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C622" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D622" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E622" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F622" t="n">
+        <v>11046.3423</v>
+      </c>
+      <c r="G622" t="n">
+        <v>-35567810.01393964</v>
+      </c>
+      <c r="H622" t="n">
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
+      <c r="L622" t="n">
+        <v>1</v>
+      </c>
+      <c r="M622" t="inlineStr"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C623" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D623" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E623" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F623" t="n">
+        <v>29063.7124</v>
+      </c>
+      <c r="G623" t="n">
+        <v>-35567810.01393964</v>
+      </c>
+      <c r="H623" t="n">
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
+      <c r="L623" t="n">
+        <v>1</v>
+      </c>
+      <c r="M623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C624" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D624" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E624" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F624" t="n">
+        <v>172335.8287</v>
+      </c>
+      <c r="G624" t="n">
+        <v>-35740145.84263964</v>
+      </c>
+      <c r="H624" t="n">
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
+      <c r="L624" t="n">
+        <v>1</v>
+      </c>
+      <c r="M624" t="inlineStr"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C625" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D625" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E625" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F625" t="n">
+        <v>339355.9642</v>
+      </c>
+      <c r="G625" t="n">
+        <v>-35740145.84263964</v>
+      </c>
+      <c r="H625" t="n">
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
+      <c r="L625" t="n">
+        <v>1</v>
+      </c>
+      <c r="M625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C626" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D626" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E626" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F626" t="n">
+        <v>75876.6703</v>
+      </c>
+      <c r="G626" t="n">
+        <v>-35816022.51293964</v>
+      </c>
+      <c r="H626" t="n">
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
+      <c r="L626" t="n">
+        <v>1</v>
+      </c>
+      <c r="M626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C627" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D627" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E627" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F627" t="n">
+        <v>10</v>
+      </c>
+      <c r="G627" t="n">
+        <v>-35816012.51293964</v>
+      </c>
+      <c r="H627" t="n">
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
+      <c r="L627" t="n">
+        <v>1</v>
+      </c>
+      <c r="M627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C628" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D628" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E628" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F628" t="n">
+        <v>24151.5443</v>
+      </c>
+      <c r="G628" t="n">
+        <v>-35791860.96863964</v>
+      </c>
+      <c r="H628" t="n">
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
+      <c r="L628" t="n">
+        <v>1</v>
+      </c>
+      <c r="M628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C629" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D629" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E629" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F629" t="n">
+        <v>40515.7234</v>
+      </c>
+      <c r="G629" t="n">
+        <v>-35832376.69203964</v>
+      </c>
+      <c r="H629" t="n">
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
+      <c r="L629" t="n">
+        <v>1</v>
+      </c>
+      <c r="M629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C630" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D630" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E630" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F630" t="n">
+        <v>549799.9922</v>
+      </c>
+      <c r="G630" t="n">
+        <v>-35832376.69203964</v>
+      </c>
+      <c r="H630" t="n">
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
+      <c r="L630" t="n">
+        <v>1</v>
+      </c>
+      <c r="M630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C631" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D631" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E631" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F631" t="n">
+        <v>70343.6645</v>
+      </c>
+      <c r="G631" t="n">
+        <v>-35832376.69203964</v>
+      </c>
+      <c r="H631" t="n">
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
+      <c r="L631" t="n">
+        <v>1</v>
+      </c>
+      <c r="M631" t="inlineStr"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C632" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D632" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E632" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F632" t="n">
+        <v>23129.1319</v>
+      </c>
+      <c r="G632" t="n">
+        <v>-35832376.69203964</v>
+      </c>
+      <c r="H632" t="n">
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
+      <c r="L632" t="n">
+        <v>1</v>
+      </c>
+      <c r="M632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C633" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D633" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E633" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F633" t="n">
+        <v>10</v>
+      </c>
+      <c r="G633" t="n">
+        <v>-35832366.69203964</v>
+      </c>
+      <c r="H633" t="n">
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
+      <c r="L633" t="n">
+        <v>1</v>
+      </c>
+      <c r="M633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C634" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D634" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E634" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F634" t="n">
+        <v>134</v>
+      </c>
+      <c r="G634" t="n">
+        <v>-35832366.69203964</v>
+      </c>
+      <c r="H634" t="n">
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
+      <c r="L634" t="n">
+        <v>1</v>
+      </c>
+      <c r="M634" t="inlineStr"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C635" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D635" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E635" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F635" t="n">
+        <v>57368.8169</v>
+      </c>
+      <c r="G635" t="n">
+        <v>-35889735.50893964</v>
+      </c>
+      <c r="H635" t="n">
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
+      <c r="L635" t="n">
+        <v>1</v>
+      </c>
+      <c r="M635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C636" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D636" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E636" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F636" t="n">
+        <v>60290.1906</v>
+      </c>
+      <c r="G636" t="n">
+        <v>-35829445.31833964</v>
+      </c>
+      <c r="H636" t="n">
+        <v>2</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
+      <c r="L636" t="n">
+        <v>1</v>
+      </c>
+      <c r="M636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C637" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D637" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E637" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F637" t="n">
+        <v>27584.0778</v>
+      </c>
+      <c r="G637" t="n">
+        <v>-35829445.31833964</v>
+      </c>
+      <c r="H637" t="n">
+        <v>2</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
+      <c r="L637" t="n">
+        <v>1</v>
+      </c>
+      <c r="M637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C638" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D638" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E638" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F638" t="n">
+        <v>28245.2566</v>
+      </c>
+      <c r="G638" t="n">
+        <v>-35829445.31833964</v>
+      </c>
+      <c r="H638" t="n">
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
+      <c r="L638" t="n">
+        <v>1</v>
+      </c>
+      <c r="M638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C639" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D639" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E639" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F639" t="n">
+        <v>4380</v>
+      </c>
+      <c r="G639" t="n">
+        <v>-35833825.31833964</v>
+      </c>
+      <c r="H639" t="n">
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
+      <c r="L639" t="n">
+        <v>1</v>
+      </c>
+      <c r="M639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C640" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D640" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E640" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F640" t="n">
+        <v>320416.0482</v>
+      </c>
+      <c r="G640" t="n">
+        <v>-35513409.27013964</v>
+      </c>
+      <c r="H640" t="n">
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
+      <c r="L640" t="n">
+        <v>1</v>
+      </c>
+      <c r="M640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C641" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D641" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E641" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F641" t="n">
+        <v>31524.6132</v>
+      </c>
+      <c r="G641" t="n">
+        <v>-35544933.88333964</v>
+      </c>
+      <c r="H641" t="n">
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
+      <c r="L641" t="n">
+        <v>1</v>
+      </c>
+      <c r="M641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C642" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D642" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E642" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F642" t="n">
+        <v>10</v>
+      </c>
+      <c r="G642" t="n">
+        <v>-35544923.88333964</v>
+      </c>
+      <c r="H642" t="n">
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
+      <c r="L642" t="n">
+        <v>1</v>
+      </c>
+      <c r="M642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C643" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D643" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E643" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F643" t="n">
+        <v>23292.4194</v>
+      </c>
+      <c r="G643" t="n">
+        <v>-35544923.88333964</v>
+      </c>
+      <c r="H643" t="n">
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
+      <c r="L643" t="n">
+        <v>1</v>
+      </c>
+      <c r="M643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C644" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D644" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E644" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F644" t="n">
+        <v>130</v>
+      </c>
+      <c r="G644" t="n">
+        <v>-35545053.88333964</v>
+      </c>
+      <c r="H644" t="n">
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
+      <c r="L644" t="n">
+        <v>1</v>
+      </c>
+      <c r="M644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C645" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D645" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E645" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F645" t="n">
+        <v>13989.817</v>
+      </c>
+      <c r="G645" t="n">
+        <v>-35545053.88333964</v>
+      </c>
+      <c r="H645" t="n">
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
+      <c r="L645" t="n">
+        <v>1</v>
+      </c>
+      <c r="M645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C646" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D646" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E646" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F646" t="n">
+        <v>25850.5728</v>
+      </c>
+      <c r="G646" t="n">
+        <v>-35519203.31053964</v>
+      </c>
+      <c r="H646" t="n">
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
+      <c r="L646" t="n">
+        <v>1</v>
+      </c>
+      <c r="M646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C647" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D647" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E647" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F647" t="n">
+        <v>85.1087</v>
+      </c>
+      <c r="G647" t="n">
+        <v>-35519288.41923964</v>
+      </c>
+      <c r="H647" t="n">
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
+      <c r="L647" t="n">
+        <v>1</v>
+      </c>
+      <c r="M647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C648" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D648" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E648" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F648" t="n">
+        <v>30</v>
+      </c>
+      <c r="G648" t="n">
+        <v>-35519258.41923964</v>
+      </c>
+      <c r="H648" t="n">
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
+      <c r="L648" t="n">
+        <v>1</v>
+      </c>
+      <c r="M648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C649" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D649" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E649" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F649" t="n">
+        <v>184088.7544</v>
+      </c>
+      <c r="G649" t="n">
+        <v>-35519258.41923964</v>
+      </c>
+      <c r="H649" t="n">
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
+      <c r="L649" t="n">
+        <v>1</v>
+      </c>
+      <c r="M649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C650" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D650" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E650" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F650" t="n">
+        <v>129577.0429</v>
+      </c>
+      <c r="G650" t="n">
+        <v>-35519258.41923964</v>
+      </c>
+      <c r="H650" t="n">
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
+      <c r="L650" t="n">
+        <v>1</v>
+      </c>
+      <c r="M650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C651" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D651" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E651" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F651" t="n">
+        <v>28293.9203</v>
+      </c>
+      <c r="G651" t="n">
+        <v>-35519258.41923964</v>
+      </c>
+      <c r="H651" t="n">
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
+      <c r="L651" t="n">
+        <v>1</v>
+      </c>
+      <c r="M651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C652" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D652" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E652" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F652" t="n">
+        <v>36432.8317</v>
+      </c>
+      <c r="G652" t="n">
+        <v>-35482825.58753964</v>
+      </c>
+      <c r="H652" t="n">
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
+      <c r="L652" t="n">
+        <v>1</v>
+      </c>
+      <c r="M652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C653" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D653" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E653" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F653" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G653" t="n">
+        <v>-35582825.58753964</v>
+      </c>
+      <c r="H653" t="n">
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
+      <c r="L653" t="n">
+        <v>1</v>
+      </c>
+      <c r="M653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C654" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D654" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E654" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F654" t="n">
+        <v>115010</v>
+      </c>
+      <c r="G654" t="n">
+        <v>-35582825.58753964</v>
+      </c>
+      <c r="H654" t="n">
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
+      <c r="L654" t="n">
+        <v>1</v>
+      </c>
+      <c r="M654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C655" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D655" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E655" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F655" t="n">
+        <v>25020</v>
+      </c>
+      <c r="G655" t="n">
+        <v>-35557805.58753964</v>
+      </c>
+      <c r="H655" t="n">
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
+      <c r="L655" t="n">
+        <v>1</v>
+      </c>
+      <c r="M655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C656" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D656" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E656" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F656" t="n">
+        <v>20</v>
+      </c>
+      <c r="G656" t="n">
+        <v>-35557805.58753964</v>
+      </c>
+      <c r="H656" t="n">
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
+      <c r="L656" t="n">
+        <v>1</v>
+      </c>
+      <c r="M656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C657" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D657" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E657" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F657" t="n">
+        <v>5867.81</v>
+      </c>
+      <c r="G657" t="n">
+        <v>-35563673.39753965</v>
+      </c>
+      <c r="H657" t="n">
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
+      <c r="L657" t="n">
+        <v>1</v>
+      </c>
+      <c r="M657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C658" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D658" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E658" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F658" t="n">
+        <v>245029.2035</v>
+      </c>
+      <c r="G658" t="n">
+        <v>-35563673.39753965</v>
+      </c>
+      <c r="H658" t="n">
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
+      <c r="L658" t="n">
+        <v>1</v>
+      </c>
+      <c r="M658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C659" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D659" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E659" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F659" t="n">
+        <v>141920.0654</v>
+      </c>
+      <c r="G659" t="n">
+        <v>-35563673.39753965</v>
+      </c>
+      <c r="H659" t="n">
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
+      <c r="L659" t="n">
+        <v>1</v>
+      </c>
+      <c r="M659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C660" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D660" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E660" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F660" t="n">
+        <v>25493.8938</v>
+      </c>
+      <c r="G660" t="n">
+        <v>-35563673.39753965</v>
+      </c>
+      <c r="H660" t="n">
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
+      <c r="L660" t="n">
+        <v>1</v>
+      </c>
+      <c r="M660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C661" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D661" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E661" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F661" t="n">
+        <v>26548.508</v>
+      </c>
+      <c r="G661" t="n">
+        <v>-35563673.39753965</v>
+      </c>
+      <c r="H661" t="n">
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
+      <c r="L661" t="n">
+        <v>1</v>
+      </c>
+      <c r="M661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C662" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D662" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E662" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F662" t="n">
+        <v>10</v>
+      </c>
+      <c r="G662" t="n">
+        <v>-35563683.39753965</v>
+      </c>
+      <c r="H662" t="n">
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
+      <c r="L662" t="n">
+        <v>1</v>
+      </c>
+      <c r="M662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C663" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D663" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E663" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F663" t="n">
+        <v>10</v>
+      </c>
+      <c r="G663" t="n">
+        <v>-35563673.39753965</v>
+      </c>
+      <c r="H663" t="n">
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
+      <c r="L663" t="n">
+        <v>1</v>
+      </c>
+      <c r="M663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C664" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D664" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E664" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F664" t="n">
+        <v>10</v>
+      </c>
+      <c r="G664" t="n">
+        <v>-35563683.39753965</v>
+      </c>
+      <c r="H664" t="n">
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
+      <c r="L664" t="n">
+        <v>1</v>
+      </c>
+      <c r="M664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C665" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D665" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E665" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F665" t="n">
+        <v>10</v>
+      </c>
+      <c r="G665" t="n">
+        <v>-35563673.39753965</v>
+      </c>
+      <c r="H665" t="n">
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
+      <c r="L665" t="n">
+        <v>1</v>
+      </c>
+      <c r="M665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C666" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D666" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E666" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F666" t="n">
+        <v>636434.4087</v>
+      </c>
+      <c r="G666" t="n">
+        <v>-35563673.39753965</v>
+      </c>
+      <c r="H666" t="n">
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
+      <c r="L666" t="n">
+        <v>1</v>
+      </c>
+      <c r="M666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C667" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D667" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E667" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F667" t="n">
+        <v>418516.1409</v>
+      </c>
+      <c r="G667" t="n">
+        <v>-35982189.53843965</v>
+      </c>
+      <c r="H667" t="n">
+        <v>2</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
+      <c r="L667" t="n">
+        <v>1</v>
+      </c>
+      <c r="M667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C668" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D668" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E668" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F668" t="n">
+        <v>43832.507</v>
+      </c>
+      <c r="G668" t="n">
+        <v>-35982189.53843965</v>
+      </c>
+      <c r="H668" t="n">
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
+      <c r="L668" t="n">
+        <v>1</v>
+      </c>
+      <c r="M668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C669" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D669" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E669" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F669" t="n">
+        <v>220559.4916</v>
+      </c>
+      <c r="G669" t="n">
+        <v>-35982189.53843965</v>
+      </c>
+      <c r="H669" t="n">
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
+      <c r="L669" t="n">
+        <v>1</v>
+      </c>
+      <c r="M669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C670" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D670" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E670" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F670" t="n">
+        <v>10</v>
+      </c>
+      <c r="G670" t="n">
+        <v>-35982179.53843965</v>
+      </c>
+      <c r="H670" t="n">
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
+      <c r="L670" t="n">
+        <v>1</v>
+      </c>
+      <c r="M670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C671" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D671" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E671" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F671" t="n">
+        <v>188.4069</v>
+      </c>
+      <c r="G671" t="n">
+        <v>-35982179.53843965</v>
+      </c>
+      <c r="H671" t="n">
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
+      <c r="L671" t="n">
+        <v>1</v>
+      </c>
+      <c r="M671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C672" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D672" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E672" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F672" t="n">
+        <v>68374.292</v>
+      </c>
+      <c r="G672" t="n">
+        <v>-35982179.53843965</v>
+      </c>
+      <c r="H672" t="n">
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
+      <c r="L672" t="n">
+        <v>1</v>
+      </c>
+      <c r="M672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C673" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D673" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E673" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F673" t="n">
+        <v>5453.3628</v>
+      </c>
+      <c r="G673" t="n">
+        <v>-35982179.53843965</v>
+      </c>
+      <c r="H673" t="n">
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
+      <c r="L673" t="n">
+        <v>1</v>
+      </c>
+      <c r="M673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C674" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D674" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E674" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F674" t="n">
+        <v>24.5132</v>
+      </c>
+      <c r="G674" t="n">
+        <v>-35982179.53843965</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
+      <c r="L674" t="n">
+        <v>1</v>
+      </c>
+      <c r="M674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C675" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D675" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E675" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F675" t="n">
+        <v>62272.6548</v>
+      </c>
+      <c r="G675" t="n">
+        <v>-35982179.53843965</v>
+      </c>
+      <c r="H675" t="n">
+        <v>2</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
+      <c r="L675" t="n">
+        <v>1</v>
+      </c>
+      <c r="M675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C676" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D676" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E676" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F676" t="n">
+        <v>2420.0884</v>
+      </c>
+      <c r="G676" t="n">
+        <v>-35982179.53843965</v>
+      </c>
+      <c r="H676" t="n">
+        <v>2</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
+      <c r="L676" t="n">
+        <v>1</v>
+      </c>
+      <c r="M676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C677" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D677" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E677" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F677" t="n">
+        <v>34843.8053</v>
+      </c>
+      <c r="G677" t="n">
+        <v>-35982179.53843965</v>
+      </c>
+      <c r="H677" t="n">
+        <v>2</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
+      <c r="L677" t="n">
+        <v>1</v>
+      </c>
+      <c r="M677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C678" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D678" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E678" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F678" t="n">
+        <v>185865.2809</v>
+      </c>
+      <c r="G678" t="n">
+        <v>-35982179.53843965</v>
+      </c>
+      <c r="H678" t="n">
+        <v>2</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
+      <c r="L678" t="n">
+        <v>1</v>
+      </c>
+      <c r="M678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C679" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D679" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E679" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F679" t="n">
+        <v>31271.2881</v>
+      </c>
+      <c r="G679" t="n">
+        <v>-35982179.53843965</v>
+      </c>
+      <c r="H679" t="n">
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
+      <c r="L679" t="n">
+        <v>1</v>
+      </c>
+      <c r="M679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C680" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D680" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E680" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F680" t="n">
+        <v>10</v>
+      </c>
+      <c r="G680" t="n">
+        <v>-35982169.53843965</v>
+      </c>
+      <c r="H680" t="n">
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
+      <c r="L680" t="n">
+        <v>1</v>
+      </c>
+      <c r="M680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C681" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D681" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E681" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F681" t="n">
+        <v>413523.739</v>
+      </c>
+      <c r="G681" t="n">
+        <v>-36395693.27743965</v>
+      </c>
+      <c r="H681" t="n">
+        <v>2</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
+      <c r="L681" t="n">
+        <v>1</v>
+      </c>
+      <c r="M681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C682" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D682" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E682" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F682" t="n">
+        <v>20</v>
+      </c>
+      <c r="G682" t="n">
+        <v>-36395693.27743965</v>
+      </c>
+      <c r="H682" t="n">
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
+      <c r="L682" t="n">
+        <v>1</v>
+      </c>
+      <c r="M682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C683" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D683" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E683" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F683" t="n">
+        <v>254967.1408</v>
+      </c>
+      <c r="G683" t="n">
+        <v>-36140726.13663965</v>
+      </c>
+      <c r="H683" t="n">
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L620" t="n">
-        <v>1</v>
-      </c>
-      <c r="M620" t="inlineStr"/>
-    </row>
-    <row r="621">
-      <c r="A621" s="1" t="n">
-        <v>619</v>
-      </c>
-      <c r="B621" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C621" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D621" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E621" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F621" t="n">
-        <v>132936.6071</v>
-      </c>
-      <c r="G621" t="n">
-        <v>-35578856.35623964</v>
-      </c>
-      <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L621" t="n">
-        <v>1</v>
-      </c>
-      <c r="M621" t="inlineStr"/>
-    </row>
-    <row r="622">
-      <c r="A622" s="1" t="n">
-        <v>620</v>
-      </c>
-      <c r="B622" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C622" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D622" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E622" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F622" t="n">
-        <v>11046.3423</v>
-      </c>
-      <c r="G622" t="n">
-        <v>-35567810.01393964</v>
-      </c>
-      <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L622" t="n">
-        <v>1</v>
-      </c>
-      <c r="M622" t="inlineStr"/>
-    </row>
-    <row r="623">
-      <c r="A623" s="1" t="n">
-        <v>621</v>
-      </c>
-      <c r="B623" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C623" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D623" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E623" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F623" t="n">
-        <v>29063.7124</v>
-      </c>
-      <c r="G623" t="n">
-        <v>-35567810.01393964</v>
-      </c>
-      <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L623" t="n">
-        <v>1</v>
-      </c>
-      <c r="M623" t="inlineStr"/>
-    </row>
-    <row r="624">
-      <c r="A624" s="1" t="n">
-        <v>622</v>
-      </c>
-      <c r="B624" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C624" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D624" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E624" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F624" t="n">
-        <v>172335.8287</v>
-      </c>
-      <c r="G624" t="n">
-        <v>-35740145.84263964</v>
-      </c>
-      <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L624" t="n">
-        <v>1</v>
-      </c>
-      <c r="M624" t="inlineStr"/>
-    </row>
-    <row r="625">
-      <c r="A625" s="1" t="n">
-        <v>623</v>
-      </c>
-      <c r="B625" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C625" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D625" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E625" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F625" t="n">
-        <v>339355.9642</v>
-      </c>
-      <c r="G625" t="n">
-        <v>-35740145.84263964</v>
-      </c>
-      <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L625" t="n">
-        <v>1</v>
-      </c>
-      <c r="M625" t="inlineStr"/>
-    </row>
-    <row r="626">
-      <c r="A626" s="1" t="n">
-        <v>624</v>
-      </c>
-      <c r="B626" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C626" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D626" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E626" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F626" t="n">
-        <v>75876.6703</v>
-      </c>
-      <c r="G626" t="n">
-        <v>-35816022.51293964</v>
-      </c>
-      <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L626" t="n">
-        <v>1</v>
-      </c>
-      <c r="M626" t="inlineStr"/>
-    </row>
-    <row r="627">
-      <c r="A627" s="1" t="n">
-        <v>625</v>
-      </c>
-      <c r="B627" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C627" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D627" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E627" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F627" t="n">
-        <v>10</v>
-      </c>
-      <c r="G627" t="n">
-        <v>-35816012.51293964</v>
-      </c>
-      <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L627" t="n">
-        <v>1</v>
-      </c>
-      <c r="M627" t="inlineStr"/>
-    </row>
-    <row r="628">
-      <c r="A628" s="1" t="n">
-        <v>626</v>
-      </c>
-      <c r="B628" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C628" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D628" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E628" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F628" t="n">
-        <v>24151.5443</v>
-      </c>
-      <c r="G628" t="n">
-        <v>-35791860.96863964</v>
-      </c>
-      <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L628" t="n">
-        <v>1</v>
-      </c>
-      <c r="M628" t="inlineStr"/>
-    </row>
-    <row r="629">
-      <c r="A629" s="1" t="n">
-        <v>627</v>
-      </c>
-      <c r="B629" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C629" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D629" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E629" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F629" t="n">
-        <v>40515.7234</v>
-      </c>
-      <c r="G629" t="n">
-        <v>-35832376.69203964</v>
-      </c>
-      <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L629" t="n">
-        <v>1</v>
-      </c>
-      <c r="M629" t="inlineStr"/>
-    </row>
-    <row r="630">
-      <c r="A630" s="1" t="n">
-        <v>628</v>
-      </c>
-      <c r="B630" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C630" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D630" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E630" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F630" t="n">
-        <v>549799.9922</v>
-      </c>
-      <c r="G630" t="n">
-        <v>-35832376.69203964</v>
-      </c>
-      <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L630" t="n">
-        <v>1</v>
-      </c>
-      <c r="M630" t="inlineStr"/>
-    </row>
-    <row r="631">
-      <c r="A631" s="1" t="n">
-        <v>629</v>
-      </c>
-      <c r="B631" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C631" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D631" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E631" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F631" t="n">
-        <v>70343.6645</v>
-      </c>
-      <c r="G631" t="n">
-        <v>-35832376.69203964</v>
-      </c>
-      <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L631" t="n">
-        <v>1</v>
-      </c>
-      <c r="M631" t="inlineStr"/>
-    </row>
-    <row r="632">
-      <c r="A632" s="1" t="n">
-        <v>630</v>
-      </c>
-      <c r="B632" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C632" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D632" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E632" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F632" t="n">
-        <v>23129.1319</v>
-      </c>
-      <c r="G632" t="n">
-        <v>-35832376.69203964</v>
-      </c>
-      <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L632" t="n">
-        <v>1</v>
-      </c>
-      <c r="M632" t="inlineStr"/>
-    </row>
-    <row r="633">
-      <c r="A633" s="1" t="n">
-        <v>631</v>
-      </c>
-      <c r="B633" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C633" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D633" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E633" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F633" t="n">
-        <v>10</v>
-      </c>
-      <c r="G633" t="n">
-        <v>-35832366.69203964</v>
-      </c>
-      <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L633" t="n">
-        <v>1</v>
-      </c>
-      <c r="M633" t="inlineStr"/>
-    </row>
-    <row r="634">
-      <c r="A634" s="1" t="n">
-        <v>632</v>
-      </c>
-      <c r="B634" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C634" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D634" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E634" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F634" t="n">
-        <v>134</v>
-      </c>
-      <c r="G634" t="n">
-        <v>-35832366.69203964</v>
-      </c>
-      <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L634" t="n">
-        <v>1</v>
-      </c>
-      <c r="M634" t="inlineStr"/>
-    </row>
-    <row r="635">
-      <c r="A635" s="1" t="n">
-        <v>633</v>
-      </c>
-      <c r="B635" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C635" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D635" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E635" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F635" t="n">
-        <v>57368.8169</v>
-      </c>
-      <c r="G635" t="n">
-        <v>-35889735.50893964</v>
-      </c>
-      <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L635" t="n">
-        <v>1</v>
-      </c>
-      <c r="M635" t="inlineStr"/>
-    </row>
-    <row r="636">
-      <c r="A636" s="1" t="n">
-        <v>634</v>
-      </c>
-      <c r="B636" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C636" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D636" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E636" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F636" t="n">
-        <v>60290.1906</v>
-      </c>
-      <c r="G636" t="n">
-        <v>-35829445.31833964</v>
-      </c>
-      <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L636" t="n">
-        <v>1</v>
-      </c>
-      <c r="M636" t="inlineStr"/>
-    </row>
-    <row r="637">
-      <c r="A637" s="1" t="n">
-        <v>635</v>
-      </c>
-      <c r="B637" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C637" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D637" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E637" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F637" t="n">
-        <v>27584.0778</v>
-      </c>
-      <c r="G637" t="n">
-        <v>-35829445.31833964</v>
-      </c>
-      <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L637" t="n">
-        <v>1</v>
-      </c>
-      <c r="M637" t="inlineStr"/>
-    </row>
-    <row r="638">
-      <c r="A638" s="1" t="n">
-        <v>636</v>
-      </c>
-      <c r="B638" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C638" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D638" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E638" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F638" t="n">
-        <v>28245.2566</v>
-      </c>
-      <c r="G638" t="n">
-        <v>-35829445.31833964</v>
-      </c>
-      <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L638" t="n">
-        <v>1</v>
-      </c>
-      <c r="M638" t="inlineStr"/>
-    </row>
-    <row r="639">
-      <c r="A639" s="1" t="n">
-        <v>637</v>
-      </c>
-      <c r="B639" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C639" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D639" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E639" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F639" t="n">
-        <v>4380</v>
-      </c>
-      <c r="G639" t="n">
-        <v>-35833825.31833964</v>
-      </c>
-      <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L639" t="n">
-        <v>1</v>
-      </c>
-      <c r="M639" t="inlineStr"/>
-    </row>
-    <row r="640">
-      <c r="A640" s="1" t="n">
-        <v>638</v>
-      </c>
-      <c r="B640" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C640" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D640" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E640" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F640" t="n">
-        <v>320416.0482</v>
-      </c>
-      <c r="G640" t="n">
-        <v>-35513409.27013964</v>
-      </c>
-      <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L640" t="n">
-        <v>1</v>
-      </c>
-      <c r="M640" t="inlineStr"/>
-    </row>
-    <row r="641">
-      <c r="A641" s="1" t="n">
-        <v>639</v>
-      </c>
-      <c r="B641" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C641" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D641" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E641" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F641" t="n">
-        <v>31524.6132</v>
-      </c>
-      <c r="G641" t="n">
-        <v>-35544933.88333964</v>
-      </c>
-      <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L641" t="n">
-        <v>1</v>
-      </c>
-      <c r="M641" t="inlineStr"/>
-    </row>
-    <row r="642">
-      <c r="A642" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="B642" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C642" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D642" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E642" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F642" t="n">
-        <v>10</v>
-      </c>
-      <c r="G642" t="n">
-        <v>-35544923.88333964</v>
-      </c>
-      <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L642" t="n">
-        <v>1</v>
-      </c>
-      <c r="M642" t="inlineStr"/>
-    </row>
-    <row r="643">
-      <c r="A643" s="1" t="n">
-        <v>641</v>
-      </c>
-      <c r="B643" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C643" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D643" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E643" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F643" t="n">
-        <v>23292.4194</v>
-      </c>
-      <c r="G643" t="n">
-        <v>-35544923.88333964</v>
-      </c>
-      <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L643" t="n">
-        <v>1</v>
-      </c>
-      <c r="M643" t="inlineStr"/>
-    </row>
-    <row r="644">
-      <c r="A644" s="1" t="n">
-        <v>642</v>
-      </c>
-      <c r="B644" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C644" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D644" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E644" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F644" t="n">
-        <v>130</v>
-      </c>
-      <c r="G644" t="n">
-        <v>-35545053.88333964</v>
-      </c>
-      <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L644" t="n">
-        <v>1</v>
-      </c>
-      <c r="M644" t="inlineStr"/>
-    </row>
-    <row r="645">
-      <c r="A645" s="1" t="n">
-        <v>643</v>
-      </c>
-      <c r="B645" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C645" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D645" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E645" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F645" t="n">
-        <v>13989.817</v>
-      </c>
-      <c r="G645" t="n">
-        <v>-35545053.88333964</v>
-      </c>
-      <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L645" t="n">
-        <v>1</v>
-      </c>
-      <c r="M645" t="inlineStr"/>
-    </row>
-    <row r="646">
-      <c r="A646" s="1" t="n">
-        <v>644</v>
-      </c>
-      <c r="B646" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C646" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D646" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E646" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F646" t="n">
-        <v>25850.5728</v>
-      </c>
-      <c r="G646" t="n">
-        <v>-35519203.31053964</v>
-      </c>
-      <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L646" t="n">
-        <v>1</v>
-      </c>
-      <c r="M646" t="inlineStr"/>
-    </row>
-    <row r="647">
-      <c r="A647" s="1" t="n">
-        <v>645</v>
-      </c>
-      <c r="B647" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C647" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D647" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E647" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F647" t="n">
-        <v>85.1087</v>
-      </c>
-      <c r="G647" t="n">
-        <v>-35519288.41923964</v>
-      </c>
-      <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L647" t="n">
-        <v>1</v>
-      </c>
-      <c r="M647" t="inlineStr"/>
-    </row>
-    <row r="648">
-      <c r="A648" s="1" t="n">
-        <v>646</v>
-      </c>
-      <c r="B648" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C648" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D648" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E648" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F648" t="n">
-        <v>30</v>
-      </c>
-      <c r="G648" t="n">
-        <v>-35519258.41923964</v>
-      </c>
-      <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L648" t="n">
-        <v>1</v>
-      </c>
-      <c r="M648" t="inlineStr"/>
-    </row>
-    <row r="649">
-      <c r="A649" s="1" t="n">
-        <v>647</v>
-      </c>
-      <c r="B649" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C649" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D649" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E649" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F649" t="n">
-        <v>184088.7544</v>
-      </c>
-      <c r="G649" t="n">
-        <v>-35519258.41923964</v>
-      </c>
-      <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L649" t="n">
-        <v>1</v>
-      </c>
-      <c r="M649" t="inlineStr"/>
-    </row>
-    <row r="650">
-      <c r="A650" s="1" t="n">
-        <v>648</v>
-      </c>
-      <c r="B650" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C650" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D650" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E650" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F650" t="n">
-        <v>129577.0429</v>
-      </c>
-      <c r="G650" t="n">
-        <v>-35519258.41923964</v>
-      </c>
-      <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L650" t="n">
-        <v>1</v>
-      </c>
-      <c r="M650" t="inlineStr"/>
-    </row>
-    <row r="651">
-      <c r="A651" s="1" t="n">
-        <v>649</v>
-      </c>
-      <c r="B651" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C651" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D651" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E651" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F651" t="n">
-        <v>28293.9203</v>
-      </c>
-      <c r="G651" t="n">
-        <v>-35519258.41923964</v>
-      </c>
-      <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L651" t="n">
-        <v>1</v>
-      </c>
-      <c r="M651" t="inlineStr"/>
-    </row>
-    <row r="652">
-      <c r="A652" s="1" t="n">
-        <v>650</v>
-      </c>
-      <c r="B652" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C652" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D652" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E652" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F652" t="n">
-        <v>36432.8317</v>
-      </c>
-      <c r="G652" t="n">
-        <v>-35482825.58753964</v>
-      </c>
-      <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L652" t="n">
-        <v>1</v>
-      </c>
-      <c r="M652" t="inlineStr"/>
-    </row>
-    <row r="653">
-      <c r="A653" s="1" t="n">
-        <v>651</v>
-      </c>
-      <c r="B653" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C653" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D653" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E653" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F653" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G653" t="n">
-        <v>-35582825.58753964</v>
-      </c>
-      <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L653" t="n">
-        <v>1</v>
-      </c>
-      <c r="M653" t="inlineStr"/>
-    </row>
-    <row r="654">
-      <c r="A654" s="1" t="n">
-        <v>652</v>
-      </c>
-      <c r="B654" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C654" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D654" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E654" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F654" t="n">
-        <v>115010</v>
-      </c>
-      <c r="G654" t="n">
-        <v>-35582825.58753964</v>
-      </c>
-      <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L654" t="n">
-        <v>1</v>
-      </c>
-      <c r="M654" t="inlineStr"/>
-    </row>
-    <row r="655">
-      <c r="A655" s="1" t="n">
-        <v>653</v>
-      </c>
-      <c r="B655" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C655" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D655" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E655" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F655" t="n">
-        <v>25020</v>
-      </c>
-      <c r="G655" t="n">
-        <v>-35557805.58753964</v>
-      </c>
-      <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L655" t="n">
-        <v>1</v>
-      </c>
-      <c r="M655" t="inlineStr"/>
-    </row>
-    <row r="656">
-      <c r="A656" s="1" t="n">
-        <v>654</v>
-      </c>
-      <c r="B656" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C656" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D656" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E656" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F656" t="n">
-        <v>20</v>
-      </c>
-      <c r="G656" t="n">
-        <v>-35557805.58753964</v>
-      </c>
-      <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L656" t="n">
-        <v>1</v>
-      </c>
-      <c r="M656" t="inlineStr"/>
-    </row>
-    <row r="657">
-      <c r="A657" s="1" t="n">
-        <v>655</v>
-      </c>
-      <c r="B657" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C657" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D657" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E657" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F657" t="n">
-        <v>5867.81</v>
-      </c>
-      <c r="G657" t="n">
-        <v>-35563673.39753965</v>
-      </c>
-      <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L657" t="n">
-        <v>1</v>
-      </c>
-      <c r="M657" t="inlineStr"/>
-    </row>
-    <row r="658">
-      <c r="A658" s="1" t="n">
-        <v>656</v>
-      </c>
-      <c r="B658" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C658" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D658" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E658" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F658" t="n">
-        <v>245029.2035</v>
-      </c>
-      <c r="G658" t="n">
-        <v>-35563673.39753965</v>
-      </c>
-      <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L658" t="n">
-        <v>1</v>
-      </c>
-      <c r="M658" t="inlineStr"/>
-    </row>
-    <row r="659">
-      <c r="A659" s="1" t="n">
-        <v>657</v>
-      </c>
-      <c r="B659" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C659" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D659" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E659" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F659" t="n">
-        <v>141920.0654</v>
-      </c>
-      <c r="G659" t="n">
-        <v>-35563673.39753965</v>
-      </c>
-      <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L659" t="n">
-        <v>1</v>
-      </c>
-      <c r="M659" t="inlineStr"/>
-    </row>
-    <row r="660">
-      <c r="A660" s="1" t="n">
-        <v>658</v>
-      </c>
-      <c r="B660" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C660" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D660" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E660" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F660" t="n">
-        <v>25493.8938</v>
-      </c>
-      <c r="G660" t="n">
-        <v>-35563673.39753965</v>
-      </c>
-      <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L660" t="n">
-        <v>1</v>
-      </c>
-      <c r="M660" t="inlineStr"/>
-    </row>
-    <row r="661">
-      <c r="A661" s="1" t="n">
-        <v>659</v>
-      </c>
-      <c r="B661" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C661" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D661" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E661" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F661" t="n">
-        <v>26548.508</v>
-      </c>
-      <c r="G661" t="n">
-        <v>-35563673.39753965</v>
-      </c>
-      <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L661" t="n">
-        <v>1</v>
-      </c>
-      <c r="M661" t="inlineStr"/>
-    </row>
-    <row r="662">
-      <c r="A662" s="1" t="n">
-        <v>660</v>
-      </c>
-      <c r="B662" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C662" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D662" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E662" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F662" t="n">
-        <v>10</v>
-      </c>
-      <c r="G662" t="n">
-        <v>-35563683.39753965</v>
-      </c>
-      <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L662" t="n">
-        <v>1</v>
-      </c>
-      <c r="M662" t="inlineStr"/>
-    </row>
-    <row r="663">
-      <c r="A663" s="1" t="n">
-        <v>661</v>
-      </c>
-      <c r="B663" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C663" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D663" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E663" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F663" t="n">
-        <v>10</v>
-      </c>
-      <c r="G663" t="n">
-        <v>-35563673.39753965</v>
-      </c>
-      <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L663" t="n">
-        <v>1</v>
-      </c>
-      <c r="M663" t="inlineStr"/>
-    </row>
-    <row r="664">
-      <c r="A664" s="1" t="n">
-        <v>662</v>
-      </c>
-      <c r="B664" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C664" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D664" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E664" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F664" t="n">
-        <v>10</v>
-      </c>
-      <c r="G664" t="n">
-        <v>-35563683.39753965</v>
-      </c>
-      <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L664" t="n">
-        <v>1</v>
-      </c>
-      <c r="M664" t="inlineStr"/>
-    </row>
-    <row r="665">
-      <c r="A665" s="1" t="n">
-        <v>663</v>
-      </c>
-      <c r="B665" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C665" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D665" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E665" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F665" t="n">
-        <v>10</v>
-      </c>
-      <c r="G665" t="n">
-        <v>-35563673.39753965</v>
-      </c>
-      <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L665" t="n">
-        <v>1</v>
-      </c>
-      <c r="M665" t="inlineStr"/>
-    </row>
-    <row r="666">
-      <c r="A666" s="1" t="n">
-        <v>664</v>
-      </c>
-      <c r="B666" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C666" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D666" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E666" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F666" t="n">
-        <v>636434.4087</v>
-      </c>
-      <c r="G666" t="n">
-        <v>-35563673.39753965</v>
-      </c>
-      <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L666" t="n">
-        <v>1</v>
-      </c>
-      <c r="M666" t="inlineStr"/>
-    </row>
-    <row r="667">
-      <c r="A667" s="1" t="n">
-        <v>665</v>
-      </c>
-      <c r="B667" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C667" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D667" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E667" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F667" t="n">
-        <v>418516.1409</v>
-      </c>
-      <c r="G667" t="n">
-        <v>-35982189.53843965</v>
-      </c>
-      <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L667" t="n">
-        <v>1</v>
-      </c>
-      <c r="M667" t="inlineStr"/>
-    </row>
-    <row r="668">
-      <c r="A668" s="1" t="n">
-        <v>666</v>
-      </c>
-      <c r="B668" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C668" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D668" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E668" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F668" t="n">
-        <v>43832.507</v>
-      </c>
-      <c r="G668" t="n">
-        <v>-35982189.53843965</v>
-      </c>
-      <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L668" t="n">
-        <v>1</v>
-      </c>
-      <c r="M668" t="inlineStr"/>
-    </row>
-    <row r="669">
-      <c r="A669" s="1" t="n">
-        <v>667</v>
-      </c>
-      <c r="B669" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C669" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D669" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E669" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F669" t="n">
-        <v>220559.4916</v>
-      </c>
-      <c r="G669" t="n">
-        <v>-35982189.53843965</v>
-      </c>
-      <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L669" t="n">
-        <v>1</v>
-      </c>
-      <c r="M669" t="inlineStr"/>
-    </row>
-    <row r="670">
-      <c r="A670" s="1" t="n">
-        <v>668</v>
-      </c>
-      <c r="B670" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C670" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D670" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E670" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F670" t="n">
-        <v>10</v>
-      </c>
-      <c r="G670" t="n">
-        <v>-35982179.53843965</v>
-      </c>
-      <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L670" t="n">
-        <v>1</v>
-      </c>
-      <c r="M670" t="inlineStr"/>
-    </row>
-    <row r="671">
-      <c r="A671" s="1" t="n">
-        <v>669</v>
-      </c>
-      <c r="B671" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C671" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D671" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E671" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F671" t="n">
-        <v>188.4069</v>
-      </c>
-      <c r="G671" t="n">
-        <v>-35982179.53843965</v>
-      </c>
-      <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L671" t="n">
-        <v>1</v>
-      </c>
-      <c r="M671" t="inlineStr"/>
-    </row>
-    <row r="672">
-      <c r="A672" s="1" t="n">
-        <v>670</v>
-      </c>
-      <c r="B672" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C672" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D672" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E672" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F672" t="n">
-        <v>68374.292</v>
-      </c>
-      <c r="G672" t="n">
-        <v>-35982179.53843965</v>
-      </c>
-      <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L672" t="n">
-        <v>1</v>
-      </c>
-      <c r="M672" t="inlineStr"/>
-    </row>
-    <row r="673">
-      <c r="A673" s="1" t="n">
-        <v>671</v>
-      </c>
-      <c r="B673" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C673" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D673" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E673" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F673" t="n">
-        <v>5453.3628</v>
-      </c>
-      <c r="G673" t="n">
-        <v>-35982179.53843965</v>
-      </c>
-      <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L673" t="n">
-        <v>1</v>
-      </c>
-      <c r="M673" t="inlineStr"/>
-    </row>
-    <row r="674">
-      <c r="A674" s="1" t="n">
-        <v>672</v>
-      </c>
-      <c r="B674" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C674" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D674" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E674" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F674" t="n">
-        <v>24.5132</v>
-      </c>
-      <c r="G674" t="n">
-        <v>-35982179.53843965</v>
-      </c>
-      <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L674" t="n">
-        <v>1</v>
-      </c>
-      <c r="M674" t="inlineStr"/>
-    </row>
-    <row r="675">
-      <c r="A675" s="1" t="n">
-        <v>673</v>
-      </c>
-      <c r="B675" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C675" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D675" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E675" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F675" t="n">
-        <v>62272.6548</v>
-      </c>
-      <c r="G675" t="n">
-        <v>-35982179.53843965</v>
-      </c>
-      <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L675" t="n">
-        <v>1</v>
-      </c>
-      <c r="M675" t="inlineStr"/>
-    </row>
-    <row r="676">
-      <c r="A676" s="1" t="n">
-        <v>674</v>
-      </c>
-      <c r="B676" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C676" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D676" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E676" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F676" t="n">
-        <v>2420.0884</v>
-      </c>
-      <c r="G676" t="n">
-        <v>-35982179.53843965</v>
-      </c>
-      <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L676" t="n">
-        <v>1</v>
-      </c>
-      <c r="M676" t="inlineStr"/>
-    </row>
-    <row r="677">
-      <c r="A677" s="1" t="n">
-        <v>675</v>
-      </c>
-      <c r="B677" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C677" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D677" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E677" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F677" t="n">
-        <v>34843.8053</v>
-      </c>
-      <c r="G677" t="n">
-        <v>-35982179.53843965</v>
-      </c>
-      <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L677" t="n">
-        <v>1</v>
-      </c>
-      <c r="M677" t="inlineStr"/>
-    </row>
-    <row r="678">
-      <c r="A678" s="1" t="n">
-        <v>676</v>
-      </c>
-      <c r="B678" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C678" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D678" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E678" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F678" t="n">
-        <v>185865.2809</v>
-      </c>
-      <c r="G678" t="n">
-        <v>-35982179.53843965</v>
-      </c>
-      <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L678" t="n">
-        <v>1</v>
-      </c>
-      <c r="M678" t="inlineStr"/>
-    </row>
-    <row r="679">
-      <c r="A679" s="1" t="n">
-        <v>677</v>
-      </c>
-      <c r="B679" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C679" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D679" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E679" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F679" t="n">
-        <v>31271.2881</v>
-      </c>
-      <c r="G679" t="n">
-        <v>-35982179.53843965</v>
-      </c>
-      <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L679" t="n">
-        <v>1</v>
-      </c>
-      <c r="M679" t="inlineStr"/>
-    </row>
-    <row r="680">
-      <c r="A680" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="B680" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="C680" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D680" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E680" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F680" t="n">
-        <v>10</v>
-      </c>
-      <c r="G680" t="n">
-        <v>-35982169.53843965</v>
-      </c>
-      <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L680" t="n">
-        <v>1</v>
-      </c>
-      <c r="M680" t="inlineStr"/>
-    </row>
-    <row r="681">
-      <c r="A681" s="1" t="n">
-        <v>679</v>
-      </c>
-      <c r="B681" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C681" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D681" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E681" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F681" t="n">
-        <v>413523.739</v>
-      </c>
-      <c r="G681" t="n">
-        <v>-36395693.27743965</v>
-      </c>
-      <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L681" t="n">
-        <v>1</v>
-      </c>
-      <c r="M681" t="inlineStr"/>
-    </row>
-    <row r="682">
-      <c r="A682" s="1" t="n">
-        <v>680</v>
-      </c>
-      <c r="B682" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C682" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D682" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E682" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F682" t="n">
-        <v>20</v>
-      </c>
-      <c r="G682" t="n">
-        <v>-36395693.27743965</v>
-      </c>
-      <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L682" t="n">
-        <v>1</v>
-      </c>
-      <c r="M682" t="inlineStr"/>
-    </row>
-    <row r="683">
-      <c r="A683" s="1" t="n">
-        <v>681</v>
-      </c>
-      <c r="B683" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C683" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="D683" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="E683" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F683" t="n">
-        <v>254967.1408</v>
-      </c>
-      <c r="G683" t="n">
-        <v>-36140726.13663965</v>
-      </c>
-      <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23348,9 +22966,7 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23387,9 +23003,7 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23426,9 +23040,7 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23465,9 +23077,7 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23504,9 +23114,7 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23543,9 +23151,7 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23582,9 +23188,7 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23621,9 +23225,7 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23657,12 +23259,10 @@
         <v>-38292813.33863965</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23699,9 +23299,7 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23738,9 +23336,7 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23777,9 +23373,7 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23816,9 +23410,7 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23852,12 +23444,12 @@
         <v>-43956652.80553965</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>11.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23891,12 +23483,12 @@
         <v>-43567688.78473965</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>11.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23930,12 +23522,12 @@
         <v>-43054078.72963965</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>11.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23969,12 +23561,12 @@
         <v>-43054078.72963965</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>11.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>11</v>
+      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24008,12 +23600,12 @@
         <v>-43054078.72963965</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>11.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>11</v>
+      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24052,9 +23644,7 @@
       <c r="I702" t="n">
         <v>11</v>
       </c>
-      <c r="J702" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24093,9 +23683,7 @@
       <c r="I703" t="n">
         <v>11</v>
       </c>
-      <c r="J703" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24134,9 +23722,7 @@
       <c r="I704" t="n">
         <v>11</v>
       </c>
-      <c r="J704" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24170,14 +23756,10 @@
         <v>-43103689.17593965</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
-      </c>
-      <c r="I705" t="n">
-        <v>11</v>
-      </c>
-      <c r="J705" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24216,9 +23798,7 @@
       <c r="I706" t="n">
         <v>10.9</v>
       </c>
-      <c r="J706" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24255,9 +23835,7 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24294,9 +23872,7 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24330,12 +23906,12 @@
         <v>-44420523.78763965</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>11.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24369,12 +23945,12 @@
         <v>-44420523.78763965</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>11.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24413,9 +23989,7 @@
       <c r="I711" t="n">
         <v>10.8</v>
       </c>
-      <c r="J711" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24449,12 +24023,12 @@
         <v>-43818206.44823965</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>11.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24493,9 +24067,7 @@
       <c r="I713" t="n">
         <v>10.9</v>
       </c>
-      <c r="J713" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24534,9 +24106,7 @@
       <c r="I714" t="n">
         <v>10.9</v>
       </c>
-      <c r="J714" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24570,14 +24140,10 @@
         <v>-44663002.94563965</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
-      </c>
-      <c r="I715" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="J715" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24611,14 +24177,10 @@
         <v>-44663002.94563965</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
-      </c>
-      <c r="I716" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="J716" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24655,9 +24217,7 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24694,9 +24254,7 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24733,9 +24291,7 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24769,14 +24325,10 @@
         <v>-44663002.94563965</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
-      </c>
-      <c r="I720" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="J720" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24813,9 +24365,7 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24849,14 +24399,10 @@
         <v>-44663002.94563965</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
-      </c>
-      <c r="I722" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="J722" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24893,9 +24439,7 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24929,14 +24473,10 @@
         <v>-44727789.92843965</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
-      </c>
-      <c r="I724" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="J724" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24973,9 +24513,7 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25012,9 +24550,7 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25051,9 +24587,7 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25090,9 +24624,7 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25129,9 +24661,7 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25168,9 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25204,12 +24732,12 @@
         <v>-44963268.94623964</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>11.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25246,9 +24774,7 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25285,9 +24811,7 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25324,9 +24848,7 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25363,9 +24885,7 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25402,9 +24922,7 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25441,9 +24959,7 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25480,9 +24996,7 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25519,9 +25033,7 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25558,9 +25070,7 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25597,9 +25107,7 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25636,9 +25144,7 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25675,9 +25181,7 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25714,9 +25218,7 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25753,9 +25255,7 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25792,9 +25292,7 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25831,9 +25329,7 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25870,9 +25366,7 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25909,9 +25403,7 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25948,9 +25440,7 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25987,9 +25477,7 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26026,9 +25514,7 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26065,9 +25551,7 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26104,9 +25588,7 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26143,9 +25625,7 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26182,9 +25662,7 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26218,12 +25696,12 @@
         <v>-43799839.81043965</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>11.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>11</v>
+      </c>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26260,9 +25738,7 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26299,9 +25775,7 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26338,9 +25812,7 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26377,9 +25849,7 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26413,12 +25883,12 @@
         <v>-43873193.72473964</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>11.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>11</v>
+      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26452,12 +25922,12 @@
         <v>-44692554.19103964</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>11.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>11</v>
+      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26491,12 +25961,12 @@
         <v>-44692544.19103964</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>11.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26530,12 +26000,12 @@
         <v>-44823864.27853964</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>11.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>11</v>
+      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26569,12 +26039,12 @@
         <v>-44817365.35133965</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>11.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26608,12 +26078,12 @@
         <v>-44917375.35133965</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>11.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>11</v>
+      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26647,12 +26117,12 @@
         <v>-44517375.35133965</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>11.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26686,12 +26156,12 @@
         <v>-44517375.35133965</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>11.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>11</v>
+      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26703,6 +26173,6 @@
       <c r="M769" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest MIX.xlsx
+++ b/BackTest/2019-10-19 BackTest MIX.xlsx
@@ -1078,7 +1078,7 @@
         <v>187039.6679773108</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>187049.6679773108</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>187035.7533773108</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>174830.6992773108</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>146750.7044773108</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-4487.782822689187</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>14221.61277731082</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-4528.387222689184</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-4518.387222689184</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-23278.38722268918</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-23278.38722268918</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-1056827.671622689</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-1072270.264522689</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-1072270.264522689</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1072270.264522689</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1072259.264522689</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-1220773.345022689</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-1220773.345022689</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-1154322.110522689</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-1154322.110522689</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1252724.724322689</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1252700.724322689</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-1252700.724322689</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-1164554.699157115</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-1647838.230191541</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-1720922.049691541</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-1847444.694691541</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-1847444.694691541</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-1847444.694691541</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-1876161.342891541</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-1997490.846991541</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-1997490.846991541</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1655395.375991541</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-1655395.375991541</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-1713860.432291541</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-1731733.897391541</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-1729148.827391541</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-1693168.827391541</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-2212508.026491541</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-2212508.026491541</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-2212508.026491541</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-2202334.202591541</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-2436302.906791541</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-2427001.011191541</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-2427001.011191541</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-2427001.011191541</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-2469919.656191541</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-2469919.656191541</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-2469919.656191541</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-2460611.154991542</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-2560621.154991542</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-2560621.154991542</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-2560621.154991542</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-2560621.154991542</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-2560611.154991542</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-2702450.991091541</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-2701131.991091541</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-2701141.991091541</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-2691792.502791542</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-2697746.242591542</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-2487920.666291542</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-2487920.666291542</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-2555174.548491542</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-2483640.096791542</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-4237634.445091542</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-4065004.308091542</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-4142937.429391542</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-3810353.875691541</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-5598081.793391542</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-5598081.793391542</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-5598081.793391542</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-5598081.793391542</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-5412953.398491542</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-5433287.478191542</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-5856860.621791542</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-5759460.925191541</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-5736569.941591541</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-5895642.558891541</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-5895642.558891541</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-5895642.558891541</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-5860683.275891542</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-5872935.026191542</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-5872913.026191542</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-5893403.026191542</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-7593383.026191542</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-9393363.026191542</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-11064142.17209155</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-10897239.70169155</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-9630361.576991547</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-9590850.521091547</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-9590850.521091547</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-9600207.285591546</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-8938995.175191546</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-7660563.773791546</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-7660563.773791546</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-7824623.265804554</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-8307094.809604554</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-10165482.23170456</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-9913172.231704555</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-11915017.23170456</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-11915017.23170456</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-12306814.10990456</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-12306814.10990456</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-12306814.10990456</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-12238520.94330456</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-12258780.94330456</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-12258780.94330456</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-12325161.10720455</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-12229969.86830455</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>-17857938.28853789</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>-17777088.58863788</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>-17777109.39253788</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>-22236757.63473964</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>-22198010.86953964</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>-23866606.87183964</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-23866596.87183964</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-25866556.87183964</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>-27065546.16133963</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-26108120.22723963</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>-26108120.22723963</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>-26542431.52633964</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>-26558611.71923963</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>-26480369.07013964</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>-26570731.48103964</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>-26570731.48103964</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>-26570731.48103964</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>-26693374.92363964</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>-26454989.82623964</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>-26472602.87433964</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>-26472592.87433964</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>-26472607.87433964</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-26472593.50463964</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-26466989.16373964</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-26466989.16373964</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-26466989.16373964</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-26466989.16373964</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-26466979.16373964</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-26476196.66373964</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-26476196.66373964</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-26286553.39993964</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-26698666.26943964</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-27640620.45913964</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-27640599.45913964</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-27640599.45913964</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-27847716.17393964</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-27847706.17393964</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-27847696.17393964</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-28077506.06223964</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-28077506.06223964</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-28077506.06223964</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-28077506.06223964</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-28077506.06223964</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-28957768.27073964</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-28957768.27073964</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-30284002.40053964</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-30284002.40053964</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-30284002.40053964</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-30990015.36143964</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-30990005.36143964</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-30990016.36143964</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-30990006.36143964</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-31036767.56753964</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-31031085.37463964</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-31031103.37463964</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-31031093.37463964</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-33031093.37463964</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-34791084.37463964</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-34721249.44173964</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-36521270.44173964</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-35829445.31833964</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-35829445.31833964</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22396,7 +22396,7 @@
         <v>-35982189.53843965</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22660,7 +22660,7 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22693,7 +22693,7 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22726,7 +22726,7 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22759,7 +22759,7 @@
         <v>-35982179.53843965</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22858,7 +22858,7 @@
         <v>-36395693.27743965</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -22924,2676 +22924,2374 @@
         <v>-36140726.13663965</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
-      </c>
-      <c r="I683" t="n">
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
+      <c r="L683" t="n">
+        <v>1</v>
+      </c>
+      <c r="M683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" t="n">
         <v>11.3</v>
       </c>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
+      <c r="C684" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D684" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E684" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F684" t="n">
+        <v>10</v>
+      </c>
+      <c r="G684" t="n">
+        <v>-36140736.13663965</v>
+      </c>
+      <c r="H684" t="n">
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
+      <c r="L684" t="n">
+        <v>1</v>
+      </c>
+      <c r="M684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C685" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D685" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E685" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F685" t="n">
+        <v>46341.4432</v>
+      </c>
+      <c r="G685" t="n">
+        <v>-36187077.57983965</v>
+      </c>
+      <c r="H685" t="n">
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
+      <c r="L685" t="n">
+        <v>1</v>
+      </c>
+      <c r="M685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C686" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D686" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E686" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F686" t="n">
+        <v>25493.8938</v>
+      </c>
+      <c r="G686" t="n">
+        <v>-36161583.68603965</v>
+      </c>
+      <c r="H686" t="n">
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
+      <c r="L686" t="n">
+        <v>1</v>
+      </c>
+      <c r="M686" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C687" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D687" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E687" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F687" t="n">
+        <v>38654.7787</v>
+      </c>
+      <c r="G687" t="n">
+        <v>-36161583.68603965</v>
+      </c>
+      <c r="H687" t="n">
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
+      <c r="L687" t="n">
+        <v>1</v>
+      </c>
+      <c r="M687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C688" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D688" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E688" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F688" t="n">
+        <v>18789.4693</v>
+      </c>
+      <c r="G688" t="n">
+        <v>-36161583.68603965</v>
+      </c>
+      <c r="H688" t="n">
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
+      <c r="L688" t="n">
+        <v>1</v>
+      </c>
+      <c r="M688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C689" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D689" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E689" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F689" t="n">
+        <v>115018.8816</v>
+      </c>
+      <c r="G689" t="n">
+        <v>-36161583.68603965</v>
+      </c>
+      <c r="H689" t="n">
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
+      <c r="L689" t="n">
+        <v>1</v>
+      </c>
+      <c r="M689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C690" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D690" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E690" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F690" t="n">
+        <v>26050.2763</v>
+      </c>
+      <c r="G690" t="n">
+        <v>-36161583.68603965</v>
+      </c>
+      <c r="H690" t="n">
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
+      <c r="L690" t="n">
+        <v>1</v>
+      </c>
+      <c r="M690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C691" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D691" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E691" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F691" t="n">
+        <v>2137255.5985</v>
+      </c>
+      <c r="G691" t="n">
+        <v>-38298839.28453965</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
+      <c r="L691" t="n">
+        <v>1</v>
+      </c>
+      <c r="M691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C692" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D692" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E692" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F692" t="n">
+        <v>6025.9459</v>
+      </c>
+      <c r="G692" t="n">
+        <v>-38292813.33863965</v>
+      </c>
+      <c r="H692" t="n">
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
+      <c r="L692" t="n">
+        <v>1</v>
+      </c>
+      <c r="M692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C693" t="n">
+        <v>11</v>
+      </c>
+      <c r="D693" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E693" t="n">
+        <v>11</v>
+      </c>
+      <c r="F693" t="n">
+        <v>1791885</v>
+      </c>
+      <c r="G693" t="n">
+        <v>-40084698.33863965</v>
+      </c>
+      <c r="H693" t="n">
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
+      <c r="L693" t="n">
+        <v>1</v>
+      </c>
+      <c r="M693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C694" t="n">
+        <v>11</v>
+      </c>
+      <c r="D694" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E694" t="n">
+        <v>11</v>
+      </c>
+      <c r="F694" t="n">
+        <v>1647627.0965</v>
+      </c>
+      <c r="G694" t="n">
+        <v>-40084698.33863965</v>
+      </c>
+      <c r="H694" t="n">
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
+      <c r="L694" t="n">
+        <v>1</v>
+      </c>
+      <c r="M694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" t="n">
+        <v>11</v>
+      </c>
+      <c r="C695" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D695" t="n">
+        <v>11</v>
+      </c>
+      <c r="E695" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F695" t="n">
+        <v>2187078.417</v>
+      </c>
+      <c r="G695" t="n">
+        <v>-42271776.75563965</v>
+      </c>
+      <c r="H695" t="n">
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
+      <c r="L695" t="n">
+        <v>1</v>
+      </c>
+      <c r="M695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C696" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D696" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E696" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F696" t="n">
+        <v>374967.0551</v>
+      </c>
+      <c r="G696" t="n">
+        <v>-42271776.75563965</v>
+      </c>
+      <c r="H696" t="n">
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
+      <c r="L696" t="n">
+        <v>1</v>
+      </c>
+      <c r="M696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C697" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D697" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E697" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F697" t="n">
+        <v>1684876.0499</v>
+      </c>
+      <c r="G697" t="n">
+        <v>-43956652.80553965</v>
+      </c>
+      <c r="H697" t="n">
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
+      <c r="L697" t="n">
+        <v>1</v>
+      </c>
+      <c r="M697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C698" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D698" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E698" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F698" t="n">
+        <v>388964.0208</v>
+      </c>
+      <c r="G698" t="n">
+        <v>-43567688.78473965</v>
+      </c>
+      <c r="H698" t="n">
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
+      <c r="L698" t="n">
+        <v>1</v>
+      </c>
+      <c r="M698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C699" t="n">
+        <v>11</v>
+      </c>
+      <c r="D699" t="n">
+        <v>11</v>
+      </c>
+      <c r="E699" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F699" t="n">
+        <v>513610.0551</v>
+      </c>
+      <c r="G699" t="n">
+        <v>-43054078.72963965</v>
+      </c>
+      <c r="H699" t="n">
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
+      <c r="L699" t="n">
+        <v>1</v>
+      </c>
+      <c r="M699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C700" t="n">
+        <v>11</v>
+      </c>
+      <c r="D700" t="n">
+        <v>11</v>
+      </c>
+      <c r="E700" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F700" t="n">
+        <v>252558.7044</v>
+      </c>
+      <c r="G700" t="n">
+        <v>-43054078.72963965</v>
+      </c>
+      <c r="H700" t="n">
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
+      <c r="L700" t="n">
+        <v>1</v>
+      </c>
+      <c r="M700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C701" t="n">
+        <v>11</v>
+      </c>
+      <c r="D701" t="n">
+        <v>11</v>
+      </c>
+      <c r="E701" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F701" t="n">
+        <v>69019.75255272727</v>
+      </c>
+      <c r="G701" t="n">
+        <v>-43054078.72963965</v>
+      </c>
+      <c r="H701" t="n">
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
+      <c r="L701" t="n">
+        <v>1</v>
+      </c>
+      <c r="M701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C702" t="n">
+        <v>11</v>
+      </c>
+      <c r="D702" t="n">
+        <v>11</v>
+      </c>
+      <c r="E702" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F702" t="n">
+        <v>22286.6774</v>
+      </c>
+      <c r="G702" t="n">
+        <v>-43054078.72963965</v>
+      </c>
+      <c r="H702" t="n">
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
+      <c r="L702" t="n">
+        <v>1</v>
+      </c>
+      <c r="M702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" t="n">
+        <v>11</v>
+      </c>
+      <c r="C703" t="n">
+        <v>11</v>
+      </c>
+      <c r="D703" t="n">
+        <v>11</v>
+      </c>
+      <c r="E703" t="n">
+        <v>11</v>
+      </c>
+      <c r="F703" t="n">
+        <v>6503.909</v>
+      </c>
+      <c r="G703" t="n">
+        <v>-43054078.72963965</v>
+      </c>
+      <c r="H703" t="n">
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
+      <c r="L703" t="n">
+        <v>1</v>
+      </c>
+      <c r="M703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" t="n">
+        <v>11</v>
+      </c>
+      <c r="C704" t="n">
+        <v>11</v>
+      </c>
+      <c r="D704" t="n">
+        <v>11</v>
+      </c>
+      <c r="E704" t="n">
+        <v>11</v>
+      </c>
+      <c r="F704" t="n">
+        <v>36370</v>
+      </c>
+      <c r="G704" t="n">
+        <v>-43054078.72963965</v>
+      </c>
+      <c r="H704" t="n">
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
+      <c r="L704" t="n">
+        <v>1</v>
+      </c>
+      <c r="M704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" t="n">
+        <v>11</v>
+      </c>
+      <c r="C705" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D705" t="n">
+        <v>11</v>
+      </c>
+      <c r="E705" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F705" t="n">
+        <v>49610.4463</v>
+      </c>
+      <c r="G705" t="n">
+        <v>-43103689.17593965</v>
+      </c>
+      <c r="H705" t="n">
+        <v>0</v>
+      </c>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
+      <c r="L705" t="n">
+        <v>1</v>
+      </c>
+      <c r="M705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C706" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D706" t="n">
+        <v>11</v>
+      </c>
+      <c r="E706" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F706" t="n">
+        <v>650836.9212</v>
+      </c>
+      <c r="G706" t="n">
+        <v>-43103689.17593965</v>
+      </c>
+      <c r="H706" t="n">
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
+      <c r="L706" t="n">
+        <v>1</v>
+      </c>
+      <c r="M706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C707" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D707" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E707" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F707" t="n">
+        <v>1316834.6117</v>
+      </c>
+      <c r="G707" t="n">
+        <v>-44420523.78763965</v>
+      </c>
+      <c r="H707" t="n">
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
+      <c r="L707" t="n">
+        <v>1</v>
+      </c>
+      <c r="M707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C708" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D708" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E708" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F708" t="n">
+        <v>264239.2232</v>
+      </c>
+      <c r="G708" t="n">
+        <v>-44420523.78763965</v>
+      </c>
+      <c r="H708" t="n">
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
+      <c r="L708" t="n">
+        <v>1</v>
+      </c>
+      <c r="M708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C709" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D709" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E709" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F709" t="n">
+        <v>50137.5243</v>
+      </c>
+      <c r="G709" t="n">
+        <v>-44420523.78763965</v>
+      </c>
+      <c r="H709" t="n">
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
+      <c r="L709" t="n">
+        <v>1</v>
+      </c>
+      <c r="M709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B710" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C710" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D710" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E710" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F710" t="n">
+        <v>57083.0809</v>
+      </c>
+      <c r="G710" t="n">
+        <v>-44420523.78763965</v>
+      </c>
+      <c r="H710" t="n">
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
+      <c r="L710" t="n">
+        <v>1</v>
+      </c>
+      <c r="M710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B711" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C711" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D711" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E711" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F711" t="n">
+        <v>602317.3394000001</v>
+      </c>
+      <c r="G711" t="n">
+        <v>-43818206.44823965</v>
+      </c>
+      <c r="H711" t="n">
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
+      <c r="L711" t="n">
+        <v>1</v>
+      </c>
+      <c r="M711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C712" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D712" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E712" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F712" t="n">
+        <v>99817.3863</v>
+      </c>
+      <c r="G712" t="n">
+        <v>-43818206.44823965</v>
+      </c>
+      <c r="H712" t="n">
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
+      <c r="L712" t="n">
+        <v>1</v>
+      </c>
+      <c r="M712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C713" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D713" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E713" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F713" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G713" t="n">
+        <v>-43818206.44823965</v>
+      </c>
+      <c r="H713" t="n">
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
+      <c r="L713" t="n">
+        <v>1</v>
+      </c>
+      <c r="M713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B714" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C714" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D714" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E714" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F714" t="n">
+        <v>60633.0275</v>
+      </c>
+      <c r="G714" t="n">
+        <v>-43818206.44823965</v>
+      </c>
+      <c r="H714" t="n">
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
+      <c r="L714" t="n">
+        <v>1</v>
+      </c>
+      <c r="M714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B715" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C715" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D715" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E715" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F715" t="n">
+        <v>844796.4974</v>
+      </c>
+      <c r="G715" t="n">
+        <v>-44663002.94563965</v>
+      </c>
+      <c r="H715" t="n">
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
+      <c r="L715" t="n">
+        <v>1</v>
+      </c>
+      <c r="M715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B716" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C716" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D716" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E716" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F716" t="n">
+        <v>120978.1398</v>
+      </c>
+      <c r="G716" t="n">
+        <v>-44663002.94563965</v>
+      </c>
+      <c r="H716" t="n">
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
+      <c r="L716" t="n">
+        <v>1</v>
+      </c>
+      <c r="M716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B717" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C717" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D717" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E717" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F717" t="n">
+        <v>172432.2736</v>
+      </c>
+      <c r="G717" t="n">
+        <v>-44663002.94563965</v>
+      </c>
+      <c r="H717" t="n">
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
+      <c r="L717" t="n">
+        <v>1</v>
+      </c>
+      <c r="M717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B718" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C718" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D718" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E718" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F718" t="n">
+        <v>351551.9377</v>
+      </c>
+      <c r="G718" t="n">
+        <v>-44663002.94563965</v>
+      </c>
+      <c r="H718" t="n">
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
+      <c r="L718" t="n">
+        <v>1</v>
+      </c>
+      <c r="M718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B719" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C719" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D719" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E719" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F719" t="n">
+        <v>63484.1666</v>
+      </c>
+      <c r="G719" t="n">
+        <v>-44663002.94563965</v>
+      </c>
+      <c r="H719" t="n">
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
+      <c r="L719" t="n">
+        <v>1</v>
+      </c>
+      <c r="M719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B720" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C720" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D720" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E720" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F720" t="n">
+        <v>320965.2056</v>
+      </c>
+      <c r="G720" t="n">
+        <v>-44663002.94563965</v>
+      </c>
+      <c r="H720" t="n">
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
+      <c r="L720" t="n">
+        <v>1</v>
+      </c>
+      <c r="M720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B721" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C721" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D721" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E721" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F721" t="n">
+        <v>318214.1267</v>
+      </c>
+      <c r="G721" t="n">
+        <v>-44663002.94563965</v>
+      </c>
+      <c r="H721" t="n">
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
+      <c r="L721" t="n">
+        <v>1</v>
+      </c>
+      <c r="M721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B722" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C722" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D722" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E722" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F722" t="n">
+        <v>577294.7874</v>
+      </c>
+      <c r="G722" t="n">
+        <v>-44663002.94563965</v>
+      </c>
+      <c r="H722" t="n">
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
+      <c r="L722" t="n">
+        <v>1</v>
+      </c>
+      <c r="M722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C723" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D723" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E723" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F723" t="n">
+        <v>10</v>
+      </c>
+      <c r="G723" t="n">
+        <v>-44662992.94563965</v>
+      </c>
+      <c r="H723" t="n">
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
+      <c r="L723" t="n">
+        <v>1</v>
+      </c>
+      <c r="M723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C724" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D724" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E724" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F724" t="n">
+        <v>64796.9828</v>
+      </c>
+      <c r="G724" t="n">
+        <v>-44727789.92843965</v>
+      </c>
+      <c r="H724" t="n">
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
+      <c r="L724" t="n">
+        <v>1</v>
+      </c>
+      <c r="M724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C725" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D725" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E725" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F725" t="n">
+        <v>1418.5366</v>
+      </c>
+      <c r="G725" t="n">
+        <v>-44726371.39183965</v>
+      </c>
+      <c r="H725" t="n">
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
+      <c r="L725" t="n">
+        <v>1</v>
+      </c>
+      <c r="M725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C726" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D726" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E726" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="F726" t="n">
+        <v>330438.247</v>
+      </c>
+      <c r="G726" t="n">
+        <v>-44726371.39183965</v>
+      </c>
+      <c r="H726" t="n">
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
+      <c r="L726" t="n">
+        <v>1</v>
+      </c>
+      <c r="M726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C727" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D727" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E727" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F727" t="n">
+        <v>12696.8132</v>
+      </c>
+      <c r="G727" t="n">
+        <v>-44726371.39183965</v>
+      </c>
+      <c r="H727" t="n">
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
+      <c r="L727" t="n">
+        <v>1</v>
+      </c>
+      <c r="M727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C728" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D728" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E728" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F728" t="n">
+        <v>40140</v>
+      </c>
+      <c r="G728" t="n">
+        <v>-44726371.39183965</v>
+      </c>
+      <c r="H728" t="n">
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
+      <c r="L728" t="n">
+        <v>1</v>
+      </c>
+      <c r="M728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C729" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D729" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E729" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F729" t="n">
+        <v>403451.2327</v>
+      </c>
+      <c r="G729" t="n">
+        <v>-45129822.62453964</v>
+      </c>
+      <c r="H729" t="n">
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
+      <c r="L729" t="n">
+        <v>1</v>
+      </c>
+      <c r="M729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C730" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D730" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E730" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="F730" t="n">
+        <v>166553.6783</v>
+      </c>
+      <c r="G730" t="n">
+        <v>-44963268.94623964</v>
+      </c>
+      <c r="H730" t="n">
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
+      <c r="L730" t="n">
+        <v>1</v>
+      </c>
+      <c r="M730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C731" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D731" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E731" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F731" t="n">
+        <v>923453.6189</v>
+      </c>
+      <c r="G731" t="n">
+        <v>-44963268.94623964</v>
+      </c>
+      <c r="H731" t="n">
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
+      <c r="L731" t="n">
+        <v>1</v>
+      </c>
+      <c r="M731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C732" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D732" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E732" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F732" t="n">
+        <v>92926.2307</v>
+      </c>
+      <c r="G732" t="n">
+        <v>-44963268.94623964</v>
+      </c>
+      <c r="H732" t="n">
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
+      <c r="L732" t="n">
+        <v>1</v>
+      </c>
+      <c r="M732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C733" t="n">
+        <v>11</v>
+      </c>
+      <c r="D733" t="n">
+        <v>11</v>
+      </c>
+      <c r="E733" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F733" t="n">
+        <v>263175.839</v>
+      </c>
+      <c r="G733" t="n">
+        <v>-44700093.10723964</v>
+      </c>
+      <c r="H733" t="n">
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
+      <c r="L733" t="n">
+        <v>1</v>
+      </c>
+      <c r="M733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="n">
+        <v>11</v>
+      </c>
+      <c r="C734" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D734" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E734" t="n">
+        <v>11</v>
+      </c>
+      <c r="F734" t="n">
+        <v>477356.0361</v>
+      </c>
+      <c r="G734" t="n">
+        <v>-44222737.07113964</v>
+      </c>
+      <c r="H734" t="n">
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
+      <c r="L734" t="n">
+        <v>1</v>
+      </c>
+      <c r="M734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C735" t="n">
+        <v>11</v>
+      </c>
+      <c r="D735" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E735" t="n">
+        <v>11</v>
+      </c>
+      <c r="F735" t="n">
+        <v>94780.564</v>
+      </c>
+      <c r="G735" t="n">
+        <v>-44317517.63513964</v>
+      </c>
+      <c r="H735" t="n">
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
+      <c r="L735" t="n">
+        <v>1</v>
+      </c>
+      <c r="M735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C736" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D736" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E736" t="n">
+        <v>11</v>
+      </c>
+      <c r="F736" t="n">
+        <v>508936.3071</v>
+      </c>
+      <c r="G736" t="n">
+        <v>-43808581.32803965</v>
+      </c>
+      <c r="H736" t="n">
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
+      <c r="L736" t="n">
+        <v>1</v>
+      </c>
+      <c r="M736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C737" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D737" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E737" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F737" t="n">
+        <v>271619.5494</v>
+      </c>
+      <c r="G737" t="n">
+        <v>-43808581.32803965</v>
+      </c>
+      <c r="H737" t="n">
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
+      <c r="L737" t="n">
+        <v>1</v>
+      </c>
+      <c r="M737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="n">
+        <v>11</v>
+      </c>
+      <c r="C738" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D738" t="n">
+        <v>11</v>
+      </c>
+      <c r="E738" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F738" t="n">
+        <v>204107.8947</v>
+      </c>
+      <c r="G738" t="n">
+        <v>-44012689.22273964</v>
+      </c>
+      <c r="H738" t="n">
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
+      <c r="L738" t="n">
+        <v>1</v>
+      </c>
+      <c r="M738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="n">
+        <v>11</v>
+      </c>
+      <c r="C739" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D739" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E739" t="n">
+        <v>11</v>
+      </c>
+      <c r="F739" t="n">
+        <v>213095.362</v>
+      </c>
+      <c r="G739" t="n">
+        <v>-43799593.86073964</v>
+      </c>
+      <c r="H739" t="n">
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
+      <c r="L739" t="n">
+        <v>1</v>
+      </c>
+      <c r="M739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="n">
+        <v>11</v>
+      </c>
+      <c r="C740" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D740" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E740" t="n">
+        <v>11</v>
+      </c>
+      <c r="F740" t="n">
+        <v>48549.5495</v>
+      </c>
+      <c r="G740" t="n">
+        <v>-43799593.86073964</v>
+      </c>
+      <c r="H740" t="n">
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
+      <c r="L740" t="n">
+        <v>1</v>
+      </c>
+      <c r="M740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C741" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D741" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E741" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F741" t="n">
+        <v>2702.7</v>
+      </c>
+      <c r="G741" t="n">
+        <v>-43799593.86073964</v>
+      </c>
+      <c r="H741" t="n">
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
+      <c r="L741" t="n">
+        <v>1</v>
+      </c>
+      <c r="M741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" t="n">
+        <v>11</v>
+      </c>
+      <c r="C742" t="n">
+        <v>11</v>
+      </c>
+      <c r="D742" t="n">
+        <v>11</v>
+      </c>
+      <c r="E742" t="n">
+        <v>11</v>
+      </c>
+      <c r="F742" t="n">
+        <v>23688.9106</v>
+      </c>
+      <c r="G742" t="n">
+        <v>-43823282.77133964</v>
+      </c>
+      <c r="H742" t="n">
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
+      <c r="L742" t="n">
+        <v>1</v>
+      </c>
+      <c r="M742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C743" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D743" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E743" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F743" t="n">
+        <v>11439.1561</v>
+      </c>
+      <c r="G743" t="n">
+        <v>-43834721.92743964</v>
+      </c>
+      <c r="H743" t="n">
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
+      <c r="L743" t="n">
+        <v>1</v>
+      </c>
+      <c r="M743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="n">
+        <v>11</v>
+      </c>
+      <c r="C744" t="n">
+        <v>11</v>
+      </c>
+      <c r="D744" t="n">
+        <v>11</v>
+      </c>
+      <c r="E744" t="n">
+        <v>11</v>
+      </c>
+      <c r="F744" t="n">
+        <v>17978.506</v>
+      </c>
+      <c r="G744" t="n">
+        <v>-43816743.42143964</v>
+      </c>
+      <c r="H744" t="n">
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
+      <c r="L744" t="n">
+        <v>1</v>
+      </c>
+      <c r="M744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="n">
+        <v>11</v>
+      </c>
+      <c r="C745" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D745" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E745" t="n">
+        <v>11</v>
+      </c>
+      <c r="F745" t="n">
+        <v>84937.47440000001</v>
+      </c>
+      <c r="G745" t="n">
+        <v>-43731805.94703964</v>
+      </c>
+      <c r="H745" t="n">
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
+      <c r="L745" t="n">
+        <v>1</v>
+      </c>
+      <c r="M745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C746" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D746" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E746" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F746" t="n">
+        <v>398423.3333</v>
+      </c>
+      <c r="G746" t="n">
+        <v>-43731805.94703964</v>
+      </c>
+      <c r="H746" t="n">
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
+      <c r="L746" t="n">
+        <v>1</v>
+      </c>
+      <c r="M746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C747" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D747" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E747" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F747" t="n">
+        <v>260723.7882</v>
+      </c>
+      <c r="G747" t="n">
+        <v>-43731805.94703964</v>
+      </c>
+      <c r="H747" t="n">
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
+      <c r="L747" t="n">
+        <v>1</v>
+      </c>
+      <c r="M747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C748" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D748" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E748" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F748" t="n">
+        <v>9009.009</v>
+      </c>
+      <c r="G748" t="n">
+        <v>-43731805.94703964</v>
+      </c>
+      <c r="H748" t="n">
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
+      <c r="L748" t="n">
+        <v>1</v>
+      </c>
+      <c r="M748" t="inlineStr"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C749" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D749" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E749" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F749" t="n">
+        <v>365401.0359</v>
+      </c>
+      <c r="G749" t="n">
+        <v>-43731805.94703964</v>
+      </c>
+      <c r="H749" t="n">
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
+      <c r="L749" t="n">
+        <v>1</v>
+      </c>
+      <c r="M749" t="inlineStr"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C750" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D750" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E750" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F750" t="n">
+        <v>10090.09009009009</v>
+      </c>
+      <c r="G750" t="n">
+        <v>-43731805.94703964</v>
+      </c>
+      <c r="H750" t="n">
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
+      <c r="L750" t="n">
+        <v>1</v>
+      </c>
+      <c r="M750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C751" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D751" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E751" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F751" t="n">
+        <v>4504.5045</v>
+      </c>
+      <c r="G751" t="n">
+        <v>-43731805.94703964</v>
+      </c>
+      <c r="H751" t="n">
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
+      <c r="L751" t="n">
+        <v>1</v>
+      </c>
+      <c r="M751" t="inlineStr"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" t="n">
+        <v>11</v>
+      </c>
+      <c r="C752" t="n">
+        <v>11</v>
+      </c>
+      <c r="D752" t="n">
+        <v>11</v>
+      </c>
+      <c r="E752" t="n">
+        <v>11</v>
+      </c>
+      <c r="F752" t="n">
+        <v>223997.9999</v>
+      </c>
+      <c r="G752" t="n">
+        <v>-43955803.94693964</v>
+      </c>
+      <c r="H752" t="n">
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="J752" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="K752" t="inlineStr"/>
+      <c r="L752" t="n">
+        <v>1</v>
+      </c>
+      <c r="M752" t="inlineStr"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" t="n">
+        <v>11</v>
+      </c>
+      <c r="C753" t="n">
+        <v>11</v>
+      </c>
+      <c r="D753" t="n">
+        <v>11</v>
+      </c>
+      <c r="E753" t="n">
+        <v>11</v>
+      </c>
+      <c r="F753" t="n">
+        <v>240170.6497</v>
+      </c>
+      <c r="G753" t="n">
+        <v>-43955803.94693964</v>
+      </c>
+      <c r="H753" t="n">
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>11</v>
+      </c>
+      <c r="J753" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L753" t="n">
+        <v>1</v>
+      </c>
+      <c r="M753" t="inlineStr"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C754" t="n">
+        <v>11</v>
+      </c>
+      <c r="D754" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E754" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F754" t="n">
+        <v>50</v>
+      </c>
+      <c r="G754" t="n">
+        <v>-43955803.94693964</v>
+      </c>
+      <c r="H754" t="n">
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>11</v>
+      </c>
+      <c r="J754" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="K754" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L683" t="n">
-        <v>1</v>
-      </c>
-      <c r="M683" t="inlineStr"/>
-    </row>
-    <row r="684">
-      <c r="A684" s="1" t="n">
-        <v>682</v>
-      </c>
-      <c r="B684" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C684" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D684" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E684" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F684" t="n">
-        <v>10</v>
-      </c>
-      <c r="G684" t="n">
-        <v>-36140736.13663965</v>
-      </c>
-      <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L684" t="n">
-        <v>1</v>
-      </c>
-      <c r="M684" t="inlineStr"/>
-    </row>
-    <row r="685">
-      <c r="A685" s="1" t="n">
-        <v>683</v>
-      </c>
-      <c r="B685" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C685" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D685" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E685" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F685" t="n">
-        <v>46341.4432</v>
-      </c>
-      <c r="G685" t="n">
-        <v>-36187077.57983965</v>
-      </c>
-      <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L685" t="n">
-        <v>1</v>
-      </c>
-      <c r="M685" t="inlineStr"/>
-    </row>
-    <row r="686">
-      <c r="A686" s="1" t="n">
-        <v>684</v>
-      </c>
-      <c r="B686" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C686" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D686" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E686" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F686" t="n">
-        <v>25493.8938</v>
-      </c>
-      <c r="G686" t="n">
-        <v>-36161583.68603965</v>
-      </c>
-      <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L686" t="n">
-        <v>1</v>
-      </c>
-      <c r="M686" t="inlineStr"/>
-    </row>
-    <row r="687">
-      <c r="A687" s="1" t="n">
-        <v>685</v>
-      </c>
-      <c r="B687" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C687" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D687" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E687" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F687" t="n">
-        <v>38654.7787</v>
-      </c>
-      <c r="G687" t="n">
-        <v>-36161583.68603965</v>
-      </c>
-      <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L687" t="n">
-        <v>1</v>
-      </c>
-      <c r="M687" t="inlineStr"/>
-    </row>
-    <row r="688">
-      <c r="A688" s="1" t="n">
-        <v>686</v>
-      </c>
-      <c r="B688" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C688" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D688" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E688" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F688" t="n">
-        <v>18789.4693</v>
-      </c>
-      <c r="G688" t="n">
-        <v>-36161583.68603965</v>
-      </c>
-      <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L688" t="n">
-        <v>1</v>
-      </c>
-      <c r="M688" t="inlineStr"/>
-    </row>
-    <row r="689">
-      <c r="A689" s="1" t="n">
-        <v>687</v>
-      </c>
-      <c r="B689" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C689" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D689" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E689" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F689" t="n">
-        <v>115018.8816</v>
-      </c>
-      <c r="G689" t="n">
-        <v>-36161583.68603965</v>
-      </c>
-      <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L689" t="n">
-        <v>1</v>
-      </c>
-      <c r="M689" t="inlineStr"/>
-    </row>
-    <row r="690">
-      <c r="A690" s="1" t="n">
-        <v>688</v>
-      </c>
-      <c r="B690" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C690" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D690" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E690" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F690" t="n">
-        <v>26050.2763</v>
-      </c>
-      <c r="G690" t="n">
-        <v>-36161583.68603965</v>
-      </c>
-      <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L690" t="n">
-        <v>1</v>
-      </c>
-      <c r="M690" t="inlineStr"/>
-    </row>
-    <row r="691">
-      <c r="A691" s="1" t="n">
-        <v>689</v>
-      </c>
-      <c r="B691" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C691" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D691" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E691" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F691" t="n">
-        <v>2137255.5985</v>
-      </c>
-      <c r="G691" t="n">
-        <v>-38298839.28453965</v>
-      </c>
-      <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L691" t="n">
-        <v>1</v>
-      </c>
-      <c r="M691" t="inlineStr"/>
-    </row>
-    <row r="692">
-      <c r="A692" s="1" t="n">
-        <v>690</v>
-      </c>
-      <c r="B692" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C692" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D692" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E692" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F692" t="n">
-        <v>6025.9459</v>
-      </c>
-      <c r="G692" t="n">
-        <v>-38292813.33863965</v>
-      </c>
-      <c r="H692" t="n">
-        <v>2</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L692" t="n">
-        <v>1</v>
-      </c>
-      <c r="M692" t="inlineStr"/>
-    </row>
-    <row r="693">
-      <c r="A693" s="1" t="n">
-        <v>691</v>
-      </c>
-      <c r="B693" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C693" t="n">
-        <v>11</v>
-      </c>
-      <c r="D693" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E693" t="n">
-        <v>11</v>
-      </c>
-      <c r="F693" t="n">
-        <v>1791885</v>
-      </c>
-      <c r="G693" t="n">
-        <v>-40084698.33863965</v>
-      </c>
-      <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L693" t="n">
-        <v>1</v>
-      </c>
-      <c r="M693" t="inlineStr"/>
-    </row>
-    <row r="694">
-      <c r="A694" s="1" t="n">
-        <v>692</v>
-      </c>
-      <c r="B694" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C694" t="n">
-        <v>11</v>
-      </c>
-      <c r="D694" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E694" t="n">
-        <v>11</v>
-      </c>
-      <c r="F694" t="n">
-        <v>1647627.0965</v>
-      </c>
-      <c r="G694" t="n">
-        <v>-40084698.33863965</v>
-      </c>
-      <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L694" t="n">
-        <v>1</v>
-      </c>
-      <c r="M694" t="inlineStr"/>
-    </row>
-    <row r="695">
-      <c r="A695" s="1" t="n">
-        <v>693</v>
-      </c>
-      <c r="B695" t="n">
-        <v>11</v>
-      </c>
-      <c r="C695" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D695" t="n">
-        <v>11</v>
-      </c>
-      <c r="E695" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F695" t="n">
-        <v>2187078.417</v>
-      </c>
-      <c r="G695" t="n">
-        <v>-42271776.75563965</v>
-      </c>
-      <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L695" t="n">
-        <v>1</v>
-      </c>
-      <c r="M695" t="inlineStr"/>
-    </row>
-    <row r="696">
-      <c r="A696" s="1" t="n">
-        <v>694</v>
-      </c>
-      <c r="B696" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C696" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D696" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E696" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F696" t="n">
-        <v>374967.0551</v>
-      </c>
-      <c r="G696" t="n">
-        <v>-42271776.75563965</v>
-      </c>
-      <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L696" t="n">
-        <v>1</v>
-      </c>
-      <c r="M696" t="inlineStr"/>
-    </row>
-    <row r="697">
-      <c r="A697" s="1" t="n">
-        <v>695</v>
-      </c>
-      <c r="B697" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C697" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D697" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E697" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F697" t="n">
-        <v>1684876.0499</v>
-      </c>
-      <c r="G697" t="n">
-        <v>-43956652.80553965</v>
-      </c>
-      <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L697" t="n">
-        <v>1</v>
-      </c>
-      <c r="M697" t="inlineStr"/>
-    </row>
-    <row r="698">
-      <c r="A698" s="1" t="n">
-        <v>696</v>
-      </c>
-      <c r="B698" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C698" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D698" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E698" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F698" t="n">
-        <v>388964.0208</v>
-      </c>
-      <c r="G698" t="n">
-        <v>-43567688.78473965</v>
-      </c>
-      <c r="H698" t="n">
-        <v>1</v>
-      </c>
-      <c r="I698" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L698" t="n">
-        <v>1</v>
-      </c>
-      <c r="M698" t="inlineStr"/>
-    </row>
-    <row r="699">
-      <c r="A699" s="1" t="n">
-        <v>697</v>
-      </c>
-      <c r="B699" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C699" t="n">
-        <v>11</v>
-      </c>
-      <c r="D699" t="n">
-        <v>11</v>
-      </c>
-      <c r="E699" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F699" t="n">
-        <v>513610.0551</v>
-      </c>
-      <c r="G699" t="n">
-        <v>-43054078.72963965</v>
-      </c>
-      <c r="H699" t="n">
-        <v>1</v>
-      </c>
-      <c r="I699" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L699" t="n">
-        <v>1</v>
-      </c>
-      <c r="M699" t="inlineStr"/>
-    </row>
-    <row r="700">
-      <c r="A700" s="1" t="n">
-        <v>698</v>
-      </c>
-      <c r="B700" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C700" t="n">
-        <v>11</v>
-      </c>
-      <c r="D700" t="n">
-        <v>11</v>
-      </c>
-      <c r="E700" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F700" t="n">
-        <v>252558.7044</v>
-      </c>
-      <c r="G700" t="n">
-        <v>-43054078.72963965</v>
-      </c>
-      <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>11</v>
-      </c>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L700" t="n">
-        <v>1</v>
-      </c>
-      <c r="M700" t="inlineStr"/>
-    </row>
-    <row r="701">
-      <c r="A701" s="1" t="n">
-        <v>699</v>
-      </c>
-      <c r="B701" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C701" t="n">
-        <v>11</v>
-      </c>
-      <c r="D701" t="n">
-        <v>11</v>
-      </c>
-      <c r="E701" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F701" t="n">
-        <v>69019.75255272727</v>
-      </c>
-      <c r="G701" t="n">
-        <v>-43054078.72963965</v>
-      </c>
-      <c r="H701" t="n">
-        <v>1</v>
-      </c>
-      <c r="I701" t="n">
-        <v>11</v>
-      </c>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L701" t="n">
-        <v>1</v>
-      </c>
-      <c r="M701" t="inlineStr"/>
-    </row>
-    <row r="702">
-      <c r="A702" s="1" t="n">
-        <v>700</v>
-      </c>
-      <c r="B702" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C702" t="n">
-        <v>11</v>
-      </c>
-      <c r="D702" t="n">
-        <v>11</v>
-      </c>
-      <c r="E702" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F702" t="n">
-        <v>22286.6774</v>
-      </c>
-      <c r="G702" t="n">
-        <v>-43054078.72963965</v>
-      </c>
-      <c r="H702" t="n">
-        <v>1</v>
-      </c>
-      <c r="I702" t="n">
-        <v>11</v>
-      </c>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L702" t="n">
-        <v>1</v>
-      </c>
-      <c r="M702" t="inlineStr"/>
-    </row>
-    <row r="703">
-      <c r="A703" s="1" t="n">
-        <v>701</v>
-      </c>
-      <c r="B703" t="n">
-        <v>11</v>
-      </c>
-      <c r="C703" t="n">
-        <v>11</v>
-      </c>
-      <c r="D703" t="n">
-        <v>11</v>
-      </c>
-      <c r="E703" t="n">
-        <v>11</v>
-      </c>
-      <c r="F703" t="n">
-        <v>6503.909</v>
-      </c>
-      <c r="G703" t="n">
-        <v>-43054078.72963965</v>
-      </c>
-      <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>11</v>
-      </c>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L703" t="n">
-        <v>1</v>
-      </c>
-      <c r="M703" t="inlineStr"/>
-    </row>
-    <row r="704">
-      <c r="A704" s="1" t="n">
-        <v>702</v>
-      </c>
-      <c r="B704" t="n">
-        <v>11</v>
-      </c>
-      <c r="C704" t="n">
-        <v>11</v>
-      </c>
-      <c r="D704" t="n">
-        <v>11</v>
-      </c>
-      <c r="E704" t="n">
-        <v>11</v>
-      </c>
-      <c r="F704" t="n">
-        <v>36370</v>
-      </c>
-      <c r="G704" t="n">
-        <v>-43054078.72963965</v>
-      </c>
-      <c r="H704" t="n">
-        <v>1</v>
-      </c>
-      <c r="I704" t="n">
-        <v>11</v>
-      </c>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L704" t="n">
-        <v>1</v>
-      </c>
-      <c r="M704" t="inlineStr"/>
-    </row>
-    <row r="705">
-      <c r="A705" s="1" t="n">
-        <v>703</v>
-      </c>
-      <c r="B705" t="n">
-        <v>11</v>
-      </c>
-      <c r="C705" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D705" t="n">
-        <v>11</v>
-      </c>
-      <c r="E705" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F705" t="n">
-        <v>49610.4463</v>
-      </c>
-      <c r="G705" t="n">
-        <v>-43103689.17593965</v>
-      </c>
-      <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L705" t="n">
-        <v>1</v>
-      </c>
-      <c r="M705" t="inlineStr"/>
-    </row>
-    <row r="706">
-      <c r="A706" s="1" t="n">
-        <v>704</v>
-      </c>
-      <c r="B706" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C706" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D706" t="n">
-        <v>11</v>
-      </c>
-      <c r="E706" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F706" t="n">
-        <v>650836.9212</v>
-      </c>
-      <c r="G706" t="n">
-        <v>-43103689.17593965</v>
-      </c>
-      <c r="H706" t="n">
-        <v>1</v>
-      </c>
-      <c r="I706" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L706" t="n">
-        <v>1</v>
-      </c>
-      <c r="M706" t="inlineStr"/>
-    </row>
-    <row r="707">
-      <c r="A707" s="1" t="n">
-        <v>705</v>
-      </c>
-      <c r="B707" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C707" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D707" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E707" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F707" t="n">
-        <v>1316834.6117</v>
-      </c>
-      <c r="G707" t="n">
-        <v>-44420523.78763965</v>
-      </c>
-      <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L707" t="n">
-        <v>1</v>
-      </c>
-      <c r="M707" t="inlineStr"/>
-    </row>
-    <row r="708">
-      <c r="A708" s="1" t="n">
-        <v>706</v>
-      </c>
-      <c r="B708" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C708" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D708" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E708" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F708" t="n">
-        <v>264239.2232</v>
-      </c>
-      <c r="G708" t="n">
-        <v>-44420523.78763965</v>
-      </c>
-      <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L708" t="n">
-        <v>1</v>
-      </c>
-      <c r="M708" t="inlineStr"/>
-    </row>
-    <row r="709">
-      <c r="A709" s="1" t="n">
-        <v>707</v>
-      </c>
-      <c r="B709" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C709" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D709" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E709" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F709" t="n">
-        <v>50137.5243</v>
-      </c>
-      <c r="G709" t="n">
-        <v>-44420523.78763965</v>
-      </c>
-      <c r="H709" t="n">
-        <v>1</v>
-      </c>
-      <c r="I709" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L709" t="n">
-        <v>1</v>
-      </c>
-      <c r="M709" t="inlineStr"/>
-    </row>
-    <row r="710">
-      <c r="A710" s="1" t="n">
-        <v>708</v>
-      </c>
-      <c r="B710" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C710" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D710" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E710" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F710" t="n">
-        <v>57083.0809</v>
-      </c>
-      <c r="G710" t="n">
-        <v>-44420523.78763965</v>
-      </c>
-      <c r="H710" t="n">
-        <v>1</v>
-      </c>
-      <c r="I710" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L710" t="n">
-        <v>1</v>
-      </c>
-      <c r="M710" t="inlineStr"/>
-    </row>
-    <row r="711">
-      <c r="A711" s="1" t="n">
-        <v>709</v>
-      </c>
-      <c r="B711" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C711" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D711" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E711" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F711" t="n">
-        <v>602317.3394000001</v>
-      </c>
-      <c r="G711" t="n">
-        <v>-43818206.44823965</v>
-      </c>
-      <c r="H711" t="n">
-        <v>1</v>
-      </c>
-      <c r="I711" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L711" t="n">
-        <v>1</v>
-      </c>
-      <c r="M711" t="inlineStr"/>
-    </row>
-    <row r="712">
-      <c r="A712" s="1" t="n">
-        <v>710</v>
-      </c>
-      <c r="B712" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C712" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D712" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E712" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F712" t="n">
-        <v>99817.3863</v>
-      </c>
-      <c r="G712" t="n">
-        <v>-43818206.44823965</v>
-      </c>
-      <c r="H712" t="n">
-        <v>1</v>
-      </c>
-      <c r="I712" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L712" t="n">
-        <v>1</v>
-      </c>
-      <c r="M712" t="inlineStr"/>
-    </row>
-    <row r="713">
-      <c r="A713" s="1" t="n">
-        <v>711</v>
-      </c>
-      <c r="B713" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C713" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D713" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E713" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F713" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G713" t="n">
-        <v>-43818206.44823965</v>
-      </c>
-      <c r="H713" t="n">
-        <v>1</v>
-      </c>
-      <c r="I713" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L713" t="n">
-        <v>1</v>
-      </c>
-      <c r="M713" t="inlineStr"/>
-    </row>
-    <row r="714">
-      <c r="A714" s="1" t="n">
-        <v>712</v>
-      </c>
-      <c r="B714" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C714" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D714" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E714" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F714" t="n">
-        <v>60633.0275</v>
-      </c>
-      <c r="G714" t="n">
-        <v>-43818206.44823965</v>
-      </c>
-      <c r="H714" t="n">
-        <v>1</v>
-      </c>
-      <c r="I714" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L714" t="n">
-        <v>1</v>
-      </c>
-      <c r="M714" t="inlineStr"/>
-    </row>
-    <row r="715">
-      <c r="A715" s="1" t="n">
-        <v>713</v>
-      </c>
-      <c r="B715" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C715" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D715" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E715" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F715" t="n">
-        <v>844796.4974</v>
-      </c>
-      <c r="G715" t="n">
-        <v>-44663002.94563965</v>
-      </c>
-      <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L715" t="n">
-        <v>1</v>
-      </c>
-      <c r="M715" t="inlineStr"/>
-    </row>
-    <row r="716">
-      <c r="A716" s="1" t="n">
-        <v>714</v>
-      </c>
-      <c r="B716" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C716" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D716" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E716" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F716" t="n">
-        <v>120978.1398</v>
-      </c>
-      <c r="G716" t="n">
-        <v>-44663002.94563965</v>
-      </c>
-      <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L716" t="n">
-        <v>1</v>
-      </c>
-      <c r="M716" t="inlineStr"/>
-    </row>
-    <row r="717">
-      <c r="A717" s="1" t="n">
-        <v>715</v>
-      </c>
-      <c r="B717" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C717" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D717" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E717" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F717" t="n">
-        <v>172432.2736</v>
-      </c>
-      <c r="G717" t="n">
-        <v>-44663002.94563965</v>
-      </c>
-      <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L717" t="n">
-        <v>1</v>
-      </c>
-      <c r="M717" t="inlineStr"/>
-    </row>
-    <row r="718">
-      <c r="A718" s="1" t="n">
-        <v>716</v>
-      </c>
-      <c r="B718" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C718" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D718" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E718" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F718" t="n">
-        <v>351551.9377</v>
-      </c>
-      <c r="G718" t="n">
-        <v>-44663002.94563965</v>
-      </c>
-      <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L718" t="n">
-        <v>1</v>
-      </c>
-      <c r="M718" t="inlineStr"/>
-    </row>
-    <row r="719">
-      <c r="A719" s="1" t="n">
-        <v>717</v>
-      </c>
-      <c r="B719" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C719" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D719" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E719" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F719" t="n">
-        <v>63484.1666</v>
-      </c>
-      <c r="G719" t="n">
-        <v>-44663002.94563965</v>
-      </c>
-      <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L719" t="n">
-        <v>1</v>
-      </c>
-      <c r="M719" t="inlineStr"/>
-    </row>
-    <row r="720">
-      <c r="A720" s="1" t="n">
-        <v>718</v>
-      </c>
-      <c r="B720" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C720" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D720" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E720" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F720" t="n">
-        <v>320965.2056</v>
-      </c>
-      <c r="G720" t="n">
-        <v>-44663002.94563965</v>
-      </c>
-      <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L720" t="n">
-        <v>1</v>
-      </c>
-      <c r="M720" t="inlineStr"/>
-    </row>
-    <row r="721">
-      <c r="A721" s="1" t="n">
-        <v>719</v>
-      </c>
-      <c r="B721" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C721" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D721" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E721" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F721" t="n">
-        <v>318214.1267</v>
-      </c>
-      <c r="G721" t="n">
-        <v>-44663002.94563965</v>
-      </c>
-      <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L721" t="n">
-        <v>1</v>
-      </c>
-      <c r="M721" t="inlineStr"/>
-    </row>
-    <row r="722">
-      <c r="A722" s="1" t="n">
-        <v>720</v>
-      </c>
-      <c r="B722" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C722" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D722" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="E722" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F722" t="n">
-        <v>577294.7874</v>
-      </c>
-      <c r="G722" t="n">
-        <v>-44663002.94563965</v>
-      </c>
-      <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L722" t="n">
-        <v>1</v>
-      </c>
-      <c r="M722" t="inlineStr"/>
-    </row>
-    <row r="723">
-      <c r="A723" s="1" t="n">
-        <v>721</v>
-      </c>
-      <c r="B723" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C723" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D723" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E723" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F723" t="n">
-        <v>10</v>
-      </c>
-      <c r="G723" t="n">
-        <v>-44662992.94563965</v>
-      </c>
-      <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L723" t="n">
-        <v>1</v>
-      </c>
-      <c r="M723" t="inlineStr"/>
-    </row>
-    <row r="724">
-      <c r="A724" s="1" t="n">
-        <v>722</v>
-      </c>
-      <c r="B724" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C724" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D724" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E724" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F724" t="n">
-        <v>64796.9828</v>
-      </c>
-      <c r="G724" t="n">
-        <v>-44727789.92843965</v>
-      </c>
-      <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L724" t="n">
-        <v>1</v>
-      </c>
-      <c r="M724" t="inlineStr"/>
-    </row>
-    <row r="725">
-      <c r="A725" s="1" t="n">
-        <v>723</v>
-      </c>
-      <c r="B725" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C725" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D725" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E725" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F725" t="n">
-        <v>1418.5366</v>
-      </c>
-      <c r="G725" t="n">
-        <v>-44726371.39183965</v>
-      </c>
-      <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L725" t="n">
-        <v>1</v>
-      </c>
-      <c r="M725" t="inlineStr"/>
-    </row>
-    <row r="726">
-      <c r="A726" s="1" t="n">
-        <v>724</v>
-      </c>
-      <c r="B726" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="C726" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D726" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E726" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="F726" t="n">
-        <v>330438.247</v>
-      </c>
-      <c r="G726" t="n">
-        <v>-44726371.39183965</v>
-      </c>
-      <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L726" t="n">
-        <v>1</v>
-      </c>
-      <c r="M726" t="inlineStr"/>
-    </row>
-    <row r="727">
-      <c r="A727" s="1" t="n">
-        <v>725</v>
-      </c>
-      <c r="B727" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C727" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D727" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E727" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F727" t="n">
-        <v>12696.8132</v>
-      </c>
-      <c r="G727" t="n">
-        <v>-44726371.39183965</v>
-      </c>
-      <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L727" t="n">
-        <v>1</v>
-      </c>
-      <c r="M727" t="inlineStr"/>
-    </row>
-    <row r="728">
-      <c r="A728" s="1" t="n">
-        <v>726</v>
-      </c>
-      <c r="B728" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C728" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D728" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E728" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F728" t="n">
-        <v>40140</v>
-      </c>
-      <c r="G728" t="n">
-        <v>-44726371.39183965</v>
-      </c>
-      <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L728" t="n">
-        <v>1</v>
-      </c>
-      <c r="M728" t="inlineStr"/>
-    </row>
-    <row r="729">
-      <c r="A729" s="1" t="n">
-        <v>727</v>
-      </c>
-      <c r="B729" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C729" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D729" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E729" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F729" t="n">
-        <v>403451.2327</v>
-      </c>
-      <c r="G729" t="n">
-        <v>-45129822.62453964</v>
-      </c>
-      <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L729" t="n">
-        <v>1</v>
-      </c>
-      <c r="M729" t="inlineStr"/>
-    </row>
-    <row r="730">
-      <c r="A730" s="1" t="n">
-        <v>728</v>
-      </c>
-      <c r="B730" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C730" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D730" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E730" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="F730" t="n">
-        <v>166553.6783</v>
-      </c>
-      <c r="G730" t="n">
-        <v>-44963268.94623964</v>
-      </c>
-      <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L730" t="n">
-        <v>1</v>
-      </c>
-      <c r="M730" t="inlineStr"/>
-    </row>
-    <row r="731">
-      <c r="A731" s="1" t="n">
-        <v>729</v>
-      </c>
-      <c r="B731" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C731" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D731" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E731" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F731" t="n">
-        <v>923453.6189</v>
-      </c>
-      <c r="G731" t="n">
-        <v>-44963268.94623964</v>
-      </c>
-      <c r="H731" t="n">
-        <v>1</v>
-      </c>
-      <c r="I731" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L731" t="n">
-        <v>1</v>
-      </c>
-      <c r="M731" t="inlineStr"/>
-    </row>
-    <row r="732">
-      <c r="A732" s="1" t="n">
-        <v>730</v>
-      </c>
-      <c r="B732" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C732" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D732" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E732" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F732" t="n">
-        <v>92926.2307</v>
-      </c>
-      <c r="G732" t="n">
-        <v>-44963268.94623964</v>
-      </c>
-      <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L732" t="n">
-        <v>1</v>
-      </c>
-      <c r="M732" t="inlineStr"/>
-    </row>
-    <row r="733">
-      <c r="A733" s="1" t="n">
-        <v>731</v>
-      </c>
-      <c r="B733" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C733" t="n">
-        <v>11</v>
-      </c>
-      <c r="D733" t="n">
-        <v>11</v>
-      </c>
-      <c r="E733" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F733" t="n">
-        <v>263175.839</v>
-      </c>
-      <c r="G733" t="n">
-        <v>-44700093.10723964</v>
-      </c>
-      <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L733" t="n">
-        <v>1</v>
-      </c>
-      <c r="M733" t="inlineStr"/>
-    </row>
-    <row r="734">
-      <c r="A734" s="1" t="n">
-        <v>732</v>
-      </c>
-      <c r="B734" t="n">
-        <v>11</v>
-      </c>
-      <c r="C734" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D734" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E734" t="n">
-        <v>11</v>
-      </c>
-      <c r="F734" t="n">
-        <v>477356.0361</v>
-      </c>
-      <c r="G734" t="n">
-        <v>-44222737.07113964</v>
-      </c>
-      <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L734" t="n">
-        <v>1</v>
-      </c>
-      <c r="M734" t="inlineStr"/>
-    </row>
-    <row r="735">
-      <c r="A735" s="1" t="n">
-        <v>733</v>
-      </c>
-      <c r="B735" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C735" t="n">
-        <v>11</v>
-      </c>
-      <c r="D735" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E735" t="n">
-        <v>11</v>
-      </c>
-      <c r="F735" t="n">
-        <v>94780.564</v>
-      </c>
-      <c r="G735" t="n">
-        <v>-44317517.63513964</v>
-      </c>
-      <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L735" t="n">
-        <v>1</v>
-      </c>
-      <c r="M735" t="inlineStr"/>
-    </row>
-    <row r="736">
-      <c r="A736" s="1" t="n">
-        <v>734</v>
-      </c>
-      <c r="B736" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C736" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D736" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E736" t="n">
-        <v>11</v>
-      </c>
-      <c r="F736" t="n">
-        <v>508936.3071</v>
-      </c>
-      <c r="G736" t="n">
-        <v>-43808581.32803965</v>
-      </c>
-      <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L736" t="n">
-        <v>1</v>
-      </c>
-      <c r="M736" t="inlineStr"/>
-    </row>
-    <row r="737">
-      <c r="A737" s="1" t="n">
-        <v>735</v>
-      </c>
-      <c r="B737" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C737" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D737" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E737" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F737" t="n">
-        <v>271619.5494</v>
-      </c>
-      <c r="G737" t="n">
-        <v>-43808581.32803965</v>
-      </c>
-      <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L737" t="n">
-        <v>1</v>
-      </c>
-      <c r="M737" t="inlineStr"/>
-    </row>
-    <row r="738">
-      <c r="A738" s="1" t="n">
-        <v>736</v>
-      </c>
-      <c r="B738" t="n">
-        <v>11</v>
-      </c>
-      <c r="C738" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D738" t="n">
-        <v>11</v>
-      </c>
-      <c r="E738" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F738" t="n">
-        <v>204107.8947</v>
-      </c>
-      <c r="G738" t="n">
-        <v>-44012689.22273964</v>
-      </c>
-      <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L738" t="n">
-        <v>1</v>
-      </c>
-      <c r="M738" t="inlineStr"/>
-    </row>
-    <row r="739">
-      <c r="A739" s="1" t="n">
-        <v>737</v>
-      </c>
-      <c r="B739" t="n">
-        <v>11</v>
-      </c>
-      <c r="C739" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D739" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E739" t="n">
-        <v>11</v>
-      </c>
-      <c r="F739" t="n">
-        <v>213095.362</v>
-      </c>
-      <c r="G739" t="n">
-        <v>-43799593.86073964</v>
-      </c>
-      <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L739" t="n">
-        <v>1</v>
-      </c>
-      <c r="M739" t="inlineStr"/>
-    </row>
-    <row r="740">
-      <c r="A740" s="1" t="n">
-        <v>738</v>
-      </c>
-      <c r="B740" t="n">
-        <v>11</v>
-      </c>
-      <c r="C740" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D740" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E740" t="n">
-        <v>11</v>
-      </c>
-      <c r="F740" t="n">
-        <v>48549.5495</v>
-      </c>
-      <c r="G740" t="n">
-        <v>-43799593.86073964</v>
-      </c>
-      <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L740" t="n">
-        <v>1</v>
-      </c>
-      <c r="M740" t="inlineStr"/>
-    </row>
-    <row r="741">
-      <c r="A741" s="1" t="n">
-        <v>739</v>
-      </c>
-      <c r="B741" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C741" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D741" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E741" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F741" t="n">
-        <v>2702.7</v>
-      </c>
-      <c r="G741" t="n">
-        <v>-43799593.86073964</v>
-      </c>
-      <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L741" t="n">
-        <v>1</v>
-      </c>
-      <c r="M741" t="inlineStr"/>
-    </row>
-    <row r="742">
-      <c r="A742" s="1" t="n">
-        <v>740</v>
-      </c>
-      <c r="B742" t="n">
-        <v>11</v>
-      </c>
-      <c r="C742" t="n">
-        <v>11</v>
-      </c>
-      <c r="D742" t="n">
-        <v>11</v>
-      </c>
-      <c r="E742" t="n">
-        <v>11</v>
-      </c>
-      <c r="F742" t="n">
-        <v>23688.9106</v>
-      </c>
-      <c r="G742" t="n">
-        <v>-43823282.77133964</v>
-      </c>
-      <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L742" t="n">
-        <v>1</v>
-      </c>
-      <c r="M742" t="inlineStr"/>
-    </row>
-    <row r="743">
-      <c r="A743" s="1" t="n">
-        <v>741</v>
-      </c>
-      <c r="B743" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C743" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="D743" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E743" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F743" t="n">
-        <v>11439.1561</v>
-      </c>
-      <c r="G743" t="n">
-        <v>-43834721.92743964</v>
-      </c>
-      <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L743" t="n">
-        <v>1</v>
-      </c>
-      <c r="M743" t="inlineStr"/>
-    </row>
-    <row r="744">
-      <c r="A744" s="1" t="n">
-        <v>742</v>
-      </c>
-      <c r="B744" t="n">
-        <v>11</v>
-      </c>
-      <c r="C744" t="n">
-        <v>11</v>
-      </c>
-      <c r="D744" t="n">
-        <v>11</v>
-      </c>
-      <c r="E744" t="n">
-        <v>11</v>
-      </c>
-      <c r="F744" t="n">
-        <v>17978.506</v>
-      </c>
-      <c r="G744" t="n">
-        <v>-43816743.42143964</v>
-      </c>
-      <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L744" t="n">
-        <v>1</v>
-      </c>
-      <c r="M744" t="inlineStr"/>
-    </row>
-    <row r="745">
-      <c r="A745" s="1" t="n">
-        <v>743</v>
-      </c>
-      <c r="B745" t="n">
-        <v>11</v>
-      </c>
-      <c r="C745" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D745" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E745" t="n">
-        <v>11</v>
-      </c>
-      <c r="F745" t="n">
-        <v>84937.47440000001</v>
-      </c>
-      <c r="G745" t="n">
-        <v>-43731805.94703964</v>
-      </c>
-      <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L745" t="n">
-        <v>1</v>
-      </c>
-      <c r="M745" t="inlineStr"/>
-    </row>
-    <row r="746">
-      <c r="A746" s="1" t="n">
-        <v>744</v>
-      </c>
-      <c r="B746" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C746" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D746" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E746" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F746" t="n">
-        <v>398423.3333</v>
-      </c>
-      <c r="G746" t="n">
-        <v>-43731805.94703964</v>
-      </c>
-      <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L746" t="n">
-        <v>1</v>
-      </c>
-      <c r="M746" t="inlineStr"/>
-    </row>
-    <row r="747">
-      <c r="A747" s="1" t="n">
-        <v>745</v>
-      </c>
-      <c r="B747" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C747" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D747" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E747" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F747" t="n">
-        <v>260723.7882</v>
-      </c>
-      <c r="G747" t="n">
-        <v>-43731805.94703964</v>
-      </c>
-      <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L747" t="n">
-        <v>1</v>
-      </c>
-      <c r="M747" t="inlineStr"/>
-    </row>
-    <row r="748">
-      <c r="A748" s="1" t="n">
-        <v>746</v>
-      </c>
-      <c r="B748" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C748" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D748" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E748" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F748" t="n">
-        <v>9009.009</v>
-      </c>
-      <c r="G748" t="n">
-        <v>-43731805.94703964</v>
-      </c>
-      <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L748" t="n">
-        <v>1</v>
-      </c>
-      <c r="M748" t="inlineStr"/>
-    </row>
-    <row r="749">
-      <c r="A749" s="1" t="n">
-        <v>747</v>
-      </c>
-      <c r="B749" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C749" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D749" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E749" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F749" t="n">
-        <v>365401.0359</v>
-      </c>
-      <c r="G749" t="n">
-        <v>-43731805.94703964</v>
-      </c>
-      <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L749" t="n">
-        <v>1</v>
-      </c>
-      <c r="M749" t="inlineStr"/>
-    </row>
-    <row r="750">
-      <c r="A750" s="1" t="n">
-        <v>748</v>
-      </c>
-      <c r="B750" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C750" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D750" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E750" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F750" t="n">
-        <v>10090.09009009009</v>
-      </c>
-      <c r="G750" t="n">
-        <v>-43731805.94703964</v>
-      </c>
-      <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L750" t="n">
-        <v>1</v>
-      </c>
-      <c r="M750" t="inlineStr"/>
-    </row>
-    <row r="751">
-      <c r="A751" s="1" t="n">
-        <v>749</v>
-      </c>
-      <c r="B751" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C751" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D751" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E751" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F751" t="n">
-        <v>4504.5045</v>
-      </c>
-      <c r="G751" t="n">
-        <v>-43731805.94703964</v>
-      </c>
-      <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L751" t="n">
-        <v>1</v>
-      </c>
-      <c r="M751" t="inlineStr"/>
-    </row>
-    <row r="752">
-      <c r="A752" s="1" t="n">
-        <v>750</v>
-      </c>
-      <c r="B752" t="n">
-        <v>11</v>
-      </c>
-      <c r="C752" t="n">
-        <v>11</v>
-      </c>
-      <c r="D752" t="n">
-        <v>11</v>
-      </c>
-      <c r="E752" t="n">
-        <v>11</v>
-      </c>
-      <c r="F752" t="n">
-        <v>223997.9999</v>
-      </c>
-      <c r="G752" t="n">
-        <v>-43955803.94693964</v>
-      </c>
-      <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L752" t="n">
-        <v>1</v>
-      </c>
-      <c r="M752" t="inlineStr"/>
-    </row>
-    <row r="753">
-      <c r="A753" s="1" t="n">
-        <v>751</v>
-      </c>
-      <c r="B753" t="n">
-        <v>11</v>
-      </c>
-      <c r="C753" t="n">
-        <v>11</v>
-      </c>
-      <c r="D753" t="n">
-        <v>11</v>
-      </c>
-      <c r="E753" t="n">
-        <v>11</v>
-      </c>
-      <c r="F753" t="n">
-        <v>240170.6497</v>
-      </c>
-      <c r="G753" t="n">
-        <v>-43955803.94693964</v>
-      </c>
-      <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L753" t="n">
-        <v>1</v>
-      </c>
-      <c r="M753" t="inlineStr"/>
-    </row>
-    <row r="754">
-      <c r="A754" s="1" t="n">
-        <v>752</v>
-      </c>
-      <c r="B754" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C754" t="n">
-        <v>11</v>
-      </c>
-      <c r="D754" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E754" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F754" t="n">
-        <v>50</v>
-      </c>
-      <c r="G754" t="n">
-        <v>-43955803.94693964</v>
-      </c>
-      <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25622,10 +25320,14 @@
         <v>-43846729.35603964</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>11</v>
+      </c>
+      <c r="J755" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25662,7 +25364,9 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25701,7 +25405,9 @@
       <c r="I757" t="n">
         <v>11</v>
       </c>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25738,7 +25444,9 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25775,7 +25483,9 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25812,7 +25522,9 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25846,10 +25558,14 @@
         <v>-43873193.72473964</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>11</v>
+      </c>
+      <c r="J761" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25888,7 +25604,9 @@
       <c r="I762" t="n">
         <v>11</v>
       </c>
-      <c r="J762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25927,7 +25645,9 @@
       <c r="I763" t="n">
         <v>11</v>
       </c>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25966,7 +25686,9 @@
       <c r="I764" t="n">
         <v>10.9</v>
       </c>
-      <c r="J764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26005,7 +25727,9 @@
       <c r="I765" t="n">
         <v>11</v>
       </c>
-      <c r="J765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26044,7 +25768,9 @@
       <c r="I766" t="n">
         <v>10.9</v>
       </c>
-      <c r="J766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26083,7 +25809,9 @@
       <c r="I767" t="n">
         <v>11</v>
       </c>
-      <c r="J767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26117,12 +25845,12 @@
         <v>-44517375.35133965</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
-      </c>
-      <c r="I768" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="J768" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26161,7 +25889,9 @@
       <c r="I769" t="n">
         <v>11</v>
       </c>
-      <c r="J769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>11.1</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
